--- a/yield_prediction/results/gnn_main_scores/additive_main_scores.xlsx
+++ b/yield_prediction/results/gnn_main_scores/additive_main_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="24">
   <si>
     <t>molecule</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>additive</t>
+  </si>
+  <si>
+    <t>additive_200epochs</t>
   </si>
   <si>
     <t>max</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>0.001</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>197.013</v>
@@ -560,66 +563,66 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0.001</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>191.98</v>
+        <v>175.444</v>
       </c>
       <c r="G3">
-        <v>13.012</v>
+        <v>12.885</v>
       </c>
       <c r="H3">
-        <v>20.059</v>
+        <v>19.348</v>
       </c>
       <c r="I3">
-        <v>12.086</v>
+        <v>12.019</v>
       </c>
       <c r="J3">
-        <v>15.128</v>
+        <v>15.245</v>
       </c>
       <c r="K3">
-        <v>13.162</v>
+        <v>13.064</v>
       </c>
       <c r="L3">
-        <v>13.262</v>
+        <v>13.024</v>
       </c>
       <c r="M3">
-        <v>12.991</v>
+        <v>12.937</v>
       </c>
       <c r="N3">
-        <v>13.741</v>
+        <v>13.34</v>
       </c>
       <c r="O3">
-        <v>12.81275</v>
+        <v>12.72625</v>
       </c>
       <c r="P3">
-        <v>0.4904469899999388</v>
+        <v>0.4774567170609986</v>
       </c>
       <c r="Q3">
-        <v>15.5475</v>
+        <v>15.23925</v>
       </c>
       <c r="R3">
-        <v>3.110014201468112</v>
+        <v>2.909544222611736</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0.001</v>
@@ -628,51 +631,51 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>233.958</v>
+        <v>180.427</v>
       </c>
       <c r="G4">
-        <v>13.099</v>
+        <v>12.88</v>
       </c>
       <c r="H4">
-        <v>18.945</v>
+        <v>19.689</v>
       </c>
       <c r="I4">
-        <v>12.193</v>
+        <v>11.995</v>
       </c>
       <c r="J4">
-        <v>18.052</v>
+        <v>15.379</v>
       </c>
       <c r="K4">
-        <v>13.578</v>
+        <v>13.114</v>
       </c>
       <c r="L4">
-        <v>12.711</v>
+        <v>12.283</v>
       </c>
       <c r="M4">
-        <v>13.064</v>
+        <v>12.856</v>
       </c>
       <c r="N4">
-        <v>13.775</v>
+        <v>13.741</v>
       </c>
       <c r="O4">
-        <v>12.9835</v>
+        <v>12.71125</v>
       </c>
       <c r="P4">
-        <v>0.5768133724755926</v>
+        <v>0.4914776190224746</v>
       </c>
       <c r="Q4">
-        <v>15.87075</v>
+        <v>15.273</v>
       </c>
       <c r="R4">
-        <v>3.08680270128602</v>
+        <v>3.20413358023663</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -681,49 +684,49 @@
         <v>0.001</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>196.366</v>
+        <v>179.255</v>
       </c>
       <c r="G5">
-        <v>13.336</v>
+        <v>12.875</v>
       </c>
       <c r="H5">
-        <v>19.738</v>
+        <v>18.266</v>
       </c>
       <c r="I5">
-        <v>12.097</v>
+        <v>12.013</v>
       </c>
       <c r="J5">
-        <v>17.381</v>
+        <v>16.354</v>
       </c>
       <c r="K5">
-        <v>13.515</v>
+        <v>13.041</v>
       </c>
       <c r="L5">
-        <v>12.679</v>
+        <v>13.286</v>
       </c>
       <c r="M5">
-        <v>13.039</v>
+        <v>12.869</v>
       </c>
       <c r="N5">
-        <v>13.708</v>
+        <v>13.677</v>
       </c>
       <c r="O5">
-        <v>12.99675</v>
+        <v>12.6995</v>
       </c>
       <c r="P5">
-        <v>0.631138851600819</v>
+        <v>0.4645553429535245</v>
       </c>
       <c r="Q5">
-        <v>15.8765</v>
+        <v>15.39575</v>
       </c>
       <c r="R5">
-        <v>3.271141543865077</v>
+        <v>2.349590372100351</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -731,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.001</v>
@@ -740,158 +743,158 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>225.988</v>
+        <v>191.98</v>
       </c>
       <c r="G6">
-        <v>13.908</v>
+        <v>13.012</v>
       </c>
       <c r="H6">
-        <v>18.804</v>
+        <v>20.059</v>
       </c>
       <c r="I6">
-        <v>12.805</v>
+        <v>12.086</v>
       </c>
       <c r="J6">
-        <v>17.026</v>
+        <v>15.128</v>
       </c>
       <c r="K6">
-        <v>14.685</v>
+        <v>13.162</v>
       </c>
       <c r="L6">
-        <v>13.662</v>
+        <v>13.262</v>
       </c>
       <c r="M6">
-        <v>14.498</v>
+        <v>12.991</v>
       </c>
       <c r="N6">
-        <v>14.98</v>
+        <v>13.741</v>
       </c>
       <c r="O6">
-        <v>13.974</v>
+        <v>12.81275</v>
       </c>
       <c r="P6">
-        <v>0.8467612808027224</v>
+        <v>0.4904469899999388</v>
       </c>
       <c r="Q6">
-        <v>16.118</v>
+        <v>15.5475</v>
       </c>
       <c r="R6">
-        <v>2.263186544086309</v>
+        <v>3.110014201468112</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0.001</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>226.35</v>
+        <v>176.579</v>
       </c>
       <c r="G7">
-        <v>14.426</v>
+        <v>12.859</v>
       </c>
       <c r="H7">
-        <v>20.379</v>
+        <v>20.558</v>
       </c>
       <c r="I7">
-        <v>12.05</v>
+        <v>12.167</v>
       </c>
       <c r="J7">
-        <v>15.483</v>
+        <v>14.937</v>
       </c>
       <c r="K7">
-        <v>13.422</v>
+        <v>13.255</v>
       </c>
       <c r="L7">
-        <v>14.12</v>
+        <v>13.436</v>
       </c>
       <c r="M7">
-        <v>13.919</v>
+        <v>12.891</v>
       </c>
       <c r="N7">
-        <v>14.495</v>
+        <v>14.027</v>
       </c>
       <c r="O7">
-        <v>13.45425</v>
+        <v>12.793</v>
       </c>
       <c r="P7">
-        <v>1.021966853669922</v>
+        <v>0.4543420150796831</v>
       </c>
       <c r="Q7">
-        <v>16.11925</v>
+        <v>15.7395</v>
       </c>
       <c r="R7">
-        <v>2.897439832564835</v>
+        <v>3.271121978771199</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>217.241</v>
+        <v>190.824</v>
       </c>
       <c r="G8">
-        <v>13.876</v>
+        <v>13.341</v>
       </c>
       <c r="H8">
-        <v>19.357</v>
+        <v>18.452</v>
       </c>
       <c r="I8">
-        <v>12.374</v>
+        <v>13.309</v>
       </c>
       <c r="J8">
-        <v>16.384</v>
+        <v>17.981</v>
       </c>
       <c r="K8">
-        <v>14.131</v>
+        <v>14.495</v>
       </c>
       <c r="L8">
-        <v>14.924</v>
+        <v>13.452</v>
       </c>
       <c r="M8">
-        <v>15.509</v>
+        <v>13.851</v>
       </c>
       <c r="N8">
-        <v>14.599</v>
+        <v>13.487</v>
       </c>
       <c r="O8">
-        <v>13.9725</v>
+        <v>13.749</v>
       </c>
       <c r="P8">
-        <v>1.284584109092641</v>
+        <v>0.555872887148372</v>
       </c>
       <c r="Q8">
-        <v>16.316</v>
+        <v>15.843</v>
       </c>
       <c r="R8">
-        <v>2.170872174956416</v>
+        <v>2.747455914114002</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -899,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0.001</v>
@@ -908,46 +911,46 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>193.061</v>
+        <v>233.958</v>
       </c>
       <c r="G9">
-        <v>13.386</v>
+        <v>13.099</v>
       </c>
       <c r="H9">
-        <v>19.027</v>
+        <v>18.945</v>
       </c>
       <c r="I9">
-        <v>12.14</v>
+        <v>12.193</v>
       </c>
       <c r="J9">
-        <v>17.009</v>
+        <v>18.052</v>
       </c>
       <c r="K9">
-        <v>13.304</v>
+        <v>13.578</v>
       </c>
       <c r="L9">
-        <v>15.83</v>
+        <v>12.711</v>
       </c>
       <c r="M9">
-        <v>13.228</v>
+        <v>13.064</v>
       </c>
       <c r="N9">
-        <v>13.471</v>
+        <v>13.775</v>
       </c>
       <c r="O9">
-        <v>13.0145</v>
+        <v>12.9835</v>
       </c>
       <c r="P9">
-        <v>0.5865591757586494</v>
+        <v>0.5768133724755926</v>
       </c>
       <c r="Q9">
-        <v>16.33425</v>
+        <v>15.87075</v>
       </c>
       <c r="R9">
-        <v>2.320823040072925</v>
+        <v>3.08680270128602</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -955,223 +958,223 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0.001</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>235.008</v>
+        <v>196.366</v>
       </c>
       <c r="G10">
-        <v>14.661</v>
+        <v>13.336</v>
       </c>
       <c r="H10">
-        <v>20.302</v>
+        <v>19.738</v>
       </c>
       <c r="I10">
-        <v>14.11</v>
+        <v>12.097</v>
       </c>
       <c r="J10">
-        <v>17.782</v>
+        <v>17.381</v>
       </c>
       <c r="K10">
-        <v>15.793</v>
+        <v>13.515</v>
       </c>
       <c r="L10">
-        <v>13.033</v>
+        <v>12.679</v>
       </c>
       <c r="M10">
-        <v>15.091</v>
+        <v>13.039</v>
       </c>
       <c r="N10">
-        <v>14.304</v>
+        <v>13.708</v>
       </c>
       <c r="O10">
-        <v>14.91375</v>
+        <v>12.99675</v>
       </c>
       <c r="P10">
-        <v>0.7104915551926003</v>
+        <v>0.631138851600819</v>
       </c>
       <c r="Q10">
-        <v>16.35525</v>
+        <v>15.8765</v>
       </c>
       <c r="R10">
-        <v>3.30945225830499</v>
+        <v>3.271141543865077</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>246.795</v>
+        <v>177.515</v>
       </c>
       <c r="G11">
-        <v>15.371</v>
+        <v>12.881</v>
       </c>
       <c r="H11">
-        <v>19.947</v>
+        <v>19.431</v>
       </c>
       <c r="I11">
-        <v>14.257</v>
+        <v>12.106</v>
       </c>
       <c r="J11">
-        <v>17.356</v>
+        <v>16.754</v>
       </c>
       <c r="K11">
-        <v>15.496</v>
+        <v>13.419</v>
       </c>
       <c r="L11">
-        <v>14.35</v>
+        <v>13.068</v>
       </c>
       <c r="M11">
-        <v>15.114</v>
+        <v>12.949</v>
       </c>
       <c r="N11">
-        <v>14.464</v>
+        <v>14.359</v>
       </c>
       <c r="O11">
-        <v>15.0595</v>
+        <v>12.83875</v>
       </c>
       <c r="P11">
-        <v>0.5581340938042283</v>
+        <v>0.5439217927852008</v>
       </c>
       <c r="Q11">
-        <v>16.52925</v>
+        <v>15.903</v>
       </c>
       <c r="R11">
-        <v>2.669514234837492</v>
+        <v>2.804291116604456</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>256.022</v>
+        <v>195.141</v>
       </c>
       <c r="G12">
-        <v>14.896</v>
+        <v>13.712</v>
       </c>
       <c r="H12">
-        <v>21.055</v>
+        <v>19.391</v>
       </c>
       <c r="I12">
-        <v>14.354</v>
+        <v>12.373</v>
       </c>
       <c r="J12">
-        <v>17.423</v>
+        <v>16.929</v>
       </c>
       <c r="K12">
-        <v>14.563</v>
+        <v>14.593</v>
       </c>
       <c r="L12">
-        <v>14.108</v>
+        <v>13.424</v>
       </c>
       <c r="M12">
-        <v>14.404</v>
+        <v>14.574</v>
       </c>
       <c r="N12">
-        <v>13.534</v>
+        <v>14.241</v>
       </c>
       <c r="O12">
-        <v>14.55425</v>
+        <v>13.813</v>
       </c>
       <c r="P12">
-        <v>0.2446390197822095</v>
+        <v>1.044241670623552</v>
       </c>
       <c r="Q12">
-        <v>16.53</v>
+        <v>15.99625</v>
       </c>
       <c r="R12">
-        <v>3.469638501823112</v>
+        <v>2.713652074849193</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0.001</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>192.751</v>
+        <v>174.533</v>
       </c>
       <c r="G13">
-        <v>13.401</v>
+        <v>12.869</v>
       </c>
       <c r="H13">
-        <v>19.461</v>
+        <v>18.554</v>
       </c>
       <c r="I13">
-        <v>13.999</v>
+        <v>12.001</v>
       </c>
       <c r="J13">
-        <v>17.679</v>
+        <v>16.335</v>
       </c>
       <c r="K13">
-        <v>14.235</v>
+        <v>13.054</v>
       </c>
       <c r="L13">
-        <v>14.983</v>
+        <v>15.915</v>
       </c>
       <c r="M13">
-        <v>13.388</v>
+        <v>12.845</v>
       </c>
       <c r="N13">
-        <v>14.025</v>
+        <v>13.204</v>
       </c>
       <c r="O13">
-        <v>13.75575</v>
+        <v>12.69225</v>
       </c>
       <c r="P13">
-        <v>0.4281505770948658</v>
+        <v>0.4701995143907889</v>
       </c>
       <c r="Q13">
-        <v>16.537</v>
+        <v>16.002</v>
       </c>
       <c r="R13">
-        <v>2.488573888796553</v>
+        <v>2.195447258912558</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1179,55 +1182,55 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>242.445</v>
+        <v>225.988</v>
       </c>
       <c r="G14">
-        <v>15.07</v>
+        <v>13.908</v>
       </c>
       <c r="H14">
-        <v>19.436</v>
+        <v>18.804</v>
       </c>
       <c r="I14">
-        <v>14.896</v>
+        <v>12.805</v>
       </c>
       <c r="J14">
-        <v>17.618</v>
+        <v>17.026</v>
       </c>
       <c r="K14">
-        <v>16.076</v>
+        <v>14.685</v>
       </c>
       <c r="L14">
-        <v>14.904</v>
+        <v>13.662</v>
       </c>
       <c r="M14">
-        <v>16.696</v>
+        <v>14.498</v>
       </c>
       <c r="N14">
-        <v>14.527</v>
+        <v>14.98</v>
       </c>
       <c r="O14">
-        <v>15.6845</v>
+        <v>13.974</v>
       </c>
       <c r="P14">
-        <v>0.8516155235785693</v>
+        <v>0.8467612808027224</v>
       </c>
       <c r="Q14">
-        <v>16.62125</v>
+        <v>16.118</v>
       </c>
       <c r="R14">
-        <v>2.327456318959964</v>
+        <v>2.263186544086309</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1235,223 +1238,223 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.001</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>229.808</v>
+        <v>226.35</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>14.426</v>
       </c>
       <c r="H15">
-        <v>20.069</v>
+        <v>20.379</v>
       </c>
       <c r="I15">
-        <v>13.473</v>
+        <v>12.05</v>
       </c>
       <c r="J15">
-        <v>17.941</v>
+        <v>15.483</v>
       </c>
       <c r="K15">
-        <v>14.553</v>
+        <v>13.422</v>
       </c>
       <c r="L15">
-        <v>15.05</v>
+        <v>14.12</v>
       </c>
       <c r="M15">
-        <v>14.776</v>
+        <v>13.919</v>
       </c>
       <c r="N15">
-        <v>13.57</v>
+        <v>14.495</v>
       </c>
       <c r="O15">
-        <v>14.2005</v>
+        <v>13.45425</v>
       </c>
       <c r="P15">
-        <v>0.5844977901298399</v>
+        <v>1.021966853669922</v>
       </c>
       <c r="Q15">
-        <v>16.6575</v>
+        <v>16.11925</v>
       </c>
       <c r="R15">
-        <v>2.909892151495194</v>
+        <v>2.897439832564835</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>219.259</v>
+        <v>224.987</v>
       </c>
       <c r="G16">
-        <v>13.653</v>
+        <v>14.367</v>
       </c>
       <c r="H16">
-        <v>18.602</v>
+        <v>18.829</v>
       </c>
       <c r="I16">
-        <v>12.737</v>
+        <v>13.765</v>
       </c>
       <c r="J16">
-        <v>18.387</v>
+        <v>17.859</v>
       </c>
       <c r="K16">
-        <v>14.359</v>
+        <v>15.45</v>
       </c>
       <c r="L16">
-        <v>16.073</v>
+        <v>13.714</v>
       </c>
       <c r="M16">
-        <v>13.615</v>
+        <v>15.161</v>
       </c>
       <c r="N16">
-        <v>13.666</v>
+        <v>14.199</v>
       </c>
       <c r="O16">
-        <v>13.591</v>
+        <v>14.68575</v>
       </c>
       <c r="P16">
-        <v>0.6642188394397336</v>
+        <v>0.765794304409915</v>
       </c>
       <c r="Q16">
-        <v>16.682</v>
+        <v>16.15025</v>
       </c>
       <c r="R16">
-        <v>2.31376763454472</v>
+        <v>2.571524758452334</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>239.902</v>
+        <v>199.3</v>
       </c>
       <c r="G17">
-        <v>14.959</v>
+        <v>13.492</v>
       </c>
       <c r="H17">
-        <v>19.332</v>
+        <v>19.163</v>
       </c>
       <c r="I17">
-        <v>14.22</v>
+        <v>12.449</v>
       </c>
       <c r="J17">
-        <v>17.81</v>
+        <v>16.499</v>
       </c>
       <c r="K17">
-        <v>15.287</v>
+        <v>14.941</v>
       </c>
       <c r="L17">
-        <v>15.313</v>
+        <v>14.728</v>
       </c>
       <c r="M17">
-        <v>15.219</v>
+        <v>13.824</v>
       </c>
       <c r="N17">
-        <v>14.642</v>
+        <v>14.497</v>
       </c>
       <c r="O17">
-        <v>14.92125</v>
+        <v>13.6765</v>
       </c>
       <c r="P17">
-        <v>0.4884003651377284</v>
+        <v>1.026565958264089</v>
       </c>
       <c r="Q17">
-        <v>16.77425</v>
+        <v>16.22175</v>
       </c>
       <c r="R17">
-        <v>2.183010516847472</v>
+        <v>2.155138877968966</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>241.947</v>
+        <v>186.734</v>
       </c>
       <c r="G18">
-        <v>14.89</v>
+        <v>13.256</v>
       </c>
       <c r="H18">
-        <v>19.249</v>
+        <v>19.657</v>
       </c>
       <c r="I18">
-        <v>15.14</v>
+        <v>12.213</v>
       </c>
       <c r="J18">
-        <v>18.441</v>
+        <v>17.737</v>
       </c>
       <c r="K18">
-        <v>15.702</v>
+        <v>13.353</v>
       </c>
       <c r="L18">
-        <v>15.207</v>
+        <v>13.53</v>
       </c>
       <c r="M18">
-        <v>15.155</v>
+        <v>13.477</v>
       </c>
       <c r="N18">
-        <v>14.421</v>
+        <v>14.189</v>
       </c>
       <c r="O18">
-        <v>15.22175</v>
+        <v>13.07475</v>
       </c>
       <c r="P18">
-        <v>0.3424600949989159</v>
+        <v>0.5815762346130275</v>
       </c>
       <c r="Q18">
-        <v>16.8295</v>
+        <v>16.27825</v>
       </c>
       <c r="R18">
-        <v>2.372361060209848</v>
+        <v>2.913288333939273</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1459,55 +1462,55 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0.01</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>242.6</v>
+        <v>217.241</v>
       </c>
       <c r="G19">
-        <v>15.185</v>
+        <v>13.876</v>
       </c>
       <c r="H19">
-        <v>20.489</v>
+        <v>19.357</v>
       </c>
       <c r="I19">
-        <v>14.227</v>
+        <v>12.374</v>
       </c>
       <c r="J19">
-        <v>16.89</v>
+        <v>16.384</v>
       </c>
       <c r="K19">
-        <v>15.761</v>
+        <v>14.131</v>
       </c>
       <c r="L19">
-        <v>15.069</v>
+        <v>14.924</v>
       </c>
       <c r="M19">
-        <v>15.259</v>
+        <v>15.509</v>
       </c>
       <c r="N19">
-        <v>15.076</v>
+        <v>14.599</v>
       </c>
       <c r="O19">
-        <v>15.108</v>
+        <v>13.9725</v>
       </c>
       <c r="P19">
-        <v>0.640650710866173</v>
+        <v>1.284584109092641</v>
       </c>
       <c r="Q19">
-        <v>16.881</v>
+        <v>16.316</v>
       </c>
       <c r="R19">
-        <v>2.553371235575952</v>
+        <v>2.170872174956416</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1518,108 +1521,108 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>258.937</v>
+        <v>193.061</v>
       </c>
       <c r="G20">
-        <v>15.231</v>
+        <v>13.386</v>
       </c>
       <c r="H20">
-        <v>20.005</v>
+        <v>19.027</v>
       </c>
       <c r="I20">
-        <v>14.203</v>
+        <v>12.14</v>
       </c>
       <c r="J20">
-        <v>17.991</v>
+        <v>17.009</v>
       </c>
       <c r="K20">
-        <v>15.319</v>
+        <v>13.304</v>
       </c>
       <c r="L20">
-        <v>14.817</v>
+        <v>15.83</v>
       </c>
       <c r="M20">
-        <v>15.633</v>
+        <v>13.228</v>
       </c>
       <c r="N20">
-        <v>14.864</v>
+        <v>13.471</v>
       </c>
       <c r="O20">
-        <v>15.0965</v>
+        <v>13.0145</v>
       </c>
       <c r="P20">
-        <v>0.6201534756278752</v>
+        <v>0.5865591757586494</v>
       </c>
       <c r="Q20">
-        <v>16.91925</v>
+        <v>16.33425</v>
       </c>
       <c r="R20">
-        <v>2.537321997040711</v>
+        <v>2.320823040072925</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>237.943</v>
+        <v>212.027</v>
       </c>
       <c r="G21">
-        <v>15.003</v>
+        <v>14.385</v>
       </c>
       <c r="H21">
-        <v>19.679</v>
+        <v>20.279</v>
       </c>
       <c r="I21">
-        <v>14.221</v>
+        <v>14.222</v>
       </c>
       <c r="J21">
-        <v>17.646</v>
+        <v>17.964</v>
       </c>
       <c r="K21">
-        <v>15.236</v>
+        <v>13.944</v>
       </c>
       <c r="L21">
-        <v>15.828</v>
+        <v>12.542</v>
       </c>
       <c r="M21">
-        <v>15.167</v>
+        <v>14.407</v>
       </c>
       <c r="N21">
-        <v>14.609</v>
+        <v>14.635</v>
       </c>
       <c r="O21">
-        <v>14.90675</v>
+        <v>14.2395</v>
       </c>
       <c r="P21">
-        <v>0.4674942958653792</v>
+        <v>0.2135829269081836</v>
       </c>
       <c r="Q21">
-        <v>16.9405</v>
+        <v>16.355</v>
       </c>
       <c r="R21">
-        <v>2.211384257277177</v>
+        <v>3.439187210180142</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1627,111 +1630,111 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>239.403</v>
+        <v>235.008</v>
       </c>
       <c r="G22">
-        <v>14.896</v>
+        <v>14.661</v>
       </c>
       <c r="H22">
-        <v>19.799</v>
+        <v>20.302</v>
       </c>
       <c r="I22">
-        <v>14.215</v>
+        <v>14.11</v>
       </c>
       <c r="J22">
-        <v>18.686</v>
+        <v>17.782</v>
       </c>
       <c r="K22">
-        <v>15.453</v>
+        <v>15.793</v>
       </c>
       <c r="L22">
-        <v>14.277</v>
+        <v>13.033</v>
       </c>
       <c r="M22">
-        <v>15.105</v>
+        <v>15.091</v>
       </c>
       <c r="N22">
-        <v>15.109</v>
+        <v>14.304</v>
       </c>
       <c r="O22">
-        <v>14.91725</v>
+        <v>14.91375</v>
       </c>
       <c r="P22">
-        <v>0.5214993608177609</v>
+        <v>0.7104915551926003</v>
       </c>
       <c r="Q22">
-        <v>16.96775</v>
+        <v>16.35525</v>
       </c>
       <c r="R22">
-        <v>2.687219551258636</v>
+        <v>3.30945225830499</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0.01</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23">
-        <v>244.787</v>
+        <v>234.546</v>
       </c>
       <c r="G23">
-        <v>14.921</v>
+        <v>14.841</v>
       </c>
       <c r="H23">
-        <v>19.647</v>
+        <v>18.889</v>
       </c>
       <c r="I23">
-        <v>14.208</v>
+        <v>14.16</v>
       </c>
       <c r="J23">
-        <v>17.566</v>
+        <v>17.741</v>
       </c>
       <c r="K23">
-        <v>15.247</v>
+        <v>15.195</v>
       </c>
       <c r="L23">
-        <v>15.536</v>
+        <v>14.929</v>
       </c>
       <c r="M23">
-        <v>16.547</v>
+        <v>15.004</v>
       </c>
       <c r="N23">
-        <v>15.127</v>
+        <v>14.38</v>
       </c>
       <c r="O23">
-        <v>15.23075</v>
+        <v>14.8</v>
       </c>
       <c r="P23">
-        <v>0.9789008717263803</v>
+        <v>0.4505263588293142</v>
       </c>
       <c r="Q23">
-        <v>16.969</v>
+        <v>16.48475</v>
       </c>
       <c r="R23">
-        <v>2.079627049897809</v>
+        <v>2.176305183102774</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1739,55 +1742,55 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24">
-        <v>220.297</v>
+        <v>246.795</v>
       </c>
       <c r="G24">
-        <v>14.194</v>
+        <v>15.371</v>
       </c>
       <c r="H24">
-        <v>19.798</v>
+        <v>19.947</v>
       </c>
       <c r="I24">
-        <v>17.01</v>
+        <v>14.257</v>
       </c>
       <c r="J24">
-        <v>18.056</v>
+        <v>17.356</v>
       </c>
       <c r="K24">
-        <v>14.098</v>
+        <v>15.496</v>
       </c>
       <c r="L24">
-        <v>16.349</v>
+        <v>14.35</v>
       </c>
       <c r="M24">
-        <v>14.801</v>
+        <v>15.114</v>
       </c>
       <c r="N24">
-        <v>13.766</v>
+        <v>14.464</v>
       </c>
       <c r="O24">
-        <v>15.02575</v>
+        <v>15.0595</v>
       </c>
       <c r="P24">
-        <v>1.358956554370546</v>
+        <v>0.5581340938042283</v>
       </c>
       <c r="Q24">
-        <v>16.99225</v>
+        <v>16.52925</v>
       </c>
       <c r="R24">
-        <v>2.570749355732682</v>
+        <v>2.669514234837492</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1795,55 +1798,55 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>250.233</v>
+        <v>256.022</v>
       </c>
       <c r="G25">
-        <v>15.376</v>
+        <v>14.896</v>
       </c>
       <c r="H25">
-        <v>19.89</v>
+        <v>21.055</v>
       </c>
       <c r="I25">
-        <v>15.371</v>
+        <v>14.354</v>
       </c>
       <c r="J25">
-        <v>17.352</v>
+        <v>17.423</v>
       </c>
       <c r="K25">
-        <v>15.89</v>
+        <v>14.563</v>
       </c>
       <c r="L25">
-        <v>16.292</v>
+        <v>14.108</v>
       </c>
       <c r="M25">
-        <v>15.639</v>
+        <v>14.404</v>
       </c>
       <c r="N25">
-        <v>14.576</v>
+        <v>13.534</v>
       </c>
       <c r="O25">
-        <v>15.569</v>
+        <v>14.55425</v>
       </c>
       <c r="P25">
-        <v>0.2479206862419245</v>
+        <v>0.2446390197822095</v>
       </c>
       <c r="Q25">
-        <v>17.0275</v>
+        <v>16.53</v>
       </c>
       <c r="R25">
-        <v>2.224860969439064</v>
+        <v>3.469638501823112</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1851,167 +1854,167 @@
         <v>18</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0.001</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>241.623</v>
+        <v>192.751</v>
       </c>
       <c r="G26">
-        <v>15.043</v>
+        <v>13.401</v>
       </c>
       <c r="H26">
-        <v>19.543</v>
+        <v>19.461</v>
       </c>
       <c r="I26">
-        <v>14.22</v>
+        <v>13.999</v>
       </c>
       <c r="J26">
-        <v>17.691</v>
+        <v>17.679</v>
       </c>
       <c r="K26">
-        <v>15.191</v>
+        <v>14.235</v>
       </c>
       <c r="L26">
-        <v>15.688</v>
+        <v>14.983</v>
       </c>
       <c r="M26">
-        <v>15.094</v>
+        <v>13.388</v>
       </c>
       <c r="N26">
-        <v>15.545</v>
+        <v>14.025</v>
       </c>
       <c r="O26">
-        <v>14.887</v>
+        <v>13.75575</v>
       </c>
       <c r="P26">
-        <v>0.448883800851252</v>
+        <v>0.4281505770948658</v>
       </c>
       <c r="Q26">
-        <v>17.11675</v>
+        <v>16.537</v>
       </c>
       <c r="R26">
-        <v>1.891047042425614</v>
+        <v>2.488573888796553</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>244.334</v>
+        <v>181.925</v>
       </c>
       <c r="G27">
-        <v>15.253</v>
+        <v>13.078</v>
       </c>
       <c r="H27">
-        <v>20.202</v>
+        <v>18.265</v>
       </c>
       <c r="I27">
-        <v>14.217</v>
+        <v>12.409</v>
       </c>
       <c r="J27">
-        <v>17.793</v>
+        <v>17.281</v>
       </c>
       <c r="K27">
-        <v>15.281</v>
+        <v>13.61</v>
       </c>
       <c r="L27">
-        <v>15.401</v>
+        <v>13.44</v>
       </c>
       <c r="M27">
-        <v>15.464</v>
+        <v>13.118</v>
       </c>
       <c r="N27">
-        <v>15.103</v>
+        <v>17.284</v>
       </c>
       <c r="O27">
-        <v>15.05375</v>
+        <v>13.05375</v>
       </c>
       <c r="P27">
-        <v>0.5656261279915087</v>
+        <v>0.4932317744563228</v>
       </c>
       <c r="Q27">
-        <v>17.12475</v>
+        <v>16.5675</v>
       </c>
       <c r="R27">
-        <v>2.378712028949001</v>
+        <v>2.135822792274678</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0.001</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>238.591</v>
+        <v>217.075</v>
       </c>
       <c r="G28">
-        <v>15.31</v>
+        <v>14.303</v>
       </c>
       <c r="H28">
-        <v>20.721</v>
+        <v>21.01</v>
       </c>
       <c r="I28">
-        <v>14.668</v>
+        <v>14.27</v>
       </c>
       <c r="J28">
-        <v>17.881</v>
+        <v>18.145</v>
       </c>
       <c r="K28">
-        <v>15.474</v>
+        <v>14.618</v>
       </c>
       <c r="L28">
-        <v>15.751</v>
+        <v>13.194</v>
       </c>
       <c r="M28">
-        <v>15.618</v>
+        <v>14.549</v>
       </c>
       <c r="N28">
-        <v>14.45</v>
+        <v>13.96</v>
       </c>
       <c r="O28">
-        <v>15.2675</v>
+        <v>14.435</v>
       </c>
       <c r="P28">
-        <v>0.4190063643112522</v>
+        <v>0.1742928569964931</v>
       </c>
       <c r="Q28">
-        <v>17.20075</v>
+        <v>16.57725</v>
       </c>
       <c r="R28">
-        <v>2.740030459076444</v>
+        <v>3.66985425459922</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2019,55 +2022,55 @@
         <v>18</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0.01</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
       <c r="F29">
-        <v>247.39</v>
+        <v>242.445</v>
       </c>
       <c r="G29">
-        <v>14.989</v>
+        <v>15.07</v>
       </c>
       <c r="H29">
-        <v>19.855</v>
+        <v>19.436</v>
       </c>
       <c r="I29">
-        <v>14.435</v>
+        <v>14.896</v>
       </c>
       <c r="J29">
-        <v>17.661</v>
+        <v>17.618</v>
       </c>
       <c r="K29">
-        <v>15.606</v>
+        <v>16.076</v>
       </c>
       <c r="L29">
-        <v>14.737</v>
+        <v>14.904</v>
       </c>
       <c r="M29">
-        <v>15.917</v>
+        <v>16.696</v>
       </c>
       <c r="N29">
-        <v>16.592</v>
+        <v>14.527</v>
       </c>
       <c r="O29">
-        <v>15.23675</v>
+        <v>15.6845</v>
       </c>
       <c r="P29">
-        <v>0.6591076669760914</v>
+        <v>0.8516155235785693</v>
       </c>
       <c r="Q29">
-        <v>17.21125</v>
+        <v>16.62125</v>
       </c>
       <c r="R29">
-        <v>2.136747742871551</v>
+        <v>2.327456318959964</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2075,111 +2078,111 @@
         <v>18</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>278.163</v>
+        <v>229.808</v>
       </c>
       <c r="G30">
-        <v>16.296</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>18.554</v>
+        <v>20.069</v>
       </c>
       <c r="I30">
-        <v>16.355</v>
+        <v>13.473</v>
       </c>
       <c r="J30">
-        <v>18.732</v>
+        <v>17.941</v>
       </c>
       <c r="K30">
-        <v>17.266</v>
+        <v>14.553</v>
       </c>
       <c r="L30">
-        <v>15.818</v>
+        <v>15.05</v>
       </c>
       <c r="M30">
-        <v>17.893</v>
+        <v>14.776</v>
       </c>
       <c r="N30">
-        <v>15.757</v>
+        <v>13.57</v>
       </c>
       <c r="O30">
-        <v>16.9525</v>
+        <v>14.2005</v>
       </c>
       <c r="P30">
-        <v>0.7682926959607692</v>
+        <v>0.5844977901298399</v>
       </c>
       <c r="Q30">
-        <v>17.21525</v>
+        <v>16.6575</v>
       </c>
       <c r="R30">
-        <v>1.650412347465525</v>
+        <v>2.909892151495194</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0.001</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>238.393</v>
+        <v>213.615</v>
       </c>
       <c r="G31">
-        <v>14.932</v>
+        <v>13.904</v>
       </c>
       <c r="H31">
-        <v>21.342</v>
+        <v>19.548</v>
       </c>
       <c r="I31">
-        <v>14.185</v>
+        <v>12.781</v>
       </c>
       <c r="J31">
-        <v>18.088</v>
+        <v>17.706</v>
       </c>
       <c r="K31">
-        <v>15.264</v>
+        <v>13.686</v>
       </c>
       <c r="L31">
-        <v>14.643</v>
+        <v>15.92</v>
       </c>
       <c r="M31">
-        <v>15.225</v>
+        <v>13.247</v>
       </c>
       <c r="N31">
-        <v>14.952</v>
+        <v>13.467</v>
       </c>
       <c r="O31">
-        <v>14.9015</v>
+        <v>13.4045</v>
       </c>
       <c r="P31">
-        <v>0.5001203188567056</v>
+        <v>0.4974270465773513</v>
       </c>
       <c r="Q31">
-        <v>17.25625</v>
+        <v>16.66025</v>
       </c>
       <c r="R31">
-        <v>3.137079573424939</v>
+        <v>2.59342172621423</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2187,111 +2190,111 @@
         <v>18</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32">
-        <v>241.08</v>
+        <v>219.259</v>
       </c>
       <c r="G32">
-        <v>15.095</v>
+        <v>13.653</v>
       </c>
       <c r="H32">
-        <v>18.876</v>
+        <v>18.602</v>
       </c>
       <c r="I32">
-        <v>14.227</v>
+        <v>12.737</v>
       </c>
       <c r="J32">
-        <v>19.155</v>
+        <v>18.387</v>
       </c>
       <c r="K32">
-        <v>15.381</v>
+        <v>14.359</v>
       </c>
       <c r="L32">
-        <v>15.259</v>
+        <v>16.073</v>
       </c>
       <c r="M32">
-        <v>16.807</v>
+        <v>13.615</v>
       </c>
       <c r="N32">
-        <v>15.895</v>
+        <v>13.666</v>
       </c>
       <c r="O32">
-        <v>15.3775</v>
+        <v>13.591</v>
       </c>
       <c r="P32">
-        <v>1.071904691036785</v>
+        <v>0.6642188394397336</v>
       </c>
       <c r="Q32">
-        <v>17.29625</v>
+        <v>16.682</v>
       </c>
       <c r="R32">
-        <v>2.005363703504513</v>
+        <v>2.31376763454472</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>238.488</v>
+        <v>222.762</v>
       </c>
       <c r="G33">
-        <v>14.911</v>
+        <v>14.726</v>
       </c>
       <c r="H33">
-        <v>19.263</v>
+        <v>21.498</v>
       </c>
       <c r="I33">
-        <v>19.166</v>
+        <v>15.697</v>
       </c>
       <c r="J33">
-        <v>20.657</v>
+        <v>16.4</v>
       </c>
       <c r="K33">
-        <v>15.288</v>
+        <v>15.221</v>
       </c>
       <c r="L33">
-        <v>15.293</v>
+        <v>14.3</v>
       </c>
       <c r="M33">
-        <v>15.741</v>
+        <v>15.169</v>
       </c>
       <c r="N33">
-        <v>14.325</v>
+        <v>14.667</v>
       </c>
       <c r="O33">
-        <v>16.2765</v>
+        <v>15.20325</v>
       </c>
       <c r="P33">
-        <v>1.955990201066117</v>
+        <v>0.3970914042551573</v>
       </c>
       <c r="Q33">
-        <v>17.3845</v>
+        <v>16.71625</v>
       </c>
       <c r="R33">
-        <v>3.053573371205175</v>
+        <v>3.316767339343135</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2299,55 +2302,55 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34">
-        <v>295.921</v>
+        <v>239.902</v>
       </c>
       <c r="G34">
-        <v>15.856</v>
+        <v>14.959</v>
       </c>
       <c r="H34">
-        <v>20.646</v>
+        <v>19.332</v>
       </c>
       <c r="I34">
-        <v>14.523</v>
+        <v>14.22</v>
       </c>
       <c r="J34">
-        <v>18.451</v>
+        <v>17.81</v>
       </c>
       <c r="K34">
-        <v>17.64</v>
+        <v>15.287</v>
       </c>
       <c r="L34">
-        <v>16.005</v>
+        <v>15.313</v>
       </c>
       <c r="M34">
-        <v>17.912</v>
+        <v>15.219</v>
       </c>
       <c r="N34">
-        <v>14.506</v>
+        <v>14.642</v>
       </c>
       <c r="O34">
-        <v>16.48275</v>
+        <v>14.92125</v>
       </c>
       <c r="P34">
-        <v>1.593258584369363</v>
+        <v>0.4884003651377284</v>
       </c>
       <c r="Q34">
-        <v>17.402</v>
+        <v>16.77425</v>
       </c>
       <c r="R34">
-        <v>2.705695351168223</v>
+        <v>2.183010516847472</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2361,49 +2364,49 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
       <c r="F35">
-        <v>244.061</v>
+        <v>241.947</v>
       </c>
       <c r="G35">
-        <v>14.897</v>
+        <v>14.89</v>
       </c>
       <c r="H35">
-        <v>20.359</v>
+        <v>19.249</v>
       </c>
       <c r="I35">
-        <v>14.337</v>
+        <v>15.14</v>
       </c>
       <c r="J35">
-        <v>18.289</v>
+        <v>18.441</v>
       </c>
       <c r="K35">
-        <v>15.304</v>
+        <v>15.702</v>
       </c>
       <c r="L35">
-        <v>16.157</v>
+        <v>15.207</v>
       </c>
       <c r="M35">
-        <v>15.231</v>
+        <v>15.155</v>
       </c>
       <c r="N35">
-        <v>14.821</v>
+        <v>14.421</v>
       </c>
       <c r="O35">
-        <v>14.94225</v>
+        <v>15.22175</v>
       </c>
       <c r="P35">
-        <v>0.4406868691788613</v>
+        <v>0.3424600949989159</v>
       </c>
       <c r="Q35">
-        <v>17.4065</v>
+        <v>16.8295</v>
       </c>
       <c r="R35">
-        <v>2.431880136848855</v>
+        <v>2.372361060209848</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2414,52 +2417,52 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36">
-        <v>235.527</v>
+        <v>242.6</v>
       </c>
       <c r="G36">
-        <v>14.921</v>
+        <v>15.185</v>
       </c>
       <c r="H36">
-        <v>21.041</v>
+        <v>20.489</v>
       </c>
       <c r="I36">
-        <v>14.292</v>
+        <v>14.227</v>
       </c>
       <c r="J36">
-        <v>17.985</v>
+        <v>16.89</v>
       </c>
       <c r="K36">
-        <v>16.017</v>
+        <v>15.761</v>
       </c>
       <c r="L36">
-        <v>16.276</v>
+        <v>15.069</v>
       </c>
       <c r="M36">
-        <v>15.277</v>
+        <v>15.259</v>
       </c>
       <c r="N36">
-        <v>14.369</v>
+        <v>15.076</v>
       </c>
       <c r="O36">
-        <v>15.12675</v>
+        <v>15.108</v>
       </c>
       <c r="P36">
-        <v>0.7197825481815091</v>
+        <v>0.640650710866173</v>
       </c>
       <c r="Q36">
-        <v>17.41775</v>
+        <v>16.881</v>
       </c>
       <c r="R36">
-        <v>2.831264896943885</v>
+        <v>2.553371235575952</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2467,55 +2470,55 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>250.01</v>
+        <v>258.937</v>
       </c>
       <c r="G37">
-        <v>15.578</v>
+        <v>15.231</v>
       </c>
       <c r="H37">
-        <v>22.056</v>
+        <v>20.005</v>
       </c>
       <c r="I37">
-        <v>15.206</v>
+        <v>14.203</v>
       </c>
       <c r="J37">
-        <v>17.59</v>
+        <v>17.991</v>
       </c>
       <c r="K37">
-        <v>16.395</v>
+        <v>15.319</v>
       </c>
       <c r="L37">
-        <v>15.312</v>
+        <v>14.817</v>
       </c>
       <c r="M37">
-        <v>15.97</v>
+        <v>15.633</v>
       </c>
       <c r="N37">
-        <v>14.749</v>
+        <v>14.864</v>
       </c>
       <c r="O37">
-        <v>15.78725</v>
+        <v>15.0965</v>
       </c>
       <c r="P37">
-        <v>0.5113364026418096</v>
+        <v>0.6201534756278752</v>
       </c>
       <c r="Q37">
-        <v>17.42675</v>
+        <v>16.91925</v>
       </c>
       <c r="R37">
-        <v>3.321601960400032</v>
+        <v>2.537321997040711</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2529,49 +2532,49 @@
         <v>0.001</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38">
-        <v>241.937</v>
+        <v>237.943</v>
       </c>
       <c r="G38">
-        <v>14.952</v>
+        <v>15.003</v>
       </c>
       <c r="H38">
-        <v>20.236</v>
+        <v>19.679</v>
       </c>
       <c r="I38">
-        <v>14.149</v>
+        <v>14.221</v>
       </c>
       <c r="J38">
-        <v>18.343</v>
+        <v>17.646</v>
       </c>
       <c r="K38">
         <v>15.236</v>
       </c>
       <c r="L38">
-        <v>15.862</v>
+        <v>15.828</v>
       </c>
       <c r="M38">
-        <v>15.053</v>
+        <v>15.167</v>
       </c>
       <c r="N38">
-        <v>15.281</v>
+        <v>14.609</v>
       </c>
       <c r="O38">
-        <v>14.8475</v>
+        <v>14.90675</v>
       </c>
       <c r="P38">
-        <v>0.4802724920986703</v>
+        <v>0.4674942958653792</v>
       </c>
       <c r="Q38">
-        <v>17.4305</v>
+        <v>16.9405</v>
       </c>
       <c r="R38">
-        <v>2.293761757463054</v>
+        <v>2.211384257277177</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2579,55 +2582,55 @@
         <v>18</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
         <v>21</v>
       </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
       <c r="F39">
-        <v>238.364</v>
+        <v>239.403</v>
       </c>
       <c r="G39">
-        <v>14.868</v>
+        <v>14.896</v>
       </c>
       <c r="H39">
-        <v>20.679</v>
+        <v>19.799</v>
       </c>
       <c r="I39">
-        <v>14.185</v>
+        <v>14.215</v>
       </c>
       <c r="J39">
-        <v>17.255</v>
+        <v>18.686</v>
       </c>
       <c r="K39">
-        <v>15.315</v>
+        <v>15.453</v>
       </c>
       <c r="L39">
-        <v>17.14</v>
+        <v>14.277</v>
       </c>
       <c r="M39">
-        <v>15.328</v>
+        <v>15.105</v>
       </c>
       <c r="N39">
-        <v>14.704</v>
+        <v>15.109</v>
       </c>
       <c r="O39">
-        <v>14.924</v>
+        <v>14.91725</v>
       </c>
       <c r="P39">
-        <v>0.5370766549882174</v>
+        <v>0.5214993608177609</v>
       </c>
       <c r="Q39">
-        <v>17.4445</v>
+        <v>16.96775</v>
       </c>
       <c r="R39">
-        <v>2.456349662948389</v>
+        <v>2.687219551258636</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2635,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0.01</v>
@@ -2644,46 +2647,46 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40">
-        <v>269.979</v>
+        <v>244.787</v>
       </c>
       <c r="G40">
-        <v>15.591</v>
+        <v>14.921</v>
       </c>
       <c r="H40">
-        <v>19.698</v>
+        <v>19.647</v>
       </c>
       <c r="I40">
-        <v>17.656</v>
+        <v>14.208</v>
       </c>
       <c r="J40">
-        <v>19.086</v>
+        <v>17.566</v>
       </c>
       <c r="K40">
-        <v>17.192</v>
+        <v>15.247</v>
       </c>
       <c r="L40">
-        <v>15.872</v>
+        <v>15.536</v>
       </c>
       <c r="M40">
-        <v>16.114</v>
+        <v>16.547</v>
       </c>
       <c r="N40">
-        <v>15.23</v>
+        <v>15.127</v>
       </c>
       <c r="O40">
-        <v>16.63825</v>
+        <v>15.23075</v>
       </c>
       <c r="P40">
-        <v>0.9511440041690145</v>
+        <v>0.9789008717263803</v>
       </c>
       <c r="Q40">
-        <v>17.4715</v>
+        <v>16.969</v>
       </c>
       <c r="R40">
-        <v>2.246970924007103</v>
+        <v>2.079627049897809</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2694,52 +2697,52 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41">
-        <v>247.865</v>
+        <v>220.297</v>
       </c>
       <c r="G41">
-        <v>15.377</v>
+        <v>14.194</v>
       </c>
       <c r="H41">
-        <v>19.742</v>
+        <v>19.798</v>
       </c>
       <c r="I41">
-        <v>14.354</v>
+        <v>17.01</v>
       </c>
       <c r="J41">
-        <v>18.297</v>
+        <v>18.056</v>
       </c>
       <c r="K41">
-        <v>15.583</v>
+        <v>14.098</v>
       </c>
       <c r="L41">
-        <v>17.054</v>
+        <v>16.349</v>
       </c>
       <c r="M41">
-        <v>16.088</v>
+        <v>14.801</v>
       </c>
       <c r="N41">
-        <v>14.806</v>
+        <v>13.766</v>
       </c>
       <c r="O41">
-        <v>15.3505</v>
+        <v>15.02575</v>
       </c>
       <c r="P41">
-        <v>0.728394810525172</v>
+        <v>1.358956554370546</v>
       </c>
       <c r="Q41">
-        <v>17.47475</v>
+        <v>16.99225</v>
       </c>
       <c r="R41">
-        <v>2.090914851606031</v>
+        <v>2.570749355732682</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2753,49 +2756,49 @@
         <v>0.01</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42">
-        <v>265.599</v>
+        <v>250.233</v>
       </c>
       <c r="G42">
-        <v>15.769</v>
+        <v>15.376</v>
       </c>
       <c r="H42">
-        <v>19.787</v>
+        <v>19.89</v>
       </c>
       <c r="I42">
-        <v>17.739</v>
+        <v>15.371</v>
       </c>
       <c r="J42">
-        <v>18.659</v>
+        <v>17.352</v>
       </c>
       <c r="K42">
-        <v>16.742</v>
+        <v>15.89</v>
       </c>
       <c r="L42">
-        <v>15.97</v>
+        <v>16.292</v>
       </c>
       <c r="M42">
-        <v>15.982</v>
+        <v>15.639</v>
       </c>
       <c r="N42">
-        <v>15.551</v>
+        <v>14.576</v>
       </c>
       <c r="O42">
-        <v>16.558</v>
+        <v>15.569</v>
       </c>
       <c r="P42">
-        <v>0.8912377161378818</v>
+        <v>0.2479206862419245</v>
       </c>
       <c r="Q42">
-        <v>17.49175</v>
+        <v>17.0275</v>
       </c>
       <c r="R42">
-        <v>2.058549550047314</v>
+        <v>2.224860969439064</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2803,55 +2806,55 @@
         <v>18</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43">
-        <v>254.404</v>
+        <v>241.623</v>
       </c>
       <c r="G43">
-        <v>15.501</v>
+        <v>15.043</v>
       </c>
       <c r="H43">
-        <v>20.094</v>
+        <v>19.543</v>
       </c>
       <c r="I43">
-        <v>15.052</v>
+        <v>14.22</v>
       </c>
       <c r="J43">
-        <v>18.976</v>
+        <v>17.691</v>
       </c>
       <c r="K43">
-        <v>15.764</v>
+        <v>15.191</v>
       </c>
       <c r="L43">
-        <v>15.528</v>
+        <v>15.688</v>
       </c>
       <c r="M43">
-        <v>15.889</v>
+        <v>15.094</v>
       </c>
       <c r="N43">
-        <v>15.509</v>
+        <v>15.545</v>
       </c>
       <c r="O43">
-        <v>15.5515</v>
+        <v>14.887</v>
       </c>
       <c r="P43">
-        <v>0.3701859892900684</v>
+        <v>0.448883800851252</v>
       </c>
       <c r="Q43">
-        <v>17.52675</v>
+        <v>17.11675</v>
       </c>
       <c r="R43">
-        <v>2.36343075140074</v>
+        <v>1.891047042425614</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2859,55 +2862,55 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>0.001</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44">
-        <v>262.373</v>
+        <v>244.334</v>
       </c>
       <c r="G44">
-        <v>15.955</v>
+        <v>15.253</v>
       </c>
       <c r="H44">
-        <v>21.061</v>
+        <v>20.202</v>
       </c>
       <c r="I44">
-        <v>15.089</v>
+        <v>14.217</v>
       </c>
       <c r="J44">
-        <v>17.746</v>
+        <v>17.793</v>
       </c>
       <c r="K44">
-        <v>15.763</v>
+        <v>15.281</v>
       </c>
       <c r="L44">
-        <v>15.793</v>
+        <v>15.401</v>
       </c>
       <c r="M44">
-        <v>16.063</v>
+        <v>15.464</v>
       </c>
       <c r="N44">
-        <v>15.585</v>
+        <v>15.103</v>
       </c>
       <c r="O44">
-        <v>15.7175</v>
+        <v>15.05375</v>
       </c>
       <c r="P44">
-        <v>0.4369816929803805</v>
+        <v>0.5656261279915087</v>
       </c>
       <c r="Q44">
-        <v>17.54625</v>
+        <v>17.12475</v>
       </c>
       <c r="R44">
-        <v>2.537305312728447</v>
+        <v>2.378712028949001</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2921,49 +2924,49 @@
         <v>0.001</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
       <c r="F45">
-        <v>241.46</v>
+        <v>238.591</v>
       </c>
       <c r="G45">
-        <v>15.246</v>
+        <v>15.31</v>
       </c>
       <c r="H45">
-        <v>21.872</v>
+        <v>20.721</v>
       </c>
       <c r="I45">
-        <v>14.726</v>
+        <v>14.668</v>
       </c>
       <c r="J45">
-        <v>17.653</v>
+        <v>17.881</v>
       </c>
       <c r="K45">
-        <v>15.467</v>
+        <v>15.474</v>
       </c>
       <c r="L45">
-        <v>16.442</v>
+        <v>15.751</v>
       </c>
       <c r="M45">
-        <v>15.495</v>
+        <v>15.618</v>
       </c>
       <c r="N45">
-        <v>14.505</v>
+        <v>14.45</v>
       </c>
       <c r="O45">
-        <v>15.2335</v>
+        <v>15.2675</v>
       </c>
       <c r="P45">
-        <v>0.3561914279335383</v>
+        <v>0.4190063643112522</v>
       </c>
       <c r="Q45">
-        <v>17.618</v>
+        <v>17.20075</v>
       </c>
       <c r="R45">
-        <v>3.118305415873606</v>
+        <v>2.740030459076444</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2974,52 +2977,52 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46">
-        <v>256.981</v>
+        <v>247.39</v>
       </c>
       <c r="G46">
-        <v>15.664</v>
+        <v>14.989</v>
       </c>
       <c r="H46">
-        <v>20.903</v>
+        <v>19.855</v>
       </c>
       <c r="I46">
-        <v>15.12</v>
+        <v>14.435</v>
       </c>
       <c r="J46">
-        <v>18.584</v>
+        <v>17.661</v>
       </c>
       <c r="K46">
-        <v>16.658</v>
+        <v>15.606</v>
       </c>
       <c r="L46">
-        <v>16.456</v>
+        <v>14.737</v>
       </c>
       <c r="M46">
-        <v>16.125</v>
+        <v>15.917</v>
       </c>
       <c r="N46">
-        <v>14.882</v>
+        <v>16.592</v>
       </c>
       <c r="O46">
-        <v>15.89175</v>
+        <v>15.23675</v>
       </c>
       <c r="P46">
-        <v>0.6554928807139462</v>
+        <v>0.6591076669760914</v>
       </c>
       <c r="Q46">
-        <v>17.70625</v>
+        <v>17.21125</v>
       </c>
       <c r="R46">
-        <v>2.615923594067686</v>
+        <v>2.136747742871551</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3033,49 +3036,49 @@
         <v>0.01</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47">
-        <v>247.851</v>
+        <v>278.163</v>
       </c>
       <c r="G47">
-        <v>15.294</v>
+        <v>16.296</v>
       </c>
       <c r="H47">
-        <v>21.419</v>
+        <v>18.554</v>
       </c>
       <c r="I47">
-        <v>15.317</v>
+        <v>16.355</v>
       </c>
       <c r="J47">
-        <v>18.011</v>
+        <v>18.732</v>
       </c>
       <c r="K47">
-        <v>16.317</v>
+        <v>17.266</v>
       </c>
       <c r="L47">
-        <v>16.125</v>
+        <v>15.818</v>
       </c>
       <c r="M47">
-        <v>16.061</v>
+        <v>17.893</v>
       </c>
       <c r="N47">
-        <v>15.341</v>
+        <v>15.757</v>
       </c>
       <c r="O47">
-        <v>15.74725</v>
+        <v>16.9525</v>
       </c>
       <c r="P47">
-        <v>0.5207701828382009</v>
+        <v>0.7682926959607692</v>
       </c>
       <c r="Q47">
-        <v>17.724</v>
+        <v>17.21525</v>
       </c>
       <c r="R47">
-        <v>2.706220242330621</v>
+        <v>1.650412347465525</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3083,55 +3086,55 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>0.001</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48">
-        <v>258.368</v>
+        <v>238.393</v>
       </c>
       <c r="G48">
-        <v>15.769</v>
+        <v>14.932</v>
       </c>
       <c r="H48">
-        <v>21.262</v>
+        <v>21.342</v>
       </c>
       <c r="I48">
-        <v>16.656</v>
+        <v>14.185</v>
       </c>
       <c r="J48">
-        <v>18.248</v>
+        <v>18.088</v>
       </c>
       <c r="K48">
-        <v>17.142</v>
+        <v>15.264</v>
       </c>
       <c r="L48">
-        <v>15.468</v>
+        <v>14.643</v>
       </c>
       <c r="M48">
-        <v>17.127</v>
+        <v>15.225</v>
       </c>
       <c r="N48">
-        <v>15.981</v>
+        <v>14.952</v>
       </c>
       <c r="O48">
-        <v>16.6735</v>
+        <v>14.9015</v>
       </c>
       <c r="P48">
-        <v>0.6438377124710849</v>
+        <v>0.5001203188567056</v>
       </c>
       <c r="Q48">
-        <v>17.73975</v>
+        <v>17.25625</v>
       </c>
       <c r="R48">
-        <v>2.640619419126253</v>
+        <v>3.137079573424939</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3139,111 +3142,111 @@
         <v>18</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49">
-        <v>261.989</v>
+        <v>241.08</v>
       </c>
       <c r="G49">
-        <v>15.935</v>
+        <v>15.095</v>
       </c>
       <c r="H49">
-        <v>21.371</v>
+        <v>18.876</v>
       </c>
       <c r="I49">
-        <v>15.903</v>
+        <v>14.227</v>
       </c>
       <c r="J49">
-        <v>17.968</v>
+        <v>19.155</v>
       </c>
       <c r="K49">
-        <v>16.802</v>
+        <v>15.381</v>
       </c>
       <c r="L49">
-        <v>16.387</v>
+        <v>15.259</v>
       </c>
       <c r="M49">
-        <v>16.438</v>
+        <v>16.807</v>
       </c>
       <c r="N49">
-        <v>15.478</v>
+        <v>15.895</v>
       </c>
       <c r="O49">
-        <v>16.2695</v>
+        <v>15.3775</v>
       </c>
       <c r="P49">
-        <v>0.4313393868714822</v>
+        <v>1.071904691036785</v>
       </c>
       <c r="Q49">
-        <v>17.801</v>
+        <v>17.29625</v>
       </c>
       <c r="R49">
-        <v>2.592843612715583</v>
+        <v>2.005363703504513</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F50">
-        <v>266.322</v>
+        <v>197.107</v>
       </c>
       <c r="G50">
-        <v>15.682</v>
+        <v>13.44</v>
       </c>
       <c r="H50">
-        <v>20.789</v>
+        <v>21.252</v>
       </c>
       <c r="I50">
-        <v>17.62</v>
+        <v>12.605</v>
       </c>
       <c r="J50">
-        <v>18.597</v>
+        <v>17.072</v>
       </c>
       <c r="K50">
-        <v>17</v>
+        <v>14.155</v>
       </c>
       <c r="L50">
-        <v>17.106</v>
+        <v>14.93</v>
       </c>
       <c r="M50">
-        <v>16.735</v>
+        <v>14.046</v>
       </c>
       <c r="N50">
-        <v>14.899</v>
+        <v>15.986</v>
       </c>
       <c r="O50">
-        <v>16.75925</v>
+        <v>13.5615</v>
       </c>
       <c r="P50">
-        <v>0.8082711488108433</v>
+        <v>0.711017346248786</v>
       </c>
       <c r="Q50">
-        <v>17.84775</v>
+        <v>17.31</v>
       </c>
       <c r="R50">
-        <v>2.480433211490822</v>
+        <v>2.769680125935123</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3260,102 +3263,102 @@
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51">
-        <v>236.035</v>
+        <v>238.488</v>
       </c>
       <c r="G51">
-        <v>14.943</v>
+        <v>14.911</v>
       </c>
       <c r="H51">
-        <v>19.481</v>
+        <v>19.263</v>
       </c>
       <c r="I51">
-        <v>14.201</v>
+        <v>19.166</v>
       </c>
       <c r="J51">
-        <v>18.573</v>
+        <v>20.657</v>
       </c>
       <c r="K51">
-        <v>15.412</v>
+        <v>15.288</v>
       </c>
       <c r="L51">
-        <v>18.274</v>
+        <v>15.293</v>
       </c>
       <c r="M51">
-        <v>16.085</v>
+        <v>15.741</v>
       </c>
       <c r="N51">
-        <v>15.127</v>
+        <v>14.325</v>
       </c>
       <c r="O51">
-        <v>15.16025</v>
+        <v>16.2765</v>
       </c>
       <c r="P51">
-        <v>0.7928637440737639</v>
+        <v>1.955990201066117</v>
       </c>
       <c r="Q51">
-        <v>17.86375</v>
+        <v>17.3845</v>
       </c>
       <c r="R51">
-        <v>1.895313408559826</v>
+        <v>3.053573371205175</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F52">
-        <v>255.465</v>
+        <v>248.309</v>
       </c>
       <c r="G52">
-        <v>15.542</v>
+        <v>15.359</v>
       </c>
       <c r="H52">
-        <v>20.398</v>
+        <v>20.886</v>
       </c>
       <c r="I52">
-        <v>14.61</v>
+        <v>16.462</v>
       </c>
       <c r="J52">
-        <v>18.321</v>
+        <v>18.322</v>
       </c>
       <c r="K52">
-        <v>15.772</v>
+        <v>17.298</v>
       </c>
       <c r="L52">
-        <v>18.103</v>
+        <v>15.584</v>
       </c>
       <c r="M52">
-        <v>15.713</v>
+        <v>17.248</v>
       </c>
       <c r="N52">
-        <v>14.659</v>
+        <v>14.754</v>
       </c>
       <c r="O52">
-        <v>15.40925</v>
+        <v>16.59175</v>
       </c>
       <c r="P52">
-        <v>0.5416871021786164</v>
+        <v>0.9066349412341587</v>
       </c>
       <c r="Q52">
-        <v>17.87025</v>
+        <v>17.3865</v>
       </c>
       <c r="R52">
-        <v>2.377603467780109</v>
+        <v>2.786917233551557</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3363,55 +3366,55 @@
         <v>18</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0.001</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F53">
-        <v>271.476</v>
+        <v>295.921</v>
       </c>
       <c r="G53">
-        <v>15.957</v>
+        <v>15.856</v>
       </c>
       <c r="H53">
-        <v>22.34</v>
+        <v>20.646</v>
       </c>
       <c r="I53">
-        <v>15.281</v>
+        <v>14.523</v>
       </c>
       <c r="J53">
-        <v>17.974</v>
+        <v>18.451</v>
       </c>
       <c r="K53">
-        <v>16.237</v>
+        <v>17.64</v>
       </c>
       <c r="L53">
-        <v>15.605</v>
+        <v>16.005</v>
       </c>
       <c r="M53">
-        <v>16.212</v>
+        <v>17.912</v>
       </c>
       <c r="N53">
-        <v>15.896</v>
+        <v>14.506</v>
       </c>
       <c r="O53">
-        <v>15.92175</v>
+        <v>16.48275</v>
       </c>
       <c r="P53">
-        <v>0.4455074821668723</v>
+        <v>1.593258584369363</v>
       </c>
       <c r="Q53">
-        <v>17.95375</v>
+        <v>17.402</v>
       </c>
       <c r="R53">
-        <v>3.108620312936271</v>
+        <v>2.705695351168223</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3419,55 +3422,55 @@
         <v>18</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
         <v>21</v>
       </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
       <c r="F54">
-        <v>268.949</v>
+        <v>244.061</v>
       </c>
       <c r="G54">
-        <v>16.036</v>
+        <v>14.897</v>
       </c>
       <c r="H54">
-        <v>22.175</v>
+        <v>20.359</v>
       </c>
       <c r="I54">
-        <v>15.521</v>
+        <v>14.337</v>
       </c>
       <c r="J54">
-        <v>18.599</v>
+        <v>18.289</v>
       </c>
       <c r="K54">
-        <v>17.09</v>
+        <v>15.304</v>
       </c>
       <c r="L54">
-        <v>16.651</v>
+        <v>16.157</v>
       </c>
       <c r="M54">
-        <v>16.584</v>
+        <v>15.231</v>
       </c>
       <c r="N54">
-        <v>14.676</v>
+        <v>14.821</v>
       </c>
       <c r="O54">
-        <v>16.30775</v>
+        <v>14.94225</v>
       </c>
       <c r="P54">
-        <v>0.678491648192272</v>
+        <v>0.4406868691788613</v>
       </c>
       <c r="Q54">
-        <v>18.02525</v>
+        <v>17.4065</v>
       </c>
       <c r="R54">
-        <v>3.196646823886973</v>
+        <v>2.431880136848855</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3475,55 +3478,55 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F55">
-        <v>273.72</v>
+        <v>235.527</v>
       </c>
       <c r="G55">
-        <v>15.693</v>
+        <v>14.921</v>
       </c>
       <c r="H55">
-        <v>20.319</v>
+        <v>21.041</v>
       </c>
       <c r="I55">
-        <v>20.076</v>
+        <v>14.292</v>
       </c>
       <c r="J55">
-        <v>20.287</v>
+        <v>17.985</v>
       </c>
       <c r="K55">
-        <v>15.575</v>
+        <v>16.017</v>
       </c>
       <c r="L55">
-        <v>15.016</v>
+        <v>16.276</v>
       </c>
       <c r="M55">
-        <v>15.716</v>
+        <v>15.277</v>
       </c>
       <c r="N55">
-        <v>16.552</v>
+        <v>14.369</v>
       </c>
       <c r="O55">
-        <v>16.765</v>
+        <v>15.12675</v>
       </c>
       <c r="P55">
-        <v>2.20819730398652</v>
+        <v>0.7197825481815091</v>
       </c>
       <c r="Q55">
-        <v>18.0435</v>
+        <v>17.41775</v>
       </c>
       <c r="R55">
-        <v>2.683376045208721</v>
+        <v>2.831264896943885</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3537,49 +3540,49 @@
         <v>0.001</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56">
-        <v>299.575</v>
+        <v>250.01</v>
       </c>
       <c r="G56">
-        <v>16.402</v>
+        <v>15.578</v>
       </c>
       <c r="H56">
-        <v>21.918</v>
+        <v>22.056</v>
       </c>
       <c r="I56">
-        <v>17.873</v>
+        <v>15.206</v>
       </c>
       <c r="J56">
-        <v>18.452</v>
+        <v>17.59</v>
       </c>
       <c r="K56">
-        <v>17.809</v>
+        <v>16.395</v>
       </c>
       <c r="L56">
-        <v>16.65</v>
+        <v>15.312</v>
       </c>
       <c r="M56">
-        <v>18.484</v>
+        <v>15.97</v>
       </c>
       <c r="N56">
-        <v>15.23</v>
+        <v>14.749</v>
       </c>
       <c r="O56">
-        <v>17.642</v>
+        <v>15.78725</v>
       </c>
       <c r="P56">
-        <v>0.8808734301816581</v>
+        <v>0.5113364026418096</v>
       </c>
       <c r="Q56">
-        <v>18.0625</v>
+        <v>17.42675</v>
       </c>
       <c r="R56">
-        <v>2.888759999261505</v>
+        <v>3.321601960400032</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3587,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>0.001</v>
@@ -3599,43 +3602,43 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>280.403</v>
+        <v>241.937</v>
       </c>
       <c r="G57">
-        <v>16.315</v>
+        <v>14.952</v>
       </c>
       <c r="H57">
-        <v>22.839</v>
+        <v>20.236</v>
       </c>
       <c r="I57">
-        <v>15.579</v>
+        <v>14.149</v>
       </c>
       <c r="J57">
-        <v>17.951</v>
+        <v>18.343</v>
       </c>
       <c r="K57">
-        <v>16.922</v>
+        <v>15.236</v>
       </c>
       <c r="L57">
-        <v>16.023</v>
+        <v>15.862</v>
       </c>
       <c r="M57">
-        <v>16.175</v>
+        <v>15.053</v>
       </c>
       <c r="N57">
-        <v>15.683</v>
+        <v>15.281</v>
       </c>
       <c r="O57">
-        <v>16.24775</v>
+        <v>14.8475</v>
       </c>
       <c r="P57">
-        <v>0.5512575774233553</v>
+        <v>0.4802724920986703</v>
       </c>
       <c r="Q57">
-        <v>18.124</v>
+        <v>17.4305</v>
       </c>
       <c r="R57">
-        <v>3.298173029623117</v>
+        <v>2.293761757463054</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3643,55 +3646,55 @@
         <v>18</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
       <c r="F58">
-        <v>271.956</v>
+        <v>238.364</v>
       </c>
       <c r="G58">
-        <v>16.049</v>
+        <v>14.868</v>
       </c>
       <c r="H58">
-        <v>21.757</v>
+        <v>20.679</v>
       </c>
       <c r="I58">
-        <v>17.872</v>
+        <v>14.185</v>
       </c>
       <c r="J58">
-        <v>18.591</v>
+        <v>17.255</v>
       </c>
       <c r="K58">
-        <v>17.228</v>
+        <v>15.315</v>
       </c>
       <c r="L58">
-        <v>16.832</v>
+        <v>17.14</v>
       </c>
       <c r="M58">
-        <v>18.669</v>
+        <v>15.328</v>
       </c>
       <c r="N58">
-        <v>15.535</v>
+        <v>14.704</v>
       </c>
       <c r="O58">
-        <v>17.4545</v>
+        <v>14.924</v>
       </c>
       <c r="P58">
-        <v>1.106955133086553</v>
+        <v>0.5370766549882174</v>
       </c>
       <c r="Q58">
-        <v>18.17875</v>
+        <v>17.4445</v>
       </c>
       <c r="R58">
-        <v>2.694251457579019</v>
+        <v>2.456349662948389</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3699,55 +3702,55 @@
         <v>18</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>0.01</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F59">
-        <v>283.769</v>
+        <v>269.979</v>
       </c>
       <c r="G59">
-        <v>16.328</v>
+        <v>15.591</v>
       </c>
       <c r="H59">
-        <v>22.017</v>
+        <v>19.698</v>
       </c>
       <c r="I59">
-        <v>16.944</v>
+        <v>17.656</v>
       </c>
       <c r="J59">
-        <v>19.296</v>
+        <v>19.086</v>
       </c>
       <c r="K59">
-        <v>17.572</v>
+        <v>17.192</v>
       </c>
       <c r="L59">
-        <v>16.4</v>
+        <v>15.872</v>
       </c>
       <c r="M59">
-        <v>17.091</v>
+        <v>16.114</v>
       </c>
       <c r="N59">
-        <v>15.273</v>
+        <v>15.23</v>
       </c>
       <c r="O59">
-        <v>16.98375</v>
+        <v>16.63825</v>
       </c>
       <c r="P59">
-        <v>0.5128770970385271</v>
+        <v>0.9511440041690145</v>
       </c>
       <c r="Q59">
-        <v>18.2465</v>
+        <v>17.4715</v>
       </c>
       <c r="R59">
-        <v>3.03146746642612</v>
+        <v>2.246970924007103</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3755,111 +3758,111 @@
         <v>18</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0.001</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60">
-        <v>290.755</v>
+        <v>247.865</v>
       </c>
       <c r="G60">
-        <v>16.626</v>
+        <v>15.377</v>
       </c>
       <c r="H60">
-        <v>22.906</v>
+        <v>19.742</v>
       </c>
       <c r="I60">
-        <v>16.154</v>
+        <v>14.354</v>
       </c>
       <c r="J60">
-        <v>18.907</v>
+        <v>18.297</v>
       </c>
       <c r="K60">
-        <v>17.373</v>
+        <v>15.583</v>
       </c>
       <c r="L60">
-        <v>15.527</v>
+        <v>17.054</v>
       </c>
       <c r="M60">
-        <v>17.016</v>
+        <v>16.088</v>
       </c>
       <c r="N60">
-        <v>15.695</v>
+        <v>14.806</v>
       </c>
       <c r="O60">
-        <v>16.79225</v>
+        <v>15.3505</v>
       </c>
       <c r="P60">
-        <v>0.5235573034539773</v>
+        <v>0.728394810525172</v>
       </c>
       <c r="Q60">
-        <v>18.25875</v>
+        <v>17.47475</v>
       </c>
       <c r="R60">
-        <v>3.466623369120639</v>
+        <v>2.090914851606031</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>0.001</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61">
-        <v>329.733</v>
+        <v>253.454</v>
       </c>
       <c r="G61">
-        <v>17.839</v>
+        <v>15.455</v>
       </c>
       <c r="H61">
-        <v>21.309</v>
+        <v>21.649</v>
       </c>
       <c r="I61">
-        <v>17.022</v>
+        <v>14.326</v>
       </c>
       <c r="J61">
-        <v>18.502</v>
+        <v>17.479</v>
       </c>
       <c r="K61">
-        <v>19.375</v>
+        <v>15.894</v>
       </c>
       <c r="L61">
-        <v>17.514</v>
+        <v>15.465</v>
       </c>
       <c r="M61">
-        <v>19.376</v>
+        <v>15.723</v>
       </c>
       <c r="N61">
-        <v>16.596</v>
+        <v>15.369</v>
       </c>
       <c r="O61">
-        <v>18.403</v>
+        <v>15.3495</v>
       </c>
       <c r="P61">
-        <v>1.171433594646606</v>
+        <v>0.705848189532754</v>
       </c>
       <c r="Q61">
-        <v>18.48025</v>
+        <v>17.4905</v>
       </c>
       <c r="R61">
-        <v>2.040125547607304</v>
+        <v>2.938064385498272</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3867,55 +3870,55 @@
         <v>18</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F62">
-        <v>298.161</v>
+        <v>265.599</v>
       </c>
       <c r="G62">
-        <v>16.922</v>
+        <v>15.769</v>
       </c>
       <c r="H62">
-        <v>22.482</v>
+        <v>19.787</v>
       </c>
       <c r="I62">
-        <v>16.455</v>
+        <v>17.739</v>
       </c>
       <c r="J62">
-        <v>19.24</v>
+        <v>18.659</v>
       </c>
       <c r="K62">
-        <v>18.98</v>
+        <v>16.742</v>
       </c>
       <c r="L62">
-        <v>17.254</v>
+        <v>15.97</v>
       </c>
       <c r="M62">
-        <v>18.943</v>
+        <v>15.982</v>
       </c>
       <c r="N62">
-        <v>15.838</v>
+        <v>15.551</v>
       </c>
       <c r="O62">
-        <v>17.825</v>
+        <v>16.558</v>
       </c>
       <c r="P62">
-        <v>1.326179726382012</v>
+        <v>0.8912377161378818</v>
       </c>
       <c r="Q62">
-        <v>18.7035</v>
+        <v>17.49175</v>
       </c>
       <c r="R62">
-        <v>2.879643207065764</v>
+        <v>2.058549550047314</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3923,55 +3926,55 @@
         <v>18</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>332.766</v>
+        <v>254.404</v>
       </c>
       <c r="G63">
-        <v>17.803</v>
+        <v>15.501</v>
       </c>
       <c r="H63">
-        <v>22.499</v>
+        <v>20.094</v>
       </c>
       <c r="I63">
-        <v>18.492</v>
+        <v>15.052</v>
       </c>
       <c r="J63">
-        <v>19.122</v>
+        <v>18.976</v>
       </c>
       <c r="K63">
-        <v>19.199</v>
+        <v>15.764</v>
       </c>
       <c r="L63">
-        <v>17.324</v>
+        <v>15.528</v>
       </c>
       <c r="M63">
-        <v>19.2</v>
+        <v>15.889</v>
       </c>
       <c r="N63">
-        <v>16.117</v>
+        <v>15.509</v>
       </c>
       <c r="O63">
-        <v>18.6735</v>
+        <v>15.5515</v>
       </c>
       <c r="P63">
-        <v>0.6693442064189892</v>
+        <v>0.3701859892900684</v>
       </c>
       <c r="Q63">
-        <v>18.7655</v>
+        <v>17.52675</v>
       </c>
       <c r="R63">
-        <v>2.778404158265435</v>
+        <v>2.36343075140074</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3979,55 +3982,55 @@
         <v>18</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>0.001</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64">
-        <v>308.381</v>
+        <v>262.373</v>
       </c>
       <c r="G64">
-        <v>17.246</v>
+        <v>15.955</v>
       </c>
       <c r="H64">
-        <v>23.503</v>
+        <v>21.061</v>
       </c>
       <c r="I64">
-        <v>18.054</v>
+        <v>15.089</v>
       </c>
       <c r="J64">
-        <v>19.735</v>
+        <v>17.746</v>
       </c>
       <c r="K64">
-        <v>18.923</v>
+        <v>15.763</v>
       </c>
       <c r="L64">
-        <v>17.123</v>
+        <v>15.793</v>
       </c>
       <c r="M64">
-        <v>18.812</v>
+        <v>16.063</v>
       </c>
       <c r="N64">
-        <v>16.343</v>
+        <v>15.585</v>
       </c>
       <c r="O64">
-        <v>18.25875</v>
+        <v>15.7175</v>
       </c>
       <c r="P64">
-        <v>0.7777957636809298</v>
+        <v>0.4369816929803805</v>
       </c>
       <c r="Q64">
-        <v>19.176</v>
+        <v>17.54625</v>
       </c>
       <c r="R64">
-        <v>3.228834051686976</v>
+        <v>2.537305312728447</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4035,55 +4038,55 @@
         <v>18</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
       </c>
       <c r="F65">
-        <v>373.744</v>
+        <v>241.46</v>
       </c>
       <c r="G65">
-        <v>18.371</v>
+        <v>15.246</v>
       </c>
       <c r="H65">
-        <v>21.701</v>
+        <v>21.872</v>
       </c>
       <c r="I65">
-        <v>19.703</v>
+        <v>14.726</v>
       </c>
       <c r="J65">
-        <v>19.645</v>
+        <v>17.653</v>
       </c>
       <c r="K65">
-        <v>16.591</v>
+        <v>15.467</v>
       </c>
       <c r="L65">
-        <v>18.748</v>
+        <v>16.442</v>
       </c>
       <c r="M65">
-        <v>20.369</v>
+        <v>15.495</v>
       </c>
       <c r="N65">
-        <v>18.084</v>
+        <v>14.505</v>
       </c>
       <c r="O65">
-        <v>18.7585</v>
+        <v>15.2335</v>
       </c>
       <c r="P65">
-        <v>1.666733631988026</v>
+        <v>0.3561914279335383</v>
       </c>
       <c r="Q65">
-        <v>19.5445</v>
+        <v>17.618</v>
       </c>
       <c r="R65">
-        <v>1.573537945734601</v>
+        <v>3.118305415873606</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4091,55 +4094,55 @@
         <v>18</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
       </c>
       <c r="F66">
-        <v>410.927</v>
+        <v>256.981</v>
       </c>
       <c r="G66">
-        <v>19.522</v>
+        <v>15.664</v>
       </c>
       <c r="H66">
-        <v>22.424</v>
+        <v>20.903</v>
       </c>
       <c r="I66">
-        <v>28.709</v>
+        <v>15.12</v>
       </c>
       <c r="J66">
-        <v>28.738</v>
+        <v>18.584</v>
       </c>
       <c r="K66">
-        <v>13.775</v>
+        <v>16.658</v>
       </c>
       <c r="L66">
-        <v>14.227</v>
+        <v>16.456</v>
       </c>
       <c r="M66">
-        <v>13.985</v>
+        <v>16.125</v>
       </c>
       <c r="N66">
-        <v>14.27</v>
+        <v>14.882</v>
       </c>
       <c r="O66">
-        <v>18.99775</v>
+        <v>15.89175</v>
       </c>
       <c r="P66">
-        <v>6.99971415487804</v>
+        <v>0.6554928807139462</v>
       </c>
       <c r="Q66">
-        <v>19.91475</v>
+        <v>17.70625</v>
       </c>
       <c r="R66">
-        <v>7.032301158463945</v>
+        <v>2.615923594067686</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4159,99 +4162,99 @@
         <v>22</v>
       </c>
       <c r="F67">
-        <v>507.207</v>
+        <v>247.851</v>
       </c>
       <c r="G67">
-        <v>20.948</v>
+        <v>15.294</v>
       </c>
       <c r="H67">
-        <v>24.836</v>
+        <v>21.419</v>
       </c>
       <c r="I67">
-        <v>20.791</v>
+        <v>15.317</v>
       </c>
       <c r="J67">
-        <v>22.031</v>
+        <v>18.011</v>
       </c>
       <c r="K67">
-        <v>20.193</v>
+        <v>16.317</v>
       </c>
       <c r="L67">
-        <v>16.772</v>
+        <v>16.125</v>
       </c>
       <c r="M67">
-        <v>19.659</v>
+        <v>16.061</v>
       </c>
       <c r="N67">
-        <v>19.651</v>
+        <v>15.341</v>
       </c>
       <c r="O67">
-        <v>20.39775</v>
+        <v>15.74725</v>
       </c>
       <c r="P67">
-        <v>0.5902244629517378</v>
+        <v>0.5207701828382009</v>
       </c>
       <c r="Q67">
-        <v>20.8225</v>
+        <v>17.724</v>
       </c>
       <c r="R67">
-        <v>3.432570319745832</v>
+        <v>2.706220242330621</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F68">
-        <v>1881.255</v>
+        <v>234.7</v>
       </c>
       <c r="G68">
-        <v>43.139</v>
+        <v>14.826</v>
       </c>
       <c r="H68">
-        <v>39.97</v>
+        <v>21.973</v>
       </c>
       <c r="I68">
-        <v>14.134</v>
+        <v>16.588</v>
       </c>
       <c r="J68">
-        <v>15.944</v>
+        <v>19.482</v>
       </c>
       <c r="K68">
-        <v>18.2</v>
+        <v>16.731</v>
       </c>
       <c r="L68">
-        <v>16.818</v>
+        <v>15.221</v>
       </c>
       <c r="M68">
-        <v>13.421</v>
+        <v>16.239</v>
       </c>
       <c r="N68">
-        <v>13.458</v>
+        <v>14.279</v>
       </c>
       <c r="O68">
-        <v>22.2235</v>
+        <v>16.096</v>
       </c>
       <c r="P68">
-        <v>14.10166312886533</v>
+        <v>0.8715193629518513</v>
       </c>
       <c r="Q68">
-        <v>21.5475</v>
+        <v>17.73875</v>
       </c>
       <c r="R68">
-        <v>12.36387073964568</v>
+        <v>3.618320455220442</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4259,55 +4262,55 @@
         <v>18</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69">
-        <v>706.9400000000001</v>
+        <v>258.368</v>
       </c>
       <c r="G69">
-        <v>23.995</v>
+        <v>15.769</v>
       </c>
       <c r="H69">
-        <v>26.845</v>
+        <v>21.262</v>
       </c>
       <c r="I69">
-        <v>17.25</v>
+        <v>16.656</v>
       </c>
       <c r="J69">
-        <v>18.601</v>
+        <v>18.248</v>
       </c>
       <c r="K69">
-        <v>27.103</v>
+        <v>17.142</v>
       </c>
       <c r="L69">
-        <v>25.044</v>
+        <v>15.468</v>
       </c>
       <c r="M69">
-        <v>17.423</v>
+        <v>17.127</v>
       </c>
       <c r="N69">
-        <v>16.372</v>
+        <v>15.981</v>
       </c>
       <c r="O69">
-        <v>21.44275</v>
+        <v>16.6735</v>
       </c>
       <c r="P69">
-        <v>4.908833967111404</v>
+        <v>0.6438377124710849</v>
       </c>
       <c r="Q69">
-        <v>21.7155</v>
+        <v>17.73975</v>
       </c>
       <c r="R69">
-        <v>5.021413645578305</v>
+        <v>2.640619419126253</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4318,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -4327,43 +4330,43 @@
         <v>22</v>
       </c>
       <c r="F70">
-        <v>675.894</v>
+        <v>261.989</v>
       </c>
       <c r="G70">
-        <v>25.729</v>
+        <v>15.935</v>
       </c>
       <c r="H70">
-        <v>29.635</v>
+        <v>21.371</v>
       </c>
       <c r="I70">
-        <v>15.26</v>
+        <v>15.903</v>
       </c>
       <c r="J70">
-        <v>18.466</v>
+        <v>17.968</v>
       </c>
       <c r="K70">
-        <v>18.893</v>
+        <v>16.802</v>
       </c>
       <c r="L70">
-        <v>21.144</v>
+        <v>16.387</v>
       </c>
       <c r="M70">
-        <v>18.871</v>
+        <v>16.438</v>
       </c>
       <c r="N70">
-        <v>18.641</v>
+        <v>15.478</v>
       </c>
       <c r="O70">
-        <v>19.68825</v>
+        <v>16.2695</v>
       </c>
       <c r="P70">
-        <v>4.374181018583173</v>
+        <v>0.4313393868714822</v>
       </c>
       <c r="Q70">
-        <v>21.9715</v>
+        <v>17.801</v>
       </c>
       <c r="R70">
-        <v>5.253403626856276</v>
+        <v>2.592843612715583</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4377,49 +4380,1393 @@
         <v>0.01</v>
       </c>
       <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
         <v>21</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71">
+        <v>266.322</v>
+      </c>
+      <c r="G71">
+        <v>15.682</v>
+      </c>
+      <c r="H71">
+        <v>20.789</v>
+      </c>
+      <c r="I71">
+        <v>17.62</v>
+      </c>
+      <c r="J71">
+        <v>18.597</v>
+      </c>
+      <c r="K71">
+        <v>17</v>
+      </c>
+      <c r="L71">
+        <v>17.106</v>
+      </c>
+      <c r="M71">
+        <v>16.735</v>
+      </c>
+      <c r="N71">
+        <v>14.899</v>
+      </c>
+      <c r="O71">
+        <v>16.75925</v>
+      </c>
+      <c r="P71">
+        <v>0.8082711488108433</v>
+      </c>
+      <c r="Q71">
+        <v>17.84775</v>
+      </c>
+      <c r="R71">
+        <v>2.480433211490822</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.01</v>
+      </c>
+      <c r="D72" t="s">
         <v>22</v>
       </c>
-      <c r="F71">
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72">
+        <v>236.035</v>
+      </c>
+      <c r="G72">
+        <v>14.943</v>
+      </c>
+      <c r="H72">
+        <v>19.481</v>
+      </c>
+      <c r="I72">
+        <v>14.201</v>
+      </c>
+      <c r="J72">
+        <v>18.573</v>
+      </c>
+      <c r="K72">
+        <v>15.412</v>
+      </c>
+      <c r="L72">
+        <v>18.274</v>
+      </c>
+      <c r="M72">
+        <v>16.085</v>
+      </c>
+      <c r="N72">
+        <v>15.127</v>
+      </c>
+      <c r="O72">
+        <v>15.16025</v>
+      </c>
+      <c r="P72">
+        <v>0.7928637440737639</v>
+      </c>
+      <c r="Q72">
+        <v>17.86375</v>
+      </c>
+      <c r="R72">
+        <v>1.895313408559826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0.01</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73">
+        <v>255.465</v>
+      </c>
+      <c r="G73">
+        <v>15.542</v>
+      </c>
+      <c r="H73">
+        <v>20.398</v>
+      </c>
+      <c r="I73">
+        <v>14.61</v>
+      </c>
+      <c r="J73">
+        <v>18.321</v>
+      </c>
+      <c r="K73">
+        <v>15.772</v>
+      </c>
+      <c r="L73">
+        <v>18.103</v>
+      </c>
+      <c r="M73">
+        <v>15.713</v>
+      </c>
+      <c r="N73">
+        <v>14.659</v>
+      </c>
+      <c r="O73">
+        <v>15.40925</v>
+      </c>
+      <c r="P73">
+        <v>0.5416871021786164</v>
+      </c>
+      <c r="Q73">
+        <v>17.87025</v>
+      </c>
+      <c r="R73">
+        <v>2.377603467780109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>0.001</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74">
+        <v>271.476</v>
+      </c>
+      <c r="G74">
+        <v>15.957</v>
+      </c>
+      <c r="H74">
+        <v>22.34</v>
+      </c>
+      <c r="I74">
+        <v>15.281</v>
+      </c>
+      <c r="J74">
+        <v>17.974</v>
+      </c>
+      <c r="K74">
+        <v>16.237</v>
+      </c>
+      <c r="L74">
+        <v>15.605</v>
+      </c>
+      <c r="M74">
+        <v>16.212</v>
+      </c>
+      <c r="N74">
+        <v>15.896</v>
+      </c>
+      <c r="O74">
+        <v>15.92175</v>
+      </c>
+      <c r="P74">
+        <v>0.4455074821668723</v>
+      </c>
+      <c r="Q74">
+        <v>17.95375</v>
+      </c>
+      <c r="R74">
+        <v>3.108620312936271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.001</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>268.949</v>
+      </c>
+      <c r="G75">
+        <v>16.036</v>
+      </c>
+      <c r="H75">
+        <v>22.175</v>
+      </c>
+      <c r="I75">
+        <v>15.521</v>
+      </c>
+      <c r="J75">
+        <v>18.599</v>
+      </c>
+      <c r="K75">
+        <v>17.09</v>
+      </c>
+      <c r="L75">
+        <v>16.651</v>
+      </c>
+      <c r="M75">
+        <v>16.584</v>
+      </c>
+      <c r="N75">
+        <v>14.676</v>
+      </c>
+      <c r="O75">
+        <v>16.30775</v>
+      </c>
+      <c r="P75">
+        <v>0.678491648192272</v>
+      </c>
+      <c r="Q75">
+        <v>18.02525</v>
+      </c>
+      <c r="R75">
+        <v>3.196646823886973</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.01</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76">
+        <v>273.72</v>
+      </c>
+      <c r="G76">
+        <v>15.693</v>
+      </c>
+      <c r="H76">
+        <v>20.319</v>
+      </c>
+      <c r="I76">
+        <v>20.076</v>
+      </c>
+      <c r="J76">
+        <v>20.287</v>
+      </c>
+      <c r="K76">
+        <v>15.575</v>
+      </c>
+      <c r="L76">
+        <v>15.016</v>
+      </c>
+      <c r="M76">
+        <v>15.716</v>
+      </c>
+      <c r="N76">
+        <v>16.552</v>
+      </c>
+      <c r="O76">
+        <v>16.765</v>
+      </c>
+      <c r="P76">
+        <v>2.20819730398652</v>
+      </c>
+      <c r="Q76">
+        <v>18.0435</v>
+      </c>
+      <c r="R76">
+        <v>2.683376045208721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.001</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77">
+        <v>299.575</v>
+      </c>
+      <c r="G77">
+        <v>16.402</v>
+      </c>
+      <c r="H77">
+        <v>21.918</v>
+      </c>
+      <c r="I77">
+        <v>17.873</v>
+      </c>
+      <c r="J77">
+        <v>18.452</v>
+      </c>
+      <c r="K77">
+        <v>17.809</v>
+      </c>
+      <c r="L77">
+        <v>16.65</v>
+      </c>
+      <c r="M77">
+        <v>18.484</v>
+      </c>
+      <c r="N77">
+        <v>15.23</v>
+      </c>
+      <c r="O77">
+        <v>17.642</v>
+      </c>
+      <c r="P77">
+        <v>0.8808734301816581</v>
+      </c>
+      <c r="Q77">
+        <v>18.0625</v>
+      </c>
+      <c r="R77">
+        <v>2.888759999261505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>0.001</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78">
+        <v>280.403</v>
+      </c>
+      <c r="G78">
+        <v>16.315</v>
+      </c>
+      <c r="H78">
+        <v>22.839</v>
+      </c>
+      <c r="I78">
+        <v>15.579</v>
+      </c>
+      <c r="J78">
+        <v>17.951</v>
+      </c>
+      <c r="K78">
+        <v>16.922</v>
+      </c>
+      <c r="L78">
+        <v>16.023</v>
+      </c>
+      <c r="M78">
+        <v>16.175</v>
+      </c>
+      <c r="N78">
+        <v>15.683</v>
+      </c>
+      <c r="O78">
+        <v>16.24775</v>
+      </c>
+      <c r="P78">
+        <v>0.5512575774233553</v>
+      </c>
+      <c r="Q78">
+        <v>18.124</v>
+      </c>
+      <c r="R78">
+        <v>3.298173029623117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0.01</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>271.956</v>
+      </c>
+      <c r="G79">
+        <v>16.049</v>
+      </c>
+      <c r="H79">
+        <v>21.757</v>
+      </c>
+      <c r="I79">
+        <v>17.872</v>
+      </c>
+      <c r="J79">
+        <v>18.591</v>
+      </c>
+      <c r="K79">
+        <v>17.228</v>
+      </c>
+      <c r="L79">
+        <v>16.832</v>
+      </c>
+      <c r="M79">
+        <v>18.669</v>
+      </c>
+      <c r="N79">
+        <v>15.535</v>
+      </c>
+      <c r="O79">
+        <v>17.4545</v>
+      </c>
+      <c r="P79">
+        <v>1.106955133086553</v>
+      </c>
+      <c r="Q79">
+        <v>18.17875</v>
+      </c>
+      <c r="R79">
+        <v>2.694251457579019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>0.01</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80">
+        <v>283.769</v>
+      </c>
+      <c r="G80">
+        <v>16.328</v>
+      </c>
+      <c r="H80">
+        <v>22.017</v>
+      </c>
+      <c r="I80">
+        <v>16.944</v>
+      </c>
+      <c r="J80">
+        <v>19.296</v>
+      </c>
+      <c r="K80">
+        <v>17.572</v>
+      </c>
+      <c r="L80">
+        <v>16.4</v>
+      </c>
+      <c r="M80">
+        <v>17.091</v>
+      </c>
+      <c r="N80">
+        <v>15.273</v>
+      </c>
+      <c r="O80">
+        <v>16.98375</v>
+      </c>
+      <c r="P80">
+        <v>0.5128770970385271</v>
+      </c>
+      <c r="Q80">
+        <v>18.2465</v>
+      </c>
+      <c r="R80">
+        <v>3.03146746642612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0.001</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81">
+        <v>290.755</v>
+      </c>
+      <c r="G81">
+        <v>16.626</v>
+      </c>
+      <c r="H81">
+        <v>22.906</v>
+      </c>
+      <c r="I81">
+        <v>16.154</v>
+      </c>
+      <c r="J81">
+        <v>18.907</v>
+      </c>
+      <c r="K81">
+        <v>17.373</v>
+      </c>
+      <c r="L81">
+        <v>15.527</v>
+      </c>
+      <c r="M81">
+        <v>17.016</v>
+      </c>
+      <c r="N81">
+        <v>15.695</v>
+      </c>
+      <c r="O81">
+        <v>16.79225</v>
+      </c>
+      <c r="P81">
+        <v>0.5235573034539773</v>
+      </c>
+      <c r="Q81">
+        <v>18.25875</v>
+      </c>
+      <c r="R81">
+        <v>3.466623369120639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>0.001</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82">
+        <v>329.733</v>
+      </c>
+      <c r="G82">
+        <v>17.839</v>
+      </c>
+      <c r="H82">
+        <v>21.309</v>
+      </c>
+      <c r="I82">
+        <v>17.022</v>
+      </c>
+      <c r="J82">
+        <v>18.502</v>
+      </c>
+      <c r="K82">
+        <v>19.375</v>
+      </c>
+      <c r="L82">
+        <v>17.514</v>
+      </c>
+      <c r="M82">
+        <v>19.376</v>
+      </c>
+      <c r="N82">
+        <v>16.596</v>
+      </c>
+      <c r="O82">
+        <v>18.403</v>
+      </c>
+      <c r="P82">
+        <v>1.171433594646606</v>
+      </c>
+      <c r="Q82">
+        <v>18.48025</v>
+      </c>
+      <c r="R82">
+        <v>2.040125547607304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0.001</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83">
+        <v>298.161</v>
+      </c>
+      <c r="G83">
+        <v>16.922</v>
+      </c>
+      <c r="H83">
+        <v>22.482</v>
+      </c>
+      <c r="I83">
+        <v>16.455</v>
+      </c>
+      <c r="J83">
+        <v>19.24</v>
+      </c>
+      <c r="K83">
+        <v>18.98</v>
+      </c>
+      <c r="L83">
+        <v>17.254</v>
+      </c>
+      <c r="M83">
+        <v>18.943</v>
+      </c>
+      <c r="N83">
+        <v>15.838</v>
+      </c>
+      <c r="O83">
+        <v>17.825</v>
+      </c>
+      <c r="P83">
+        <v>1.326179726382012</v>
+      </c>
+      <c r="Q83">
+        <v>18.7035</v>
+      </c>
+      <c r="R83">
+        <v>2.879643207065764</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>0.001</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>332.766</v>
+      </c>
+      <c r="G84">
+        <v>17.803</v>
+      </c>
+      <c r="H84">
+        <v>22.499</v>
+      </c>
+      <c r="I84">
+        <v>18.492</v>
+      </c>
+      <c r="J84">
+        <v>19.122</v>
+      </c>
+      <c r="K84">
+        <v>19.199</v>
+      </c>
+      <c r="L84">
+        <v>17.324</v>
+      </c>
+      <c r="M84">
+        <v>19.2</v>
+      </c>
+      <c r="N84">
+        <v>16.117</v>
+      </c>
+      <c r="O84">
+        <v>18.6735</v>
+      </c>
+      <c r="P84">
+        <v>0.6693442064189892</v>
+      </c>
+      <c r="Q84">
+        <v>18.7655</v>
+      </c>
+      <c r="R84">
+        <v>2.778404158265435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0.001</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>308.381</v>
+      </c>
+      <c r="G85">
+        <v>17.246</v>
+      </c>
+      <c r="H85">
+        <v>23.503</v>
+      </c>
+      <c r="I85">
+        <v>18.054</v>
+      </c>
+      <c r="J85">
+        <v>19.735</v>
+      </c>
+      <c r="K85">
+        <v>18.923</v>
+      </c>
+      <c r="L85">
+        <v>17.123</v>
+      </c>
+      <c r="M85">
+        <v>18.812</v>
+      </c>
+      <c r="N85">
+        <v>16.343</v>
+      </c>
+      <c r="O85">
+        <v>18.25875</v>
+      </c>
+      <c r="P85">
+        <v>0.7777957636809298</v>
+      </c>
+      <c r="Q85">
+        <v>19.176</v>
+      </c>
+      <c r="R85">
+        <v>3.228834051686976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0.0001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>303.557</v>
+      </c>
+      <c r="G86">
+        <v>17.222</v>
+      </c>
+      <c r="H86">
+        <v>23.343</v>
+      </c>
+      <c r="I86">
+        <v>18.72</v>
+      </c>
+      <c r="J86">
+        <v>19.182</v>
+      </c>
+      <c r="K86">
+        <v>18.734</v>
+      </c>
+      <c r="L86">
+        <v>17.885</v>
+      </c>
+      <c r="M86">
+        <v>18.651</v>
+      </c>
+      <c r="N86">
+        <v>16.701</v>
+      </c>
+      <c r="O86">
+        <v>18.33175</v>
+      </c>
+      <c r="P86">
+        <v>0.7407223388917958</v>
+      </c>
+      <c r="Q86">
+        <v>19.27775</v>
+      </c>
+      <c r="R86">
+        <v>2.893372815590828</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.01</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <v>373.744</v>
+      </c>
+      <c r="G87">
+        <v>18.371</v>
+      </c>
+      <c r="H87">
+        <v>21.701</v>
+      </c>
+      <c r="I87">
+        <v>19.703</v>
+      </c>
+      <c r="J87">
+        <v>19.645</v>
+      </c>
+      <c r="K87">
+        <v>16.591</v>
+      </c>
+      <c r="L87">
+        <v>18.748</v>
+      </c>
+      <c r="M87">
+        <v>20.369</v>
+      </c>
+      <c r="N87">
+        <v>18.084</v>
+      </c>
+      <c r="O87">
+        <v>18.7585</v>
+      </c>
+      <c r="P87">
+        <v>1.666733631988026</v>
+      </c>
+      <c r="Q87">
+        <v>19.5445</v>
+      </c>
+      <c r="R87">
+        <v>1.573537945734601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0.01</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>410.927</v>
+      </c>
+      <c r="G88">
+        <v>19.522</v>
+      </c>
+      <c r="H88">
+        <v>22.424</v>
+      </c>
+      <c r="I88">
+        <v>28.709</v>
+      </c>
+      <c r="J88">
+        <v>28.738</v>
+      </c>
+      <c r="K88">
+        <v>13.775</v>
+      </c>
+      <c r="L88">
+        <v>14.227</v>
+      </c>
+      <c r="M88">
+        <v>13.985</v>
+      </c>
+      <c r="N88">
+        <v>14.27</v>
+      </c>
+      <c r="O88">
+        <v>18.99775</v>
+      </c>
+      <c r="P88">
+        <v>6.99971415487804</v>
+      </c>
+      <c r="Q88">
+        <v>19.91475</v>
+      </c>
+      <c r="R88">
+        <v>7.032301158463945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0.01</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89">
+        <v>507.207</v>
+      </c>
+      <c r="G89">
+        <v>20.948</v>
+      </c>
+      <c r="H89">
+        <v>24.836</v>
+      </c>
+      <c r="I89">
+        <v>20.791</v>
+      </c>
+      <c r="J89">
+        <v>22.031</v>
+      </c>
+      <c r="K89">
+        <v>20.193</v>
+      </c>
+      <c r="L89">
+        <v>16.772</v>
+      </c>
+      <c r="M89">
+        <v>19.659</v>
+      </c>
+      <c r="N89">
+        <v>19.651</v>
+      </c>
+      <c r="O89">
+        <v>20.39775</v>
+      </c>
+      <c r="P89">
+        <v>0.5902244629517378</v>
+      </c>
+      <c r="Q89">
+        <v>20.8225</v>
+      </c>
+      <c r="R89">
+        <v>3.432570319745832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>0.01</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90">
+        <v>1881.255</v>
+      </c>
+      <c r="G90">
+        <v>43.139</v>
+      </c>
+      <c r="H90">
+        <v>39.97</v>
+      </c>
+      <c r="I90">
+        <v>14.134</v>
+      </c>
+      <c r="J90">
+        <v>15.944</v>
+      </c>
+      <c r="K90">
+        <v>18.2</v>
+      </c>
+      <c r="L90">
+        <v>16.818</v>
+      </c>
+      <c r="M90">
+        <v>13.421</v>
+      </c>
+      <c r="N90">
+        <v>13.458</v>
+      </c>
+      <c r="O90">
+        <v>22.2235</v>
+      </c>
+      <c r="P90">
+        <v>14.10166312886533</v>
+      </c>
+      <c r="Q90">
+        <v>21.5475</v>
+      </c>
+      <c r="R90">
+        <v>12.36387073964568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0.01</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>706.9400000000001</v>
+      </c>
+      <c r="G91">
+        <v>23.995</v>
+      </c>
+      <c r="H91">
+        <v>26.845</v>
+      </c>
+      <c r="I91">
+        <v>17.25</v>
+      </c>
+      <c r="J91">
+        <v>18.601</v>
+      </c>
+      <c r="K91">
+        <v>27.103</v>
+      </c>
+      <c r="L91">
+        <v>25.044</v>
+      </c>
+      <c r="M91">
+        <v>17.423</v>
+      </c>
+      <c r="N91">
+        <v>16.372</v>
+      </c>
+      <c r="O91">
+        <v>21.44275</v>
+      </c>
+      <c r="P91">
+        <v>4.908833967111404</v>
+      </c>
+      <c r="Q91">
+        <v>21.7155</v>
+      </c>
+      <c r="R91">
+        <v>5.021413645578305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>0.01</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92">
+        <v>675.894</v>
+      </c>
+      <c r="G92">
+        <v>25.729</v>
+      </c>
+      <c r="H92">
+        <v>29.635</v>
+      </c>
+      <c r="I92">
+        <v>15.26</v>
+      </c>
+      <c r="J92">
+        <v>18.466</v>
+      </c>
+      <c r="K92">
+        <v>18.893</v>
+      </c>
+      <c r="L92">
+        <v>21.144</v>
+      </c>
+      <c r="M92">
+        <v>18.871</v>
+      </c>
+      <c r="N92">
+        <v>18.641</v>
+      </c>
+      <c r="O92">
+        <v>19.68825</v>
+      </c>
+      <c r="P92">
+        <v>4.374181018583173</v>
+      </c>
+      <c r="Q92">
+        <v>21.9715</v>
+      </c>
+      <c r="R92">
+        <v>5.253403626856276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.01</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93">
         <v>233.043</v>
       </c>
-      <c r="G71">
+      <c r="G93">
         <v>14.403</v>
       </c>
-      <c r="H71">
+      <c r="H93">
         <v>20.298</v>
       </c>
-      <c r="I71">
+      <c r="I93">
         <v>42.453</v>
       </c>
-      <c r="J71">
+      <c r="J93">
         <v>41.648</v>
       </c>
-      <c r="K71">
+      <c r="K93">
         <v>15.574</v>
       </c>
-      <c r="L71">
+      <c r="L93">
         <v>15.237</v>
       </c>
-      <c r="M71">
+      <c r="M93">
         <v>17.342</v>
       </c>
-      <c r="N71">
+      <c r="N93">
         <v>13.952</v>
       </c>
-      <c r="O71">
+      <c r="O93">
         <v>22.443</v>
       </c>
-      <c r="P71">
+      <c r="P93">
         <v>13.3945892309793</v>
       </c>
-      <c r="Q71">
+      <c r="Q93">
         <v>22.78375</v>
       </c>
-      <c r="R71">
+      <c r="R93">
         <v>12.87105440837437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.01</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94">
+        <v>65184181860.873</v>
+      </c>
+      <c r="G94">
+        <v>39.438</v>
+      </c>
+      <c r="H94">
+        <v>36.563</v>
+      </c>
+      <c r="I94">
+        <v>13.73</v>
+      </c>
+      <c r="J94">
+        <v>15.163</v>
+      </c>
+      <c r="K94">
+        <v>15.208</v>
+      </c>
+      <c r="L94">
+        <v>14.57</v>
+      </c>
+      <c r="M94">
+        <v>42.155</v>
+      </c>
+      <c r="N94">
+        <v>44.673</v>
+      </c>
+      <c r="O94">
+        <v>27.63275</v>
+      </c>
+      <c r="P94">
+        <v>15.25254670265483</v>
+      </c>
+      <c r="Q94">
+        <v>27.74225</v>
+      </c>
+      <c r="R94">
+        <v>15.23375229274346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0.01</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>369.019</v>
+      </c>
+      <c r="G95">
+        <v>18.646</v>
+      </c>
+      <c r="H95">
+        <v>22.051</v>
+      </c>
+      <c r="I95">
+        <v>33.425</v>
+      </c>
+      <c r="J95">
+        <v>34.492</v>
+      </c>
+      <c r="K95">
+        <v>339095923</v>
+      </c>
+      <c r="L95">
+        <v>124342676.533</v>
+      </c>
+      <c r="M95">
+        <v>22.591</v>
+      </c>
+      <c r="N95">
+        <v>22.125</v>
+      </c>
+      <c r="O95">
+        <v>84773999.4155</v>
+      </c>
+      <c r="P95">
+        <v>169547949.0563335</v>
+      </c>
+      <c r="Q95">
+        <v>31085688.80025</v>
+      </c>
+      <c r="R95">
+        <v>62171325.15516695</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/gnn_main_scores/additive_main_scores.xlsx
+++ b/yield_prediction/results/gnn_main_scores/additive_main_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="36">
   <si>
     <t>molecule</t>
   </si>
@@ -40,10 +40,22 @@
     <t>rmse_test1</t>
   </si>
   <si>
+    <t>r2_train1</t>
+  </si>
+  <si>
+    <t>r2_test1</t>
+  </si>
+  <si>
     <t>rmse_train2</t>
   </si>
   <si>
     <t>rmse_test2</t>
+  </si>
+  <si>
+    <t>r2_train2</t>
+  </si>
+  <si>
+    <t>r2_test2</t>
   </si>
   <si>
     <t>rmse_train3</t>
@@ -52,10 +64,22 @@
     <t>rmse_test3</t>
   </si>
   <si>
+    <t>r2_train3</t>
+  </si>
+  <si>
+    <t>r2_test3</t>
+  </si>
+  <si>
     <t>rmse_train4</t>
   </si>
   <si>
     <t>rmse_test4</t>
+  </si>
+  <si>
+    <t>r2_train4</t>
+  </si>
+  <si>
+    <t>r2_test4</t>
   </si>
   <si>
     <t>mean_rmse_train</t>
@@ -68,6 +92,18 @@
   </si>
   <si>
     <t>std_rmse_test</t>
+  </si>
+  <si>
+    <t>mean_r2_train</t>
+  </si>
+  <si>
+    <t>std_r2_train</t>
+  </si>
+  <si>
+    <t>mean_r2_test</t>
+  </si>
+  <si>
+    <t>std_r2_test</t>
   </si>
   <si>
     <t>additive</t>
@@ -443,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +540,46 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -516,10 +588,10 @@
         <v>0.001</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>197.013</v>
@@ -531,39 +603,75 @@
         <v>19.561</v>
       </c>
       <c r="I2">
+        <v>0.746</v>
+      </c>
+      <c r="J2">
+        <v>-0.434</v>
+      </c>
+      <c r="K2">
         <v>13.078</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>15.136</v>
       </c>
-      <c r="K2">
+      <c r="M2">
+        <v>0.757</v>
+      </c>
+      <c r="N2">
+        <v>0.419</v>
+      </c>
+      <c r="O2">
         <v>14.083</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>11.927</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
+        <v>0.724</v>
+      </c>
+      <c r="R2">
+        <v>0.632</v>
+      </c>
+      <c r="S2">
         <v>13.417</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>13.894</v>
       </c>
-      <c r="O2">
+      <c r="U2">
+        <v>0.751</v>
+      </c>
+      <c r="V2">
+        <v>0.616</v>
+      </c>
+      <c r="W2">
         <v>13.503</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>0.4199928570821179</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>15.1295</v>
       </c>
-      <c r="R2">
+      <c r="Z2">
         <v>3.23628907855896</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="AA2">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.01438749456993817</v>
+      </c>
+      <c r="AC2">
+        <v>0.30825</v>
+      </c>
+      <c r="AD2">
+        <v>0.5042237433256525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -572,10 +680,10 @@
         <v>0.001</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>175.444</v>
@@ -587,39 +695,75 @@
         <v>19.348</v>
       </c>
       <c r="I3">
+        <v>0.767</v>
+      </c>
+      <c r="J3">
+        <v>-0.267</v>
+      </c>
+      <c r="K3">
         <v>12.019</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>15.245</v>
       </c>
-      <c r="K3">
+      <c r="M3">
+        <v>0.793</v>
+      </c>
+      <c r="N3">
+        <v>0.407</v>
+      </c>
+      <c r="O3">
         <v>13.064</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>13.024</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>0.762</v>
+      </c>
+      <c r="R3">
+        <v>0.54</v>
+      </c>
+      <c r="S3">
         <v>12.937</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>13.34</v>
       </c>
-      <c r="O3">
+      <c r="U3">
+        <v>0.769</v>
+      </c>
+      <c r="V3">
+        <v>0.628</v>
+      </c>
+      <c r="W3">
         <v>12.72625</v>
       </c>
-      <c r="P3">
+      <c r="X3">
         <v>0.4774567170609986</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>15.23925</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>2.909544222611736</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="AA3">
+        <v>0.77275</v>
+      </c>
+      <c r="AB3">
+        <v>0.01381725973797507</v>
+      </c>
+      <c r="AC3">
+        <v>0.327</v>
+      </c>
+      <c r="AD3">
+        <v>0.4062864342636445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -628,10 +772,10 @@
         <v>0.001</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>180.427</v>
@@ -643,39 +787,75 @@
         <v>19.689</v>
       </c>
       <c r="I4">
+        <v>0.767</v>
+      </c>
+      <c r="J4">
+        <v>-0.546</v>
+      </c>
+      <c r="K4">
         <v>11.995</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>15.379</v>
       </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.794</v>
+      </c>
+      <c r="N4">
+        <v>0.372</v>
+      </c>
+      <c r="O4">
         <v>13.114</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>12.283</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>0.763</v>
+      </c>
+      <c r="R4">
+        <v>0.636</v>
+      </c>
+      <c r="S4">
         <v>12.856</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>13.741</v>
       </c>
-      <c r="O4">
+      <c r="U4">
+        <v>0.77</v>
+      </c>
+      <c r="V4">
+        <v>0.59</v>
+      </c>
+      <c r="W4">
         <v>12.71125</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>0.4914776190224746</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>15.273</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>3.20413358023663</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="AA4">
+        <v>0.7735</v>
+      </c>
+      <c r="AB4">
+        <v>0.01396424004376895</v>
+      </c>
+      <c r="AC4">
+        <v>0.263</v>
+      </c>
+      <c r="AD4">
+        <v>0.5514888938138284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -684,10 +864,10 @@
         <v>0.001</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>179.255</v>
@@ -699,39 +879,75 @@
         <v>18.266</v>
       </c>
       <c r="I5">
+        <v>0.768</v>
+      </c>
+      <c r="J5">
+        <v>-0.016</v>
+      </c>
+      <c r="K5">
         <v>12.013</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>16.354</v>
       </c>
-      <c r="K5">
+      <c r="M5">
+        <v>0.794</v>
+      </c>
+      <c r="N5">
+        <v>0.392</v>
+      </c>
+      <c r="O5">
         <v>13.041</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>13.286</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
+        <v>0.765</v>
+      </c>
+      <c r="R5">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="S5">
         <v>12.869</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>13.677</v>
       </c>
-      <c r="O5">
+      <c r="U5">
+        <v>0.771</v>
+      </c>
+      <c r="V5">
+        <v>0.618</v>
+      </c>
+      <c r="W5">
         <v>12.6995</v>
       </c>
-      <c r="P5">
+      <c r="X5">
         <v>0.4645553429535245</v>
       </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>15.39575</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>2.349590372100351</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="AA5">
+        <v>0.7745</v>
+      </c>
+      <c r="AB5">
+        <v>0.01322875655532297</v>
+      </c>
+      <c r="AC5">
+        <v>0.38875</v>
+      </c>
+      <c r="AD5">
+        <v>0.2863906132074397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -740,10 +956,10 @@
         <v>0.001</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>191.98</v>
@@ -755,39 +971,75 @@
         <v>20.059</v>
       </c>
       <c r="I6">
+        <v>0.764</v>
+      </c>
+      <c r="J6">
+        <v>-0.282</v>
+      </c>
+      <c r="K6">
         <v>12.086</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>15.128</v>
       </c>
-      <c r="K6">
+      <c r="M6">
+        <v>0.791</v>
+      </c>
+      <c r="N6">
+        <v>0.405</v>
+      </c>
+      <c r="O6">
         <v>13.162</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>13.262</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
+        <v>0.758</v>
+      </c>
+      <c r="R6">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="S6">
         <v>12.991</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>13.741</v>
       </c>
-      <c r="O6">
+      <c r="U6">
+        <v>0.768</v>
+      </c>
+      <c r="V6">
+        <v>0.631</v>
+      </c>
+      <c r="W6">
         <v>12.81275</v>
       </c>
-      <c r="P6">
+      <c r="X6">
         <v>0.4904469899999388</v>
       </c>
-      <c r="Q6">
+      <c r="Y6">
         <v>15.5475</v>
       </c>
-      <c r="R6">
+      <c r="Z6">
         <v>3.110014201468112</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="AA6">
+        <v>0.7702500000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.01443086968966182</v>
+      </c>
+      <c r="AC6">
+        <v>0.32825</v>
+      </c>
+      <c r="AD6">
+        <v>0.4176117614882671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -796,10 +1048,10 @@
         <v>0.001</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>176.579</v>
@@ -811,39 +1063,75 @@
         <v>20.558</v>
       </c>
       <c r="I7">
+        <v>0.769</v>
+      </c>
+      <c r="J7">
+        <v>-0.44</v>
+      </c>
+      <c r="K7">
         <v>12.167</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>14.937</v>
       </c>
-      <c r="K7">
+      <c r="M7">
+        <v>0.788</v>
+      </c>
+      <c r="N7">
+        <v>0.437</v>
+      </c>
+      <c r="O7">
         <v>13.255</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>13.436</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
+        <v>0.756</v>
+      </c>
+      <c r="R7">
+        <v>0.459</v>
+      </c>
+      <c r="S7">
         <v>12.891</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>14.027</v>
       </c>
-      <c r="O7">
+      <c r="U7">
+        <v>0.767</v>
+      </c>
+      <c r="V7">
+        <v>0.625</v>
+      </c>
+      <c r="W7">
         <v>12.793</v>
       </c>
-      <c r="P7">
+      <c r="X7">
         <v>0.4543420150796831</v>
       </c>
-      <c r="Q7">
+      <c r="Y7">
         <v>15.7395</v>
       </c>
-      <c r="R7">
+      <c r="Z7">
         <v>3.271121978771199</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="AA7">
+        <v>0.7699999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.01329160135825127</v>
+      </c>
+      <c r="AC7">
+        <v>0.27025</v>
+      </c>
+      <c r="AD7">
+        <v>0.4808793161144141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -852,10 +1140,10 @@
         <v>0.0001</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>190.824</v>
@@ -867,39 +1155,75 @@
         <v>18.452</v>
       </c>
       <c r="I8">
+        <v>0.751</v>
+      </c>
+      <c r="J8">
+        <v>-0.175</v>
+      </c>
+      <c r="K8">
         <v>13.309</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>17.981</v>
       </c>
-      <c r="K8">
+      <c r="M8">
+        <v>0.748</v>
+      </c>
+      <c r="N8">
+        <v>0.357</v>
+      </c>
+      <c r="O8">
         <v>14.495</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>13.452</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
+        <v>0.71</v>
+      </c>
+      <c r="R8">
+        <v>0.581</v>
+      </c>
+      <c r="S8">
         <v>13.851</v>
       </c>
-      <c r="N8">
+      <c r="T8">
         <v>13.487</v>
       </c>
-      <c r="O8">
+      <c r="U8">
+        <v>0.731</v>
+      </c>
+      <c r="V8">
+        <v>0.618</v>
+      </c>
+      <c r="W8">
         <v>13.749</v>
       </c>
-      <c r="P8">
+      <c r="X8">
         <v>0.555872887148372</v>
       </c>
-      <c r="Q8">
+      <c r="Y8">
         <v>15.843</v>
       </c>
-      <c r="R8">
+      <c r="Z8">
         <v>2.747455914114002</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="AA8">
+        <v>0.735</v>
+      </c>
+      <c r="AB8">
+        <v>0.01885028735413161</v>
+      </c>
+      <c r="AC8">
+        <v>0.3452499999999999</v>
+      </c>
+      <c r="AD8">
+        <v>0.3654990880061581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -908,10 +1232,10 @@
         <v>0.001</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>233.958</v>
@@ -923,39 +1247,75 @@
         <v>18.945</v>
       </c>
       <c r="I9">
+        <v>0.758</v>
+      </c>
+      <c r="J9">
+        <v>-0.45</v>
+      </c>
+      <c r="K9">
         <v>12.193</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>18.052</v>
       </c>
-      <c r="K9">
+      <c r="M9">
+        <v>0.788</v>
+      </c>
+      <c r="N9">
+        <v>0.342</v>
+      </c>
+      <c r="O9">
         <v>13.578</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>12.711</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
+        <v>0.745</v>
+      </c>
+      <c r="R9">
+        <v>0.6</v>
+      </c>
+      <c r="S9">
         <v>13.064</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>13.775</v>
       </c>
-      <c r="O9">
+      <c r="U9">
+        <v>0.762</v>
+      </c>
+      <c r="V9">
+        <v>0.612</v>
+      </c>
+      <c r="W9">
         <v>12.9835</v>
       </c>
-      <c r="P9">
+      <c r="X9">
         <v>0.5768133724755926</v>
       </c>
-      <c r="Q9">
+      <c r="Y9">
         <v>15.87075</v>
       </c>
-      <c r="R9">
+      <c r="Z9">
         <v>3.08680270128602</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="AA9">
+        <v>0.76325</v>
+      </c>
+      <c r="AB9">
+        <v>0.01802544497832625</v>
+      </c>
+      <c r="AC9">
+        <v>0.276</v>
+      </c>
+      <c r="AD9">
+        <v>0.4997679461510112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -964,10 +1324,10 @@
         <v>0.001</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>196.366</v>
@@ -979,39 +1339,75 @@
         <v>19.738</v>
       </c>
       <c r="I10">
+        <v>0.751</v>
+      </c>
+      <c r="J10">
+        <v>-0.223</v>
+      </c>
+      <c r="K10">
         <v>12.097</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>17.381</v>
       </c>
-      <c r="K10">
+      <c r="M10">
+        <v>0.793</v>
+      </c>
+      <c r="N10">
+        <v>0.362</v>
+      </c>
+      <c r="O10">
         <v>13.515</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>12.679</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
+        <v>0.746</v>
+      </c>
+      <c r="R10">
+        <v>0.591</v>
+      </c>
+      <c r="S10">
         <v>13.039</v>
       </c>
-      <c r="N10">
+      <c r="T10">
         <v>13.708</v>
       </c>
-      <c r="O10">
+      <c r="U10">
+        <v>0.765</v>
+      </c>
+      <c r="V10">
+        <v>0.618</v>
+      </c>
+      <c r="W10">
         <v>12.99675</v>
       </c>
-      <c r="P10">
+      <c r="X10">
         <v>0.631138851600819</v>
       </c>
-      <c r="Q10">
+      <c r="Y10">
         <v>15.8765</v>
       </c>
-      <c r="R10">
+      <c r="Z10">
         <v>3.271141543865077</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="AA10">
+        <v>0.76375</v>
+      </c>
+      <c r="AB10">
+        <v>0.02109304782781918</v>
+      </c>
+      <c r="AC10">
+        <v>0.337</v>
+      </c>
+      <c r="AD10">
+        <v>0.3905986857803458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1020,10 +1416,10 @@
         <v>0.001</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>177.515</v>
@@ -1035,39 +1431,75 @@
         <v>19.431</v>
       </c>
       <c r="I11">
+        <v>0.767</v>
+      </c>
+      <c r="J11">
+        <v>-0.166</v>
+      </c>
+      <c r="K11">
         <v>12.106</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>16.754</v>
       </c>
-      <c r="K11">
+      <c r="M11">
+        <v>0.79</v>
+      </c>
+      <c r="N11">
+        <v>0.398</v>
+      </c>
+      <c r="O11">
         <v>13.419</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>13.068</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
+        <v>0.753</v>
+      </c>
+      <c r="R11">
+        <v>0.57</v>
+      </c>
+      <c r="S11">
         <v>12.949</v>
       </c>
-      <c r="N11">
+      <c r="T11">
         <v>14.359</v>
       </c>
-      <c r="O11">
+      <c r="U11">
+        <v>0.767</v>
+      </c>
+      <c r="V11">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="W11">
         <v>12.83875</v>
       </c>
-      <c r="P11">
+      <c r="X11">
         <v>0.5439217927852008</v>
       </c>
-      <c r="Q11">
+      <c r="Y11">
         <v>15.903</v>
       </c>
-      <c r="R11">
+      <c r="Z11">
         <v>2.804291116604456</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="AA11">
+        <v>0.76925</v>
+      </c>
+      <c r="AB11">
+        <v>0.01532699144211502</v>
+      </c>
+      <c r="AC11">
+        <v>0.3415</v>
+      </c>
+      <c r="AD11">
+        <v>0.3475950709278446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1076,10 +1508,10 @@
         <v>0.0001</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>195.141</v>
@@ -1091,39 +1523,75 @@
         <v>19.391</v>
       </c>
       <c r="I12">
+        <v>0.737</v>
+      </c>
+      <c r="J12">
+        <v>-0.331</v>
+      </c>
+      <c r="K12">
         <v>12.373</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>16.929</v>
       </c>
-      <c r="K12">
+      <c r="M12">
+        <v>0.783</v>
+      </c>
+      <c r="N12">
+        <v>0.373</v>
+      </c>
+      <c r="O12">
         <v>14.593</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>13.424</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
+        <v>0.708</v>
+      </c>
+      <c r="R12">
+        <v>0.495</v>
+      </c>
+      <c r="S12">
         <v>14.574</v>
       </c>
-      <c r="N12">
+      <c r="T12">
         <v>14.241</v>
       </c>
-      <c r="O12">
+      <c r="U12">
+        <v>0.705</v>
+      </c>
+      <c r="V12">
+        <v>0.598</v>
+      </c>
+      <c r="W12">
         <v>13.813</v>
       </c>
-      <c r="P12">
+      <c r="X12">
         <v>1.044241670623552</v>
       </c>
-      <c r="Q12">
+      <c r="Y12">
         <v>15.99625</v>
       </c>
-      <c r="R12">
+      <c r="Z12">
         <v>2.713652074849193</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="AA12">
+        <v>0.73325</v>
+      </c>
+      <c r="AB12">
+        <v>0.03616973873281368</v>
+      </c>
+      <c r="AC12">
+        <v>0.2837499999999999</v>
+      </c>
+      <c r="AD12">
+        <v>0.4200249000555403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1132,10 +1600,10 @@
         <v>0.001</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>174.533</v>
@@ -1147,39 +1615,75 @@
         <v>18.554</v>
       </c>
       <c r="I13">
+        <v>0.77</v>
+      </c>
+      <c r="J13">
+        <v>-0.202</v>
+      </c>
+      <c r="K13">
         <v>12.001</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>16.335</v>
       </c>
-      <c r="K13">
+      <c r="M13">
+        <v>0.795</v>
+      </c>
+      <c r="N13">
+        <v>0.335</v>
+      </c>
+      <c r="O13">
         <v>13.054</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>15.915</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
+        <v>0.765</v>
+      </c>
+      <c r="R13">
+        <v>0.318</v>
+      </c>
+      <c r="S13">
         <v>12.845</v>
       </c>
-      <c r="N13">
+      <c r="T13">
         <v>13.204</v>
       </c>
-      <c r="O13">
+      <c r="U13">
+        <v>0.772</v>
+      </c>
+      <c r="V13">
+        <v>0.648</v>
+      </c>
+      <c r="W13">
         <v>12.69225</v>
       </c>
-      <c r="P13">
+      <c r="X13">
         <v>0.4701995143907889</v>
       </c>
-      <c r="Q13">
+      <c r="Y13">
         <v>16.002</v>
       </c>
-      <c r="R13">
+      <c r="Z13">
         <v>2.195447258912558</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="AA13">
+        <v>0.7755000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.01332916601542148</v>
+      </c>
+      <c r="AC13">
+        <v>0.27475</v>
+      </c>
+      <c r="AD13">
+        <v>0.3521868585471828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1188,10 +1692,10 @@
         <v>0.001</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>225.988</v>
@@ -1203,39 +1707,75 @@
         <v>18.804</v>
       </c>
       <c r="I14">
+        <v>0.731</v>
+      </c>
+      <c r="J14">
+        <v>-0.234</v>
+      </c>
+      <c r="K14">
         <v>12.805</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>17.026</v>
       </c>
-      <c r="K14">
+      <c r="M14">
+        <v>0.767</v>
+      </c>
+      <c r="N14">
+        <v>0.374</v>
+      </c>
+      <c r="O14">
         <v>14.685</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>13.662</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
+        <v>0.704</v>
+      </c>
+      <c r="R14">
+        <v>0.546</v>
+      </c>
+      <c r="S14">
         <v>14.498</v>
       </c>
-      <c r="N14">
+      <c r="T14">
         <v>14.98</v>
       </c>
-      <c r="O14">
+      <c r="U14">
+        <v>0.711</v>
+      </c>
+      <c r="V14">
+        <v>0.548</v>
+      </c>
+      <c r="W14">
         <v>13.974</v>
       </c>
-      <c r="P14">
+      <c r="X14">
         <v>0.8467612808027224</v>
       </c>
-      <c r="Q14">
+      <c r="Y14">
         <v>16.118</v>
       </c>
-      <c r="R14">
+      <c r="Z14">
         <v>2.263186544086309</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="AA14">
+        <v>0.72825</v>
+      </c>
+      <c r="AB14">
+        <v>0.02825331838917336</v>
+      </c>
+      <c r="AC14">
+        <v>0.3085</v>
+      </c>
+      <c r="AD14">
+        <v>0.3707483423204119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1244,10 +1784,10 @@
         <v>0.001</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>226.35</v>
@@ -1259,39 +1799,75 @@
         <v>20.379</v>
       </c>
       <c r="I15">
+        <v>0.711</v>
+      </c>
+      <c r="J15">
+        <v>-0.172</v>
+      </c>
+      <c r="K15">
         <v>12.05</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>15.483</v>
       </c>
-      <c r="K15">
+      <c r="M15">
+        <v>0.794</v>
+      </c>
+      <c r="N15">
+        <v>0.443</v>
+      </c>
+      <c r="O15">
         <v>13.422</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>14.12</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
+        <v>0.752</v>
+      </c>
+      <c r="R15">
+        <v>0.456</v>
+      </c>
+      <c r="S15">
         <v>13.919</v>
       </c>
-      <c r="N15">
+      <c r="T15">
         <v>14.495</v>
       </c>
-      <c r="O15">
+      <c r="U15">
+        <v>0.732</v>
+      </c>
+      <c r="V15">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="W15">
         <v>13.45425</v>
       </c>
-      <c r="P15">
+      <c r="X15">
         <v>1.021966853669922</v>
       </c>
-      <c r="Q15">
+      <c r="Y15">
         <v>16.11925</v>
       </c>
-      <c r="R15">
+      <c r="Z15">
         <v>2.897439832564835</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="AA15">
+        <v>0.74725</v>
+      </c>
+      <c r="AB15">
+        <v>0.03537772368784255</v>
+      </c>
+      <c r="AC15">
+        <v>0.32225</v>
+      </c>
+      <c r="AD15">
+        <v>0.3337827387188658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1300,10 +1876,10 @@
         <v>0.0001</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>224.987</v>
@@ -1315,39 +1891,75 @@
         <v>18.829</v>
       </c>
       <c r="I16">
+        <v>0.711</v>
+      </c>
+      <c r="J16">
+        <v>-0.067</v>
+      </c>
+      <c r="K16">
         <v>13.765</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>17.859</v>
       </c>
-      <c r="K16">
+      <c r="M16">
+        <v>0.731</v>
+      </c>
+      <c r="N16">
+        <v>0.347</v>
+      </c>
+      <c r="O16">
         <v>15.45</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>13.714</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
+        <v>0.672</v>
+      </c>
+      <c r="R16">
+        <v>0.575</v>
+      </c>
+      <c r="S16">
         <v>15.161</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>14.199</v>
       </c>
-      <c r="O16">
+      <c r="U16">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V16">
+        <v>0.602</v>
+      </c>
+      <c r="W16">
         <v>14.68575</v>
       </c>
-      <c r="P16">
+      <c r="X16">
         <v>0.765794304409915</v>
       </c>
-      <c r="Q16">
+      <c r="Y16">
         <v>16.15025</v>
       </c>
-      <c r="R16">
+      <c r="Z16">
         <v>2.571524758452334</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="AA16">
+        <v>0.699</v>
+      </c>
+      <c r="AB16">
+        <v>0.02699382645470376</v>
+      </c>
+      <c r="AC16">
+        <v>0.36425</v>
+      </c>
+      <c r="AD16">
+        <v>0.3094159821340843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1356,10 +1968,10 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>199.3</v>
@@ -1371,39 +1983,75 @@
         <v>19.163</v>
       </c>
       <c r="I17">
+        <v>0.746</v>
+      </c>
+      <c r="J17">
+        <v>-0.186</v>
+      </c>
+      <c r="K17">
         <v>12.449</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>16.499</v>
       </c>
-      <c r="K17">
+      <c r="M17">
+        <v>0.78</v>
+      </c>
+      <c r="N17">
+        <v>0.406</v>
+      </c>
+      <c r="O17">
         <v>14.941</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>14.728</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
+        <v>0.694</v>
+      </c>
+      <c r="R17">
+        <v>0.35</v>
+      </c>
+      <c r="S17">
         <v>13.824</v>
       </c>
-      <c r="N17">
+      <c r="T17">
         <v>14.497</v>
       </c>
-      <c r="O17">
+      <c r="U17">
+        <v>0.732</v>
+      </c>
+      <c r="V17">
+        <v>0.601</v>
+      </c>
+      <c r="W17">
         <v>13.6765</v>
       </c>
-      <c r="P17">
+      <c r="X17">
         <v>1.026565958264089</v>
       </c>
-      <c r="Q17">
+      <c r="Y17">
         <v>16.22175</v>
       </c>
-      <c r="R17">
+      <c r="Z17">
         <v>2.155138877968966</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="AA17">
+        <v>0.738</v>
+      </c>
+      <c r="AB17">
+        <v>0.0355902608401044</v>
+      </c>
+      <c r="AC17">
+        <v>0.29275</v>
+      </c>
+      <c r="AD17">
+        <v>0.3368099117702249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1412,10 +2060,10 @@
         <v>0.001</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>186.734</v>
@@ -1427,39 +2075,75 @@
         <v>19.657</v>
       </c>
       <c r="I18">
+        <v>0.752</v>
+      </c>
+      <c r="J18">
+        <v>-0.191</v>
+      </c>
+      <c r="K18">
         <v>12.213</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>17.737</v>
       </c>
-      <c r="K18">
+      <c r="M18">
+        <v>0.786</v>
+      </c>
+      <c r="N18">
+        <v>0.32</v>
+      </c>
+      <c r="O18">
         <v>13.353</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>13.53</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
+        <v>0.752</v>
+      </c>
+      <c r="R18">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="S18">
         <v>13.477</v>
       </c>
-      <c r="N18">
+      <c r="T18">
         <v>14.189</v>
       </c>
-      <c r="O18">
+      <c r="U18">
+        <v>0.749</v>
+      </c>
+      <c r="V18">
+        <v>0.605</v>
+      </c>
+      <c r="W18">
         <v>13.07475</v>
       </c>
-      <c r="P18">
+      <c r="X18">
         <v>0.5815762346130275</v>
       </c>
-      <c r="Q18">
+      <c r="Y18">
         <v>16.27825</v>
       </c>
-      <c r="R18">
+      <c r="Z18">
         <v>2.913288333939273</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="AA18">
+        <v>0.75975</v>
+      </c>
+      <c r="AB18">
+        <v>0.01755704986607945</v>
+      </c>
+      <c r="AC18">
+        <v>0.325</v>
+      </c>
+      <c r="AD18">
+        <v>0.3664068776647076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1468,10 +2152,10 @@
         <v>0.01</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>217.241</v>
@@ -1483,39 +2167,75 @@
         <v>19.357</v>
       </c>
       <c r="I19">
+        <v>0.727</v>
+      </c>
+      <c r="J19">
+        <v>-0.215</v>
+      </c>
+      <c r="K19">
         <v>12.374</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>16.384</v>
       </c>
-      <c r="K19">
+      <c r="M19">
+        <v>0.781</v>
+      </c>
+      <c r="N19">
+        <v>0.376</v>
+      </c>
+      <c r="O19">
         <v>14.131</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>14.924</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>0.723</v>
+      </c>
+      <c r="R19">
+        <v>0.386</v>
+      </c>
+      <c r="S19">
         <v>15.509</v>
       </c>
-      <c r="N19">
+      <c r="T19">
         <v>14.599</v>
       </c>
-      <c r="O19">
+      <c r="U19">
+        <v>0.663</v>
+      </c>
+      <c r="V19">
+        <v>0.599</v>
+      </c>
+      <c r="W19">
         <v>13.9725</v>
       </c>
-      <c r="P19">
+      <c r="X19">
         <v>1.284584109092641</v>
       </c>
-      <c r="Q19">
+      <c r="Y19">
         <v>16.316</v>
       </c>
-      <c r="R19">
+      <c r="Z19">
         <v>2.170872174956416</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="AA19">
+        <v>0.7235</v>
+      </c>
+      <c r="AB19">
+        <v>0.04823207784590389</v>
+      </c>
+      <c r="AC19">
+        <v>0.2865</v>
+      </c>
+      <c r="AD19">
+        <v>0.3497947016941985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1524,10 +2244,10 @@
         <v>0.001</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>193.061</v>
@@ -1539,39 +2259,75 @@
         <v>19.027</v>
       </c>
       <c r="I20">
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <v>-0.396</v>
+      </c>
+      <c r="K20">
         <v>12.14</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>17.009</v>
       </c>
-      <c r="K20">
+      <c r="M20">
+        <v>0.787</v>
+      </c>
+      <c r="N20">
+        <v>0.357</v>
+      </c>
+      <c r="O20">
         <v>13.304</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>15.83</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
+        <v>0.753</v>
+      </c>
+      <c r="R20">
+        <v>0.338</v>
+      </c>
+      <c r="S20">
         <v>13.228</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <v>13.471</v>
       </c>
-      <c r="O20">
+      <c r="U20">
+        <v>0.757</v>
+      </c>
+      <c r="V20">
+        <v>0.63</v>
+      </c>
+      <c r="W20">
         <v>13.0145</v>
       </c>
-      <c r="P20">
+      <c r="X20">
         <v>0.5865591757586494</v>
       </c>
-      <c r="Q20">
+      <c r="Y20">
         <v>16.33425</v>
       </c>
-      <c r="R20">
+      <c r="Z20">
         <v>2.320823040072925</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="AA20">
+        <v>0.76175</v>
+      </c>
+      <c r="AB20">
+        <v>0.0170758113521242</v>
+      </c>
+      <c r="AC20">
+        <v>0.23225</v>
+      </c>
+      <c r="AD20">
+        <v>0.4395637041430969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1580,10 +2336,10 @@
         <v>0.0001</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>212.027</v>
@@ -1595,39 +2351,75 @@
         <v>20.279</v>
       </c>
       <c r="I21">
+        <v>0.713</v>
+      </c>
+      <c r="J21">
+        <v>-0.5580000000000001</v>
+      </c>
+      <c r="K21">
         <v>14.222</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>17.964</v>
       </c>
-      <c r="K21">
+      <c r="M21">
+        <v>0.715</v>
+      </c>
+      <c r="N21">
+        <v>0.299</v>
+      </c>
+      <c r="O21">
         <v>13.944</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>12.542</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
+        <v>0.731</v>
+      </c>
+      <c r="R21">
+        <v>0.583</v>
+      </c>
+      <c r="S21">
         <v>14.407</v>
       </c>
-      <c r="N21">
+      <c r="T21">
         <v>14.635</v>
       </c>
-      <c r="O21">
+      <c r="U21">
+        <v>0.712</v>
+      </c>
+      <c r="V21">
+        <v>0.581</v>
+      </c>
+      <c r="W21">
         <v>14.2395</v>
       </c>
-      <c r="P21">
+      <c r="X21">
         <v>0.2135829269081836</v>
       </c>
-      <c r="Q21">
+      <c r="Y21">
         <v>16.355</v>
       </c>
-      <c r="R21">
+      <c r="Z21">
         <v>3.439187210180142</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="AA21">
+        <v>0.7177499999999999</v>
+      </c>
+      <c r="AB21">
+        <v>0.008920949127381764</v>
+      </c>
+      <c r="AC21">
+        <v>0.22625</v>
+      </c>
+      <c r="AD21">
+        <v>0.5395858751548882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1636,10 +2428,10 @@
         <v>0.001</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>235.008</v>
@@ -1651,39 +2443,75 @@
         <v>20.302</v>
       </c>
       <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
+        <v>0.01</v>
+      </c>
+      <c r="K22">
         <v>14.11</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>17.782</v>
       </c>
-      <c r="K22">
+      <c r="M22">
+        <v>0.717</v>
+      </c>
+      <c r="N22">
+        <v>0.295</v>
+      </c>
+      <c r="O22">
         <v>15.793</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>13.033</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
+        <v>0.654</v>
+      </c>
+      <c r="R22">
+        <v>0.57</v>
+      </c>
+      <c r="S22">
         <v>15.091</v>
       </c>
-      <c r="N22">
+      <c r="T22">
         <v>14.304</v>
       </c>
-      <c r="O22">
+      <c r="U22">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="V22">
+        <v>0.593</v>
+      </c>
+      <c r="W22">
         <v>14.91375</v>
       </c>
-      <c r="P22">
+      <c r="X22">
         <v>0.7104915551926003</v>
       </c>
-      <c r="Q22">
+      <c r="Y22">
         <v>16.35525</v>
       </c>
-      <c r="R22">
+      <c r="Z22">
         <v>3.30945225830499</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="AA22">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="AB22">
+        <v>0.02674571616788999</v>
+      </c>
+      <c r="AC22">
+        <v>0.367</v>
+      </c>
+      <c r="AD22">
+        <v>0.273811370594186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1692,10 +2520,10 @@
         <v>0.01</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>234.546</v>
@@ -1707,39 +2535,75 @@
         <v>18.889</v>
       </c>
       <c r="I23">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J23">
+        <v>-0.555</v>
+      </c>
+      <c r="K23">
         <v>14.16</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>17.741</v>
       </c>
-      <c r="K23">
+      <c r="M23">
+        <v>0.714</v>
+      </c>
+      <c r="N23">
+        <v>0.217</v>
+      </c>
+      <c r="O23">
         <v>15.195</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>14.929</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.427</v>
+      </c>
+      <c r="S23">
         <v>15.004</v>
       </c>
-      <c r="N23">
+      <c r="T23">
         <v>14.38</v>
       </c>
-      <c r="O23">
+      <c r="U23">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="V23">
+        <v>0.58</v>
+      </c>
+      <c r="W23">
         <v>14.8</v>
       </c>
-      <c r="P23">
+      <c r="X23">
         <v>0.4505263588293142</v>
       </c>
-      <c r="Q23">
+      <c r="Y23">
         <v>16.48475</v>
       </c>
-      <c r="R23">
+      <c r="Z23">
         <v>2.176305183102774</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="AA23">
+        <v>0.6952499999999999</v>
+      </c>
+      <c r="AB23">
+        <v>0.01299679447658791</v>
+      </c>
+      <c r="AC23">
+        <v>0.16725</v>
+      </c>
+      <c r="AD23">
+        <v>0.5039685009998145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1748,10 +2612,10 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>246.795</v>
@@ -1763,39 +2627,75 @@
         <v>19.947</v>
       </c>
       <c r="I24">
+        <v>0.671</v>
+      </c>
+      <c r="J24">
+        <v>-0.959</v>
+      </c>
+      <c r="K24">
         <v>14.257</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>17.356</v>
       </c>
-      <c r="K24">
+      <c r="M24">
+        <v>0.713</v>
+      </c>
+      <c r="N24">
+        <v>0.289</v>
+      </c>
+      <c r="O24">
         <v>15.496</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>14.35</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
+        <v>0.672</v>
+      </c>
+      <c r="R24">
+        <v>0.477</v>
+      </c>
+      <c r="S24">
         <v>15.114</v>
       </c>
-      <c r="N24">
+      <c r="T24">
         <v>14.464</v>
       </c>
-      <c r="O24">
+      <c r="U24">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="V24">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="W24">
         <v>15.0595</v>
       </c>
-      <c r="P24">
+      <c r="X24">
         <v>0.5581340938042283</v>
       </c>
-      <c r="Q24">
+      <c r="Y24">
         <v>16.52925</v>
       </c>
-      <c r="R24">
+      <c r="Z24">
         <v>2.669514234837492</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="AA24">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.01957890020745118</v>
+      </c>
+      <c r="AC24">
+        <v>0.09375</v>
+      </c>
+      <c r="AD24">
+        <v>0.7113833354809488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1804,10 +2704,10 @@
         <v>0.01</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F25">
         <v>256.022</v>
@@ -1819,39 +2719,75 @@
         <v>21.055</v>
       </c>
       <c r="I25">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J25">
+        <v>-0.162</v>
+      </c>
+      <c r="K25">
         <v>14.354</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>17.423</v>
       </c>
-      <c r="K25">
+      <c r="M25">
+        <v>0.708</v>
+      </c>
+      <c r="N25">
+        <v>0.322</v>
+      </c>
+      <c r="O25">
         <v>14.563</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>14.108</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
+        <v>0.707</v>
+      </c>
+      <c r="R25">
+        <v>0.514</v>
+      </c>
+      <c r="S25">
         <v>14.404</v>
       </c>
-      <c r="N25">
+      <c r="T25">
         <v>13.534</v>
       </c>
-      <c r="O25">
+      <c r="U25">
+        <v>0.711</v>
+      </c>
+      <c r="V25">
+        <v>0.633</v>
+      </c>
+      <c r="W25">
         <v>14.55425</v>
       </c>
-      <c r="P25">
+      <c r="X25">
         <v>0.2446390197822095</v>
       </c>
-      <c r="Q25">
+      <c r="Y25">
         <v>16.53</v>
       </c>
-      <c r="R25">
+      <c r="Z25">
         <v>3.469638501823112</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="AA25">
+        <v>0.7042499999999999</v>
+      </c>
+      <c r="AB25">
+        <v>0.008995369179009099</v>
+      </c>
+      <c r="AC25">
+        <v>0.32675</v>
+      </c>
+      <c r="AD25">
+        <v>0.3501193844009974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1860,10 +2796,10 @@
         <v>0.001</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>192.751</v>
@@ -1875,39 +2811,75 @@
         <v>19.461</v>
       </c>
       <c r="I26">
+        <v>0.748</v>
+      </c>
+      <c r="J26">
+        <v>-0.368</v>
+      </c>
+      <c r="K26">
         <v>13.999</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>17.679</v>
       </c>
-      <c r="K26">
+      <c r="M26">
+        <v>0.722</v>
+      </c>
+      <c r="N26">
+        <v>0.206</v>
+      </c>
+      <c r="O26">
         <v>14.235</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>14.983</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
+        <v>0.722</v>
+      </c>
+      <c r="R26">
+        <v>0.471</v>
+      </c>
+      <c r="S26">
         <v>13.388</v>
       </c>
-      <c r="N26">
+      <c r="T26">
         <v>14.025</v>
       </c>
-      <c r="O26">
+      <c r="U26">
+        <v>0.752</v>
+      </c>
+      <c r="V26">
+        <v>0.589</v>
+      </c>
+      <c r="W26">
         <v>13.75575</v>
       </c>
-      <c r="P26">
+      <c r="X26">
         <v>0.4281505770948658</v>
       </c>
-      <c r="Q26">
+      <c r="Y26">
         <v>16.537</v>
       </c>
-      <c r="R26">
+      <c r="Z26">
         <v>2.488573888796553</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="AA26">
+        <v>0.736</v>
+      </c>
+      <c r="AB26">
+        <v>0.01624807680927193</v>
+      </c>
+      <c r="AC26">
+        <v>0.2245</v>
+      </c>
+      <c r="AD26">
+        <v>0.4262319399888594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1916,10 +2888,10 @@
         <v>0.0001</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F27">
         <v>181.925</v>
@@ -1931,39 +2903,75 @@
         <v>18.265</v>
       </c>
       <c r="I27">
+        <v>0.76</v>
+      </c>
+      <c r="J27">
+        <v>-0.051</v>
+      </c>
+      <c r="K27">
         <v>12.409</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>17.281</v>
       </c>
-      <c r="K27">
+      <c r="M27">
+        <v>0.783</v>
+      </c>
+      <c r="N27">
+        <v>0.378</v>
+      </c>
+      <c r="O27">
         <v>13.61</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>13.44</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
+        <v>0.744</v>
+      </c>
+      <c r="R27">
+        <v>0.57</v>
+      </c>
+      <c r="S27">
         <v>13.118</v>
       </c>
-      <c r="N27">
+      <c r="T27">
         <v>17.284</v>
       </c>
-      <c r="O27">
+      <c r="U27">
+        <v>0.76</v>
+      </c>
+      <c r="V27">
+        <v>0.305</v>
+      </c>
+      <c r="W27">
         <v>13.05375</v>
       </c>
-      <c r="P27">
+      <c r="X27">
         <v>0.4932317744563228</v>
       </c>
-      <c r="Q27">
+      <c r="Y27">
         <v>16.5675</v>
       </c>
-      <c r="R27">
+      <c r="Z27">
         <v>2.135822792274678</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="AA27">
+        <v>0.7617499999999999</v>
+      </c>
+      <c r="AB27">
+        <v>0.01604940289647356</v>
+      </c>
+      <c r="AC27">
+        <v>0.3005</v>
+      </c>
+      <c r="AD27">
+        <v>0.2596208774347702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1972,10 +2980,10 @@
         <v>0.001</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>217.075</v>
@@ -1987,39 +2995,75 @@
         <v>21.01</v>
       </c>
       <c r="I28">
+        <v>0.714</v>
+      </c>
+      <c r="J28">
+        <v>-0.032</v>
+      </c>
+      <c r="K28">
         <v>14.27</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>18.145</v>
       </c>
-      <c r="K28">
+      <c r="M28">
+        <v>0.712</v>
+      </c>
+      <c r="N28">
+        <v>0.282</v>
+      </c>
+      <c r="O28">
         <v>14.618</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>13.194</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
+        <v>0.706</v>
+      </c>
+      <c r="R28">
+        <v>0.591</v>
+      </c>
+      <c r="S28">
         <v>14.549</v>
       </c>
-      <c r="N28">
+      <c r="T28">
         <v>13.96</v>
       </c>
-      <c r="O28">
+      <c r="U28">
+        <v>0.708</v>
+      </c>
+      <c r="V28">
+        <v>0.601</v>
+      </c>
+      <c r="W28">
         <v>14.435</v>
       </c>
-      <c r="P28">
+      <c r="X28">
         <v>0.1742928569964931</v>
       </c>
-      <c r="Q28">
+      <c r="Y28">
         <v>16.57725</v>
       </c>
-      <c r="R28">
+      <c r="Z28">
         <v>3.66985425459922</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="AA28">
+        <v>0.71</v>
+      </c>
+      <c r="AB28">
+        <v>0.003651483716701111</v>
+      </c>
+      <c r="AC28">
+        <v>0.3605</v>
+      </c>
+      <c r="AD28">
+        <v>0.3006598299296621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2028,10 +3072,10 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F29">
         <v>242.445</v>
@@ -2043,39 +3087,75 @@
         <v>19.436</v>
       </c>
       <c r="I29">
+        <v>0.68</v>
+      </c>
+      <c r="J29">
+        <v>-0.545</v>
+      </c>
+      <c r="K29">
         <v>14.896</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>17.618</v>
       </c>
-      <c r="K29">
+      <c r="M29">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.29</v>
+      </c>
+      <c r="O29">
         <v>16.076</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>14.904</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
+        <v>0.643</v>
+      </c>
+      <c r="R29">
+        <v>0.487</v>
+      </c>
+      <c r="S29">
         <v>16.696</v>
       </c>
-      <c r="N29">
+      <c r="T29">
         <v>14.527</v>
       </c>
-      <c r="O29">
+      <c r="U29">
+        <v>0.615</v>
+      </c>
+      <c r="V29">
+        <v>0.599</v>
+      </c>
+      <c r="W29">
         <v>15.6845</v>
       </c>
-      <c r="P29">
+      <c r="X29">
         <v>0.8516155235785693</v>
       </c>
-      <c r="Q29">
+      <c r="Y29">
         <v>16.62125</v>
       </c>
-      <c r="R29">
+      <c r="Z29">
         <v>2.327456318959964</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="AA29">
+        <v>0.6560000000000001</v>
+      </c>
+      <c r="AB29">
+        <v>0.03329664647778615</v>
+      </c>
+      <c r="AC29">
+        <v>0.20775</v>
+      </c>
+      <c r="AD29">
+        <v>0.5178335479025411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2084,10 +3164,10 @@
         <v>0.001</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F30">
         <v>229.808</v>
@@ -2099,39 +3179,75 @@
         <v>20.069</v>
       </c>
       <c r="I30">
+        <v>0.725</v>
+      </c>
+      <c r="J30">
+        <v>-0.205</v>
+      </c>
+      <c r="K30">
         <v>13.473</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>17.941</v>
       </c>
-      <c r="K30">
+      <c r="M30">
+        <v>0.741</v>
+      </c>
+      <c r="N30">
+        <v>0.306</v>
+      </c>
+      <c r="O30">
         <v>14.553</v>
       </c>
-      <c r="L30">
+      <c r="P30">
         <v>15.05</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
+        <v>0.708</v>
+      </c>
+      <c r="R30">
+        <v>0.418</v>
+      </c>
+      <c r="S30">
         <v>14.776</v>
       </c>
-      <c r="N30">
+      <c r="T30">
         <v>13.57</v>
       </c>
-      <c r="O30">
+      <c r="U30">
+        <v>0.696</v>
+      </c>
+      <c r="V30">
+        <v>0.637</v>
+      </c>
+      <c r="W30">
         <v>14.2005</v>
       </c>
-      <c r="P30">
+      <c r="X30">
         <v>0.5844977901298399</v>
       </c>
-      <c r="Q30">
+      <c r="Y30">
         <v>16.6575</v>
       </c>
-      <c r="R30">
+      <c r="Z30">
         <v>2.909892151495194</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="AA30">
+        <v>0.7175</v>
+      </c>
+      <c r="AB30">
+        <v>0.01967231557290602</v>
+      </c>
+      <c r="AC30">
+        <v>0.289</v>
+      </c>
+      <c r="AD30">
+        <v>0.356870658175573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2140,10 +3256,10 @@
         <v>0.001</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F31">
         <v>213.615</v>
@@ -2155,39 +3271,75 @@
         <v>19.548</v>
       </c>
       <c r="I31">
+        <v>0.73</v>
+      </c>
+      <c r="J31">
+        <v>-0.322</v>
+      </c>
+      <c r="K31">
         <v>12.781</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>17.706</v>
       </c>
-      <c r="K31">
+      <c r="M31">
+        <v>0.767</v>
+      </c>
+      <c r="N31">
+        <v>0.237</v>
+      </c>
+      <c r="O31">
         <v>13.686</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>15.92</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
+        <v>0.74</v>
+      </c>
+      <c r="R31">
+        <v>0.371</v>
+      </c>
+      <c r="S31">
         <v>13.247</v>
       </c>
-      <c r="N31">
+      <c r="T31">
         <v>13.467</v>
       </c>
-      <c r="O31">
+      <c r="U31">
+        <v>0.756</v>
+      </c>
+      <c r="V31">
+        <v>0.646</v>
+      </c>
+      <c r="W31">
         <v>13.4045</v>
       </c>
-      <c r="P31">
+      <c r="X31">
         <v>0.4974270465773513</v>
       </c>
-      <c r="Q31">
+      <c r="Y31">
         <v>16.66025</v>
       </c>
-      <c r="R31">
+      <c r="Z31">
         <v>2.59342172621423</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="AA31">
+        <v>0.7482500000000001</v>
+      </c>
+      <c r="AB31">
+        <v>0.01645954636879969</v>
+      </c>
+      <c r="AC31">
+        <v>0.233</v>
+      </c>
+      <c r="AD31">
+        <v>0.407289413889763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2196,10 +3348,10 @@
         <v>0.001</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F32">
         <v>219.259</v>
@@ -2211,39 +3363,75 @@
         <v>18.602</v>
       </c>
       <c r="I32">
+        <v>0.737</v>
+      </c>
+      <c r="J32">
+        <v>-0.245</v>
+      </c>
+      <c r="K32">
         <v>12.737</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>18.387</v>
       </c>
-      <c r="K32">
+      <c r="M32">
+        <v>0.768</v>
+      </c>
+      <c r="N32">
+        <v>0.271</v>
+      </c>
+      <c r="O32">
         <v>14.359</v>
       </c>
-      <c r="L32">
+      <c r="P32">
         <v>16.073</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
+        <v>0.712</v>
+      </c>
+      <c r="R32">
+        <v>0.32</v>
+      </c>
+      <c r="S32">
         <v>13.615</v>
       </c>
-      <c r="N32">
+      <c r="T32">
         <v>13.666</v>
       </c>
-      <c r="O32">
+      <c r="U32">
+        <v>0.742</v>
+      </c>
+      <c r="V32">
+        <v>0.635</v>
+      </c>
+      <c r="W32">
         <v>13.591</v>
       </c>
-      <c r="P32">
+      <c r="X32">
         <v>0.6642188394397336</v>
       </c>
-      <c r="Q32">
+      <c r="Y32">
         <v>16.682</v>
       </c>
-      <c r="R32">
+      <c r="Z32">
         <v>2.31376763454472</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="AA32">
+        <v>0.7397499999999999</v>
+      </c>
+      <c r="AB32">
+        <v>0.02295466546623295</v>
+      </c>
+      <c r="AC32">
+        <v>0.24525</v>
+      </c>
+      <c r="AD32">
+        <v>0.3644634183746475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2252,10 +3440,10 @@
         <v>0.0001</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F33">
         <v>222.762</v>
@@ -2267,39 +3455,75 @@
         <v>21.498</v>
       </c>
       <c r="I33">
+        <v>0.696</v>
+      </c>
+      <c r="J33">
+        <v>-0.63</v>
+      </c>
+      <c r="K33">
         <v>15.697</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>16.4</v>
       </c>
-      <c r="K33">
+      <c r="M33">
+        <v>0.653</v>
+      </c>
+      <c r="N33">
+        <v>0.4</v>
+      </c>
+      <c r="O33">
         <v>15.221</v>
       </c>
-      <c r="L33">
+      <c r="P33">
         <v>14.3</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="R33">
+        <v>0.463</v>
+      </c>
+      <c r="S33">
         <v>15.169</v>
       </c>
-      <c r="N33">
+      <c r="T33">
         <v>14.667</v>
       </c>
-      <c r="O33">
+      <c r="U33">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V33">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="W33">
         <v>15.20325</v>
       </c>
-      <c r="P33">
+      <c r="X33">
         <v>0.3970914042551573</v>
       </c>
-      <c r="Q33">
+      <c r="Y33">
         <v>16.71625</v>
       </c>
-      <c r="R33">
+      <c r="Z33">
         <v>3.316767339343135</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="AA33">
+        <v>0.67825</v>
+      </c>
+      <c r="AB33">
+        <v>0.01808083700127474</v>
+      </c>
+      <c r="AC33">
+        <v>0.2</v>
+      </c>
+      <c r="AD33">
+        <v>0.557601410806441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2308,10 +3532,10 @@
         <v>0.01</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>239.902</v>
@@ -2323,39 +3547,75 @@
         <v>19.332</v>
       </c>
       <c r="I34">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J34">
+        <v>-0.463</v>
+      </c>
+      <c r="K34">
         <v>14.22</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>17.81</v>
       </c>
-      <c r="K34">
+      <c r="M34">
+        <v>0.716</v>
+      </c>
+      <c r="N34">
+        <v>0.287</v>
+      </c>
+      <c r="O34">
         <v>15.287</v>
       </c>
-      <c r="L34">
+      <c r="P34">
         <v>15.313</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
+        <v>0.679</v>
+      </c>
+      <c r="R34">
+        <v>0.419</v>
+      </c>
+      <c r="S34">
         <v>15.219</v>
       </c>
-      <c r="N34">
+      <c r="T34">
         <v>14.642</v>
       </c>
-      <c r="O34">
+      <c r="U34">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="V34">
+        <v>0.598</v>
+      </c>
+      <c r="W34">
         <v>14.92125</v>
       </c>
-      <c r="P34">
+      <c r="X34">
         <v>0.4884003651377284</v>
       </c>
-      <c r="Q34">
+      <c r="Y34">
         <v>16.77425</v>
       </c>
-      <c r="R34">
+      <c r="Z34">
         <v>2.183010516847472</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="AA34">
+        <v>0.6912499999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0.01682012683265692</v>
+      </c>
+      <c r="AC34">
+        <v>0.21025</v>
+      </c>
+      <c r="AD34">
+        <v>0.4665771640361324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2364,10 +3624,10 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>241.947</v>
@@ -2379,39 +3639,75 @@
         <v>19.249</v>
       </c>
       <c r="I35">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J35">
+        <v>-0.658</v>
+      </c>
+      <c r="K35">
         <v>15.14</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>18.441</v>
       </c>
-      <c r="K35">
+      <c r="M35">
+        <v>0.676</v>
+      </c>
+      <c r="N35">
+        <v>0.183</v>
+      </c>
+      <c r="O35">
         <v>15.702</v>
       </c>
-      <c r="L35">
+      <c r="P35">
         <v>15.207</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
+        <v>0.663</v>
+      </c>
+      <c r="R35">
+        <v>0.45</v>
+      </c>
+      <c r="S35">
         <v>15.155</v>
       </c>
-      <c r="N35">
+      <c r="T35">
         <v>14.421</v>
       </c>
-      <c r="O35">
+      <c r="U35">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="V35">
+        <v>0.591</v>
+      </c>
+      <c r="W35">
         <v>15.22175</v>
       </c>
-      <c r="P35">
+      <c r="X35">
         <v>0.3424600949989159</v>
       </c>
-      <c r="Q35">
+      <c r="Y35">
         <v>16.8295</v>
       </c>
-      <c r="R35">
+      <c r="Z35">
         <v>2.372361060209848</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="AA35">
+        <v>0.6792499999999999</v>
+      </c>
+      <c r="AB35">
+        <v>0.01268529332205866</v>
+      </c>
+      <c r="AC35">
+        <v>0.1415</v>
+      </c>
+      <c r="AD35">
+        <v>0.5592092631564681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2420,10 +3716,10 @@
         <v>0.01</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F36">
         <v>242.6</v>
@@ -2435,39 +3731,75 @@
         <v>20.489</v>
       </c>
       <c r="I36">
+        <v>0.679</v>
+      </c>
+      <c r="J36">
+        <v>-0.294</v>
+      </c>
+      <c r="K36">
         <v>14.227</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>16.89</v>
       </c>
-      <c r="K36">
+      <c r="M36">
+        <v>0.715</v>
+      </c>
+      <c r="N36">
+        <v>0.349</v>
+      </c>
+      <c r="O36">
         <v>15.761</v>
       </c>
-      <c r="L36">
+      <c r="P36">
         <v>15.069</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
+        <v>0.658</v>
+      </c>
+      <c r="R36">
+        <v>0.523</v>
+      </c>
+      <c r="S36">
         <v>15.259</v>
       </c>
-      <c r="N36">
+      <c r="T36">
         <v>15.076</v>
       </c>
-      <c r="O36">
+      <c r="U36">
+        <v>0.678</v>
+      </c>
+      <c r="V36">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W36">
         <v>15.108</v>
       </c>
-      <c r="P36">
+      <c r="X36">
         <v>0.640650710866173</v>
       </c>
-      <c r="Q36">
+      <c r="Y36">
         <v>16.881</v>
       </c>
-      <c r="R36">
+      <c r="Z36">
         <v>2.553371235575952</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="AA36">
+        <v>0.6825</v>
+      </c>
+      <c r="AB36">
+        <v>0.02372762103540931</v>
+      </c>
+      <c r="AC36">
+        <v>0.2845</v>
+      </c>
+      <c r="AD36">
+        <v>0.3964866538317105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2476,10 +3808,10 @@
         <v>0.01</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <v>258.937</v>
@@ -2491,39 +3823,75 @@
         <v>20.005</v>
       </c>
       <c r="I37">
+        <v>0.677</v>
+      </c>
+      <c r="J37">
+        <v>-0.638</v>
+      </c>
+      <c r="K37">
         <v>14.203</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>17.991</v>
       </c>
-      <c r="K37">
+      <c r="M37">
+        <v>0.714</v>
+      </c>
+      <c r="N37">
+        <v>0.304</v>
+      </c>
+      <c r="O37">
         <v>15.319</v>
       </c>
-      <c r="L37">
+      <c r="P37">
         <v>14.817</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
+        <v>0.679</v>
+      </c>
+      <c r="R37">
+        <v>0.53</v>
+      </c>
+      <c r="S37">
         <v>15.633</v>
       </c>
-      <c r="N37">
+      <c r="T37">
         <v>14.864</v>
       </c>
-      <c r="O37">
+      <c r="U37">
+        <v>0.664</v>
+      </c>
+      <c r="V37">
+        <v>0.538</v>
+      </c>
+      <c r="W37">
         <v>15.0965</v>
       </c>
-      <c r="P37">
+      <c r="X37">
         <v>0.6201534756278752</v>
       </c>
-      <c r="Q37">
+      <c r="Y37">
         <v>16.91925</v>
       </c>
-      <c r="R37">
+      <c r="Z37">
         <v>2.537321997040711</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="AA37">
+        <v>0.6835000000000001</v>
+      </c>
+      <c r="AB37">
+        <v>0.02139314531962669</v>
+      </c>
+      <c r="AC37">
+        <v>0.1835</v>
+      </c>
+      <c r="AD37">
+        <v>0.5583054719416604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2532,10 +3900,10 @@
         <v>0.001</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>237.943</v>
@@ -2547,39 +3915,75 @@
         <v>19.679</v>
       </c>
       <c r="I38">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="J38">
+        <v>-0.531</v>
+      </c>
+      <c r="K38">
         <v>14.221</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>17.646</v>
       </c>
-      <c r="K38">
+      <c r="M38">
+        <v>0.714</v>
+      </c>
+      <c r="N38">
+        <v>0.336</v>
+      </c>
+      <c r="O38">
         <v>15.236</v>
       </c>
-      <c r="L38">
+      <c r="P38">
         <v>15.828</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
+        <v>0.681</v>
+      </c>
+      <c r="R38">
+        <v>0.371</v>
+      </c>
+      <c r="S38">
         <v>15.167</v>
       </c>
-      <c r="N38">
+      <c r="T38">
         <v>14.609</v>
       </c>
-      <c r="O38">
+      <c r="U38">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V38">
+        <v>0.597</v>
+      </c>
+      <c r="W38">
         <v>14.90675</v>
       </c>
-      <c r="P38">
+      <c r="X38">
         <v>0.4674942958653792</v>
       </c>
-      <c r="Q38">
+      <c r="Y38">
         <v>16.9405</v>
       </c>
-      <c r="R38">
+      <c r="Z38">
         <v>2.211384257277177</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="AA38">
+        <v>0.69125</v>
+      </c>
+      <c r="AB38">
+        <v>0.01547847968417222</v>
+      </c>
+      <c r="AC38">
+        <v>0.19325</v>
+      </c>
+      <c r="AD38">
+        <v>0.4964959717862775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2588,10 +3992,10 @@
         <v>0.01</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <v>239.403</v>
@@ -2603,39 +4007,75 @@
         <v>19.799</v>
       </c>
       <c r="I39">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="J39">
+        <v>-0.521</v>
+      </c>
+      <c r="K39">
         <v>14.215</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>18.686</v>
       </c>
-      <c r="K39">
+      <c r="M39">
+        <v>0.714</v>
+      </c>
+      <c r="N39">
+        <v>0.182</v>
+      </c>
+      <c r="O39">
         <v>15.453</v>
       </c>
-      <c r="L39">
+      <c r="P39">
         <v>14.277</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
+        <v>0.673</v>
+      </c>
+      <c r="R39">
+        <v>0.523</v>
+      </c>
+      <c r="S39">
         <v>15.105</v>
       </c>
-      <c r="N39">
+      <c r="T39">
         <v>15.109</v>
       </c>
-      <c r="O39">
+      <c r="U39">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="V39">
+        <v>0.542</v>
+      </c>
+      <c r="W39">
         <v>14.91725</v>
       </c>
-      <c r="P39">
+      <c r="X39">
         <v>0.5214993608177609</v>
       </c>
-      <c r="Q39">
+      <c r="Y39">
         <v>16.96775</v>
       </c>
-      <c r="R39">
+      <c r="Z39">
         <v>2.687219551258636</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="AA39">
+        <v>0.6915</v>
+      </c>
+      <c r="AB39">
+        <v>0.01713670524536923</v>
+      </c>
+      <c r="AC39">
+        <v>0.1815</v>
+      </c>
+      <c r="AD39">
+        <v>0.4966853464048777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2644,10 +4084,10 @@
         <v>0.01</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F40">
         <v>244.787</v>
@@ -2659,39 +4099,75 @@
         <v>19.647</v>
       </c>
       <c r="I40">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="J40">
+        <v>-0.669</v>
+      </c>
+      <c r="K40">
         <v>14.208</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>17.566</v>
       </c>
-      <c r="K40">
+      <c r="M40">
+        <v>0.716</v>
+      </c>
+      <c r="N40">
+        <v>0.257</v>
+      </c>
+      <c r="O40">
         <v>15.247</v>
       </c>
-      <c r="L40">
+      <c r="P40">
         <v>15.536</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
+        <v>0.68</v>
+      </c>
+      <c r="R40">
+        <v>0.452</v>
+      </c>
+      <c r="S40">
         <v>16.547</v>
       </c>
-      <c r="N40">
+      <c r="T40">
         <v>15.127</v>
       </c>
-      <c r="O40">
+      <c r="U40">
+        <v>0.618</v>
+      </c>
+      <c r="V40">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="W40">
         <v>15.23075</v>
       </c>
-      <c r="P40">
+      <c r="X40">
         <v>0.9789008717263803</v>
       </c>
-      <c r="Q40">
+      <c r="Y40">
         <v>16.969</v>
       </c>
-      <c r="R40">
+      <c r="Z40">
         <v>2.079627049897809</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="AA40">
+        <v>0.67575</v>
+      </c>
+      <c r="AB40">
+        <v>0.04142764777295471</v>
+      </c>
+      <c r="AC40">
+        <v>0.1515</v>
+      </c>
+      <c r="AD40">
+        <v>0.5616822945402499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2700,10 +4176,10 @@
         <v>0.01</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <v>220.297</v>
@@ -2715,39 +4191,75 @@
         <v>19.798</v>
       </c>
       <c r="I41">
+        <v>0.719</v>
+      </c>
+      <c r="J41">
+        <v>-0.137</v>
+      </c>
+      <c r="K41">
         <v>17.01</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>18.056</v>
       </c>
-      <c r="K41">
+      <c r="M41">
+        <v>0.591</v>
+      </c>
+      <c r="N41">
+        <v>0.231</v>
+      </c>
+      <c r="O41">
         <v>14.098</v>
       </c>
-      <c r="L41">
+      <c r="P41">
         <v>16.349</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
+        <v>0.727</v>
+      </c>
+      <c r="R41">
+        <v>0.338</v>
+      </c>
+      <c r="S41">
         <v>14.801</v>
       </c>
-      <c r="N41">
+      <c r="T41">
         <v>13.766</v>
       </c>
-      <c r="O41">
+      <c r="U41">
+        <v>0.697</v>
+      </c>
+      <c r="V41">
+        <v>0.627</v>
+      </c>
+      <c r="W41">
         <v>15.02575</v>
       </c>
-      <c r="P41">
+      <c r="X41">
         <v>1.358956554370546</v>
       </c>
-      <c r="Q41">
+      <c r="Y41">
         <v>16.99225</v>
       </c>
-      <c r="R41">
+      <c r="Z41">
         <v>2.570749355732682</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="AA41">
+        <v>0.6835</v>
+      </c>
+      <c r="AB41">
+        <v>0.06295765772856124</v>
+      </c>
+      <c r="AC41">
+        <v>0.26475</v>
+      </c>
+      <c r="AD41">
+        <v>0.3157703543188731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2756,10 +4268,10 @@
         <v>0.01</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F42">
         <v>250.233</v>
@@ -2771,39 +4283,75 @@
         <v>19.89</v>
       </c>
       <c r="I42">
+        <v>0.671</v>
+      </c>
+      <c r="J42">
+        <v>-0.633</v>
+      </c>
+      <c r="K42">
         <v>15.371</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>17.352</v>
       </c>
-      <c r="K42">
+      <c r="M42">
+        <v>0.667</v>
+      </c>
+      <c r="N42">
+        <v>0.305</v>
+      </c>
+      <c r="O42">
         <v>15.89</v>
       </c>
-      <c r="L42">
+      <c r="P42">
         <v>16.292</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
+        <v>0.652</v>
+      </c>
+      <c r="R42">
+        <v>0.341</v>
+      </c>
+      <c r="S42">
         <v>15.639</v>
       </c>
-      <c r="N42">
+      <c r="T42">
         <v>14.576</v>
       </c>
-      <c r="O42">
+      <c r="U42">
+        <v>0.668</v>
+      </c>
+      <c r="V42">
+        <v>0.594</v>
+      </c>
+      <c r="W42">
         <v>15.569</v>
       </c>
-      <c r="P42">
+      <c r="X42">
         <v>0.2479206862419245</v>
       </c>
-      <c r="Q42">
+      <c r="Y42">
         <v>17.0275</v>
       </c>
-      <c r="R42">
+      <c r="Z42">
         <v>2.224860969439064</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="AA42">
+        <v>0.6645000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>0.008504900548115391</v>
+      </c>
+      <c r="AC42">
+        <v>0.15175</v>
+      </c>
+      <c r="AD42">
+        <v>0.5387388823292164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2812,10 +4360,10 @@
         <v>0.001</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F43">
         <v>241.623</v>
@@ -2827,39 +4375,75 @@
         <v>19.543</v>
       </c>
       <c r="I43">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="J43">
+        <v>-0.462</v>
+      </c>
+      <c r="K43">
         <v>14.22</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>17.691</v>
       </c>
-      <c r="K43">
+      <c r="M43">
+        <v>0.714</v>
+      </c>
+      <c r="N43">
+        <v>0.242</v>
+      </c>
+      <c r="O43">
         <v>15.191</v>
       </c>
-      <c r="L43">
+      <c r="P43">
         <v>15.688</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="R43">
+        <v>0.364</v>
+      </c>
+      <c r="S43">
         <v>15.094</v>
       </c>
-      <c r="N43">
+      <c r="T43">
         <v>15.545</v>
       </c>
-      <c r="O43">
+      <c r="U43">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="V43">
+        <v>0.511</v>
+      </c>
+      <c r="W43">
         <v>14.887</v>
       </c>
-      <c r="P43">
+      <c r="X43">
         <v>0.448883800851252</v>
       </c>
-      <c r="Q43">
+      <c r="Y43">
         <v>17.11675</v>
       </c>
-      <c r="R43">
+      <c r="Z43">
         <v>1.891047042425614</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="AA43">
+        <v>0.69125</v>
+      </c>
+      <c r="AB43">
+        <v>0.01521786231155125</v>
+      </c>
+      <c r="AC43">
+        <v>0.16375</v>
+      </c>
+      <c r="AD43">
+        <v>0.4314196526198902</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2868,10 +4452,10 @@
         <v>0.001</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F44">
         <v>244.334</v>
@@ -2883,39 +4467,75 @@
         <v>20.202</v>
       </c>
       <c r="I44">
+        <v>0.677</v>
+      </c>
+      <c r="J44">
+        <v>-0.456</v>
+      </c>
+      <c r="K44">
         <v>14.217</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>17.793</v>
       </c>
-      <c r="K44">
+      <c r="M44">
+        <v>0.714</v>
+      </c>
+      <c r="N44">
+        <v>0.28</v>
+      </c>
+      <c r="O44">
         <v>15.281</v>
       </c>
-      <c r="L44">
+      <c r="P44">
         <v>15.401</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
+        <v>0.678</v>
+      </c>
+      <c r="R44">
+        <v>0.296</v>
+      </c>
+      <c r="S44">
         <v>15.464</v>
       </c>
-      <c r="N44">
+      <c r="T44">
         <v>15.103</v>
       </c>
-      <c r="O44">
+      <c r="U44">
+        <v>0.669</v>
+      </c>
+      <c r="V44">
+        <v>0.574</v>
+      </c>
+      <c r="W44">
         <v>15.05375</v>
       </c>
-      <c r="P44">
+      <c r="X44">
         <v>0.5656261279915087</v>
       </c>
-      <c r="Q44">
+      <c r="Y44">
         <v>17.12475</v>
       </c>
-      <c r="R44">
+      <c r="Z44">
         <v>2.378712028949001</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="AA44">
+        <v>0.6845</v>
+      </c>
+      <c r="AB44">
+        <v>0.02007485989988469</v>
+      </c>
+      <c r="AC44">
+        <v>0.1735</v>
+      </c>
+      <c r="AD44">
+        <v>0.4408397290021246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -2924,10 +4544,10 @@
         <v>0.001</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F45">
         <v>238.591</v>
@@ -2939,39 +4559,75 @@
         <v>20.721</v>
       </c>
       <c r="I45">
+        <v>0.673</v>
+      </c>
+      <c r="J45">
+        <v>-0.435</v>
+      </c>
+      <c r="K45">
         <v>14.668</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>17.881</v>
       </c>
-      <c r="K45">
+      <c r="M45">
+        <v>0.695</v>
+      </c>
+      <c r="N45">
+        <v>0.29</v>
+      </c>
+      <c r="O45">
         <v>15.474</v>
       </c>
-      <c r="L45">
+      <c r="P45">
         <v>15.751</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
+        <v>0.67</v>
+      </c>
+      <c r="R45">
+        <v>0.384</v>
+      </c>
+      <c r="S45">
         <v>15.618</v>
       </c>
-      <c r="N45">
+      <c r="T45">
         <v>14.45</v>
       </c>
-      <c r="O45">
+      <c r="U45">
+        <v>0.667</v>
+      </c>
+      <c r="V45">
+        <v>0.611</v>
+      </c>
+      <c r="W45">
         <v>15.2675</v>
       </c>
-      <c r="P45">
+      <c r="X45">
         <v>0.4190063643112522</v>
       </c>
-      <c r="Q45">
+      <c r="Y45">
         <v>17.20075</v>
       </c>
-      <c r="R45">
+      <c r="Z45">
         <v>2.740030459076444</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="AA45">
+        <v>0.67625</v>
+      </c>
+      <c r="AB45">
+        <v>0.01273773920285695</v>
+      </c>
+      <c r="AC45">
+        <v>0.2125</v>
+      </c>
+      <c r="AD45">
+        <v>0.4522082853435276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2980,10 +4636,10 @@
         <v>0.01</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F46">
         <v>247.39</v>
@@ -2995,39 +4651,75 @@
         <v>19.855</v>
       </c>
       <c r="I46">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="J46">
+        <v>-0.534</v>
+      </c>
+      <c r="K46">
         <v>14.435</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>17.661</v>
       </c>
-      <c r="K46">
+      <c r="M46">
+        <v>0.705</v>
+      </c>
+      <c r="N46">
+        <v>0.272</v>
+      </c>
+      <c r="O46">
         <v>15.606</v>
       </c>
-      <c r="L46">
+      <c r="P46">
         <v>14.737</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
+        <v>0.663</v>
+      </c>
+      <c r="R46">
+        <v>0.52</v>
+      </c>
+      <c r="S46">
         <v>15.917</v>
       </c>
-      <c r="N46">
+      <c r="T46">
         <v>16.592</v>
       </c>
-      <c r="O46">
+      <c r="U46">
+        <v>0.652</v>
+      </c>
+      <c r="V46">
+        <v>0.451</v>
+      </c>
+      <c r="W46">
         <v>15.23675</v>
       </c>
-      <c r="P46">
+      <c r="X46">
         <v>0.6591076669760914</v>
       </c>
-      <c r="Q46">
+      <c r="Y46">
         <v>17.21125</v>
       </c>
-      <c r="R46">
+      <c r="Z46">
         <v>2.136747742871551</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="AA46">
+        <v>0.67725</v>
+      </c>
+      <c r="AB46">
+        <v>0.02414366721661531</v>
+      </c>
+      <c r="AC46">
+        <v>0.17725</v>
+      </c>
+      <c r="AD46">
+        <v>0.485548058040259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3036,10 +4728,10 @@
         <v>0.01</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F47">
         <v>278.163</v>
@@ -3051,39 +4743,75 @@
         <v>18.554</v>
       </c>
       <c r="I47">
+        <v>0.631</v>
+      </c>
+      <c r="J47">
+        <v>0.002</v>
+      </c>
+      <c r="K47">
         <v>16.355</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>18.732</v>
       </c>
-      <c r="K47">
+      <c r="M47">
+        <v>0.623</v>
+      </c>
+      <c r="N47">
+        <v>0.227</v>
+      </c>
+      <c r="O47">
         <v>17.266</v>
       </c>
-      <c r="L47">
+      <c r="P47">
         <v>15.818</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
+        <v>0.594</v>
+      </c>
+      <c r="R47">
+        <v>0.427</v>
+      </c>
+      <c r="S47">
         <v>17.893</v>
       </c>
-      <c r="N47">
+      <c r="T47">
         <v>15.757</v>
       </c>
-      <c r="O47">
+      <c r="U47">
+        <v>0.556</v>
+      </c>
+      <c r="V47">
+        <v>0.489</v>
+      </c>
+      <c r="W47">
         <v>16.9525</v>
       </c>
-      <c r="P47">
+      <c r="X47">
         <v>0.7682926959607692</v>
       </c>
-      <c r="Q47">
+      <c r="Y47">
         <v>17.21525</v>
       </c>
-      <c r="R47">
+      <c r="Z47">
         <v>1.650412347465525</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="AA47">
+        <v>0.601</v>
+      </c>
+      <c r="AB47">
+        <v>0.03395094500402994</v>
+      </c>
+      <c r="AC47">
+        <v>0.28625</v>
+      </c>
+      <c r="AD47">
+        <v>0.2200202642182457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -3092,10 +4820,10 @@
         <v>0.001</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F48">
         <v>238.393</v>
@@ -3107,39 +4835,75 @@
         <v>21.342</v>
       </c>
       <c r="I48">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J48">
+        <v>-0.777</v>
+      </c>
+      <c r="K48">
         <v>14.185</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>18.088</v>
       </c>
-      <c r="K48">
+      <c r="M48">
+        <v>0.715</v>
+      </c>
+      <c r="N48">
+        <v>0.286</v>
+      </c>
+      <c r="O48">
         <v>15.264</v>
       </c>
-      <c r="L48">
+      <c r="P48">
         <v>14.643</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
+        <v>0.681</v>
+      </c>
+      <c r="R48">
+        <v>0.432</v>
+      </c>
+      <c r="S48">
         <v>15.225</v>
       </c>
-      <c r="N48">
+      <c r="T48">
         <v>14.952</v>
       </c>
-      <c r="O48">
+      <c r="U48">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V48">
+        <v>0.555</v>
+      </c>
+      <c r="W48">
         <v>14.9015</v>
       </c>
-      <c r="P48">
+      <c r="X48">
         <v>0.5001203188567056</v>
       </c>
-      <c r="Q48">
+      <c r="Y48">
         <v>17.25625</v>
       </c>
-      <c r="R48">
+      <c r="Z48">
         <v>3.137079573424939</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="AA48">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="AB48">
+        <v>0.01585349593412545</v>
+      </c>
+      <c r="AC48">
+        <v>0.124</v>
+      </c>
+      <c r="AD48">
+        <v>0.6106471976518029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -3148,10 +4912,10 @@
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F49">
         <v>241.08</v>
@@ -3163,39 +4927,75 @@
         <v>18.876</v>
       </c>
       <c r="I49">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="J49">
+        <v>-0.211</v>
+      </c>
+      <c r="K49">
         <v>14.227</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>19.155</v>
       </c>
-      <c r="K49">
+      <c r="M49">
+        <v>0.714</v>
+      </c>
+      <c r="N49">
+        <v>0.181</v>
+      </c>
+      <c r="O49">
         <v>15.381</v>
       </c>
-      <c r="L49">
+      <c r="P49">
         <v>15.259</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
+        <v>0.676</v>
+      </c>
+      <c r="R49">
+        <v>0.42</v>
+      </c>
+      <c r="S49">
         <v>16.807</v>
       </c>
-      <c r="N49">
+      <c r="T49">
         <v>15.895</v>
       </c>
-      <c r="O49">
+      <c r="U49">
+        <v>0.609</v>
+      </c>
+      <c r="V49">
+        <v>0.499</v>
+      </c>
+      <c r="W49">
         <v>15.3775</v>
       </c>
-      <c r="P49">
+      <c r="X49">
         <v>1.071904691036785</v>
       </c>
-      <c r="Q49">
+      <c r="Y49">
         <v>17.29625</v>
       </c>
-      <c r="R49">
+      <c r="Z49">
         <v>2.005363703504513</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="AA49">
+        <v>0.67025</v>
+      </c>
+      <c r="AB49">
+        <v>0.04410876708017731</v>
+      </c>
+      <c r="AC49">
+        <v>0.22225</v>
+      </c>
+      <c r="AD49">
+        <v>0.3189058115912388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -3204,10 +5004,10 @@
         <v>0.0001</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F50">
         <v>197.107</v>
@@ -3219,39 +5019,75 @@
         <v>21.252</v>
       </c>
       <c r="I50">
+        <v>0.746</v>
+      </c>
+      <c r="J50">
+        <v>-0.658</v>
+      </c>
+      <c r="K50">
         <v>12.605</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>17.072</v>
       </c>
-      <c r="K50">
+      <c r="M50">
+        <v>0.773</v>
+      </c>
+      <c r="N50">
+        <v>0.337</v>
+      </c>
+      <c r="O50">
         <v>14.155</v>
       </c>
-      <c r="L50">
+      <c r="P50">
         <v>14.93</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
+        <v>0.723</v>
+      </c>
+      <c r="R50">
+        <v>0.412</v>
+      </c>
+      <c r="S50">
         <v>14.046</v>
       </c>
-      <c r="N50">
+      <c r="T50">
         <v>15.986</v>
       </c>
-      <c r="O50">
+      <c r="U50">
+        <v>0.727</v>
+      </c>
+      <c r="V50">
+        <v>0.525</v>
+      </c>
+      <c r="W50">
         <v>13.5615</v>
       </c>
-      <c r="P50">
+      <c r="X50">
         <v>0.711017346248786</v>
       </c>
-      <c r="Q50">
+      <c r="Y50">
         <v>17.31</v>
       </c>
-      <c r="R50">
+      <c r="Z50">
         <v>2.769680125935123</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="AA50">
+        <v>0.74225</v>
+      </c>
+      <c r="AB50">
+        <v>0.02282359889821646</v>
+      </c>
+      <c r="AC50">
+        <v>0.154</v>
+      </c>
+      <c r="AD50">
+        <v>0.5468205068088309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -3260,10 +5096,10 @@
         <v>0.01</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F51">
         <v>238.488</v>
@@ -3275,39 +5111,75 @@
         <v>19.263</v>
       </c>
       <c r="I51">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J51">
+        <v>-0.063</v>
+      </c>
+      <c r="K51">
         <v>19.166</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>20.657</v>
       </c>
-      <c r="K51">
+      <c r="M51">
+        <v>0.479</v>
+      </c>
+      <c r="N51">
+        <v>0.065</v>
+      </c>
+      <c r="O51">
         <v>15.288</v>
       </c>
-      <c r="L51">
+      <c r="P51">
         <v>15.293</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
+        <v>0.679</v>
+      </c>
+      <c r="R51">
+        <v>0.428</v>
+      </c>
+      <c r="S51">
         <v>15.741</v>
       </c>
-      <c r="N51">
+      <c r="T51">
         <v>14.325</v>
       </c>
-      <c r="O51">
+      <c r="U51">
+        <v>0.658</v>
+      </c>
+      <c r="V51">
+        <v>0.598</v>
+      </c>
+      <c r="W51">
         <v>16.2765</v>
       </c>
-      <c r="P51">
+      <c r="X51">
         <v>1.955990201066117</v>
       </c>
-      <c r="Q51">
+      <c r="Y51">
         <v>17.3845</v>
       </c>
-      <c r="R51">
+      <c r="Z51">
         <v>3.053573371205175</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="AA51">
+        <v>0.6265000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>0.09922533278687791</v>
+      </c>
+      <c r="AC51">
+        <v>0.257</v>
+      </c>
+      <c r="AD51">
+        <v>0.3081049604707244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3316,10 +5188,10 @@
         <v>0.0001</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F52">
         <v>248.309</v>
@@ -3331,39 +5203,75 @@
         <v>20.886</v>
       </c>
       <c r="I52">
+        <v>0.673</v>
+      </c>
+      <c r="J52">
+        <v>-0.235</v>
+      </c>
+      <c r="K52">
         <v>16.462</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>18.322</v>
       </c>
-      <c r="K52">
+      <c r="M52">
+        <v>0.619</v>
+      </c>
+      <c r="N52">
+        <v>0.248</v>
+      </c>
+      <c r="O52">
         <v>17.298</v>
       </c>
-      <c r="L52">
+      <c r="P52">
         <v>15.584</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
+        <v>0.589</v>
+      </c>
+      <c r="R52">
+        <v>0.501</v>
+      </c>
+      <c r="S52">
         <v>17.248</v>
       </c>
-      <c r="N52">
+      <c r="T52">
         <v>14.754</v>
       </c>
-      <c r="O52">
+      <c r="U52">
+        <v>0.594</v>
+      </c>
+      <c r="V52">
+        <v>0.571</v>
+      </c>
+      <c r="W52">
         <v>16.59175</v>
       </c>
-      <c r="P52">
+      <c r="X52">
         <v>0.9066349412341587</v>
       </c>
-      <c r="Q52">
+      <c r="Y52">
         <v>17.3865</v>
       </c>
-      <c r="R52">
+      <c r="Z52">
         <v>2.786917233551557</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="AA52">
+        <v>0.61875</v>
+      </c>
+      <c r="AB52">
+        <v>0.0384740172064213</v>
+      </c>
+      <c r="AC52">
+        <v>0.27125</v>
+      </c>
+      <c r="AD52">
+        <v>0.3649039828046094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3372,10 +5280,10 @@
         <v>0.001</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F53">
         <v>295.921</v>
@@ -3387,39 +5295,75 @@
         <v>20.646</v>
       </c>
       <c r="I53">
+        <v>0.651</v>
+      </c>
+      <c r="J53">
+        <v>-0.292</v>
+      </c>
+      <c r="K53">
         <v>14.523</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>18.451</v>
       </c>
-      <c r="K53">
+      <c r="M53">
+        <v>0.701</v>
+      </c>
+      <c r="N53">
+        <v>0.194</v>
+      </c>
+      <c r="O53">
         <v>17.64</v>
       </c>
-      <c r="L53">
+      <c r="P53">
         <v>16.005</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
+        <v>0.573</v>
+      </c>
+      <c r="R53">
+        <v>0.39</v>
+      </c>
+      <c r="S53">
         <v>17.912</v>
       </c>
-      <c r="N53">
+      <c r="T53">
         <v>14.506</v>
       </c>
-      <c r="O53">
+      <c r="U53">
+        <v>0.555</v>
+      </c>
+      <c r="V53">
+        <v>0.576</v>
+      </c>
+      <c r="W53">
         <v>16.48275</v>
       </c>
-      <c r="P53">
+      <c r="X53">
         <v>1.593258584369363</v>
       </c>
-      <c r="Q53">
+      <c r="Y53">
         <v>17.402</v>
       </c>
-      <c r="R53">
+      <c r="Z53">
         <v>2.705695351168223</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="AA53">
+        <v>0.62</v>
+      </c>
+      <c r="AB53">
+        <v>0.06820557161991971</v>
+      </c>
+      <c r="AC53">
+        <v>0.217</v>
+      </c>
+      <c r="AD53">
+        <v>0.3734612875966307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3428,10 +5372,10 @@
         <v>0.01</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F54">
         <v>244.061</v>
@@ -3443,39 +5387,75 @@
         <v>20.359</v>
       </c>
       <c r="I54">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="J54">
+        <v>-0.405</v>
+      </c>
+      <c r="K54">
         <v>14.337</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>18.289</v>
       </c>
-      <c r="K54">
+      <c r="M54">
+        <v>0.71</v>
+      </c>
+      <c r="N54">
+        <v>0.244</v>
+      </c>
+      <c r="O54">
         <v>15.304</v>
       </c>
-      <c r="L54">
+      <c r="P54">
         <v>16.157</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
+        <v>0.679</v>
+      </c>
+      <c r="R54">
+        <v>0.337</v>
+      </c>
+      <c r="S54">
         <v>15.231</v>
       </c>
-      <c r="N54">
+      <c r="T54">
         <v>14.821</v>
       </c>
-      <c r="O54">
+      <c r="U54">
+        <v>0.68</v>
+      </c>
+      <c r="V54">
+        <v>0.584</v>
+      </c>
+      <c r="W54">
         <v>14.94225</v>
       </c>
-      <c r="P54">
+      <c r="X54">
         <v>0.4406868691788613</v>
       </c>
-      <c r="Q54">
+      <c r="Y54">
         <v>17.4065</v>
       </c>
-      <c r="R54">
+      <c r="Z54">
         <v>2.431880136848855</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="AA54">
+        <v>0.68925</v>
+      </c>
+      <c r="AB54">
+        <v>0.0144077525427574</v>
+      </c>
+      <c r="AC54">
+        <v>0.19</v>
+      </c>
+      <c r="AD54">
+        <v>0.421815915615647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -3484,10 +5464,10 @@
         <v>0.001</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F55">
         <v>235.527</v>
@@ -3499,39 +5479,75 @@
         <v>21.041</v>
       </c>
       <c r="I55">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="J55">
+        <v>-0.497</v>
+      </c>
+      <c r="K55">
         <v>14.292</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>17.985</v>
       </c>
-      <c r="K55">
+      <c r="M55">
+        <v>0.711</v>
+      </c>
+      <c r="N55">
+        <v>0.211</v>
+      </c>
+      <c r="O55">
         <v>16.017</v>
       </c>
-      <c r="L55">
+      <c r="P55">
         <v>16.276</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
+        <v>0.647</v>
+      </c>
+      <c r="R55">
+        <v>0.275</v>
+      </c>
+      <c r="S55">
         <v>15.277</v>
       </c>
-      <c r="N55">
+      <c r="T55">
         <v>14.369</v>
       </c>
-      <c r="O55">
+      <c r="U55">
+        <v>0.679</v>
+      </c>
+      <c r="V55">
+        <v>0.613</v>
+      </c>
+      <c r="W55">
         <v>15.12675</v>
       </c>
-      <c r="P55">
+      <c r="X55">
         <v>0.7197825481815091</v>
       </c>
-      <c r="Q55">
+      <c r="Y55">
         <v>17.41775</v>
       </c>
-      <c r="R55">
+      <c r="Z55">
         <v>2.831264896943885</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="AA55">
+        <v>0.6815</v>
+      </c>
+      <c r="AB55">
+        <v>0.02660200493697167</v>
+      </c>
+      <c r="AC55">
+        <v>0.1505</v>
+      </c>
+      <c r="AD55">
+        <v>0.4663056937246209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3540,10 +5556,10 @@
         <v>0.001</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F56">
         <v>250.01</v>
@@ -3555,39 +5571,75 @@
         <v>22.056</v>
       </c>
       <c r="I56">
+        <v>0.663</v>
+      </c>
+      <c r="J56">
+        <v>-0.585</v>
+      </c>
+      <c r="K56">
         <v>15.206</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>17.59</v>
       </c>
-      <c r="K56">
+      <c r="M56">
+        <v>0.674</v>
+      </c>
+      <c r="N56">
+        <v>0.296</v>
+      </c>
+      <c r="O56">
         <v>16.395</v>
       </c>
-      <c r="L56">
+      <c r="P56">
         <v>15.312</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
+        <v>0.63</v>
+      </c>
+      <c r="R56">
+        <v>0.392</v>
+      </c>
+      <c r="S56">
         <v>15.97</v>
       </c>
-      <c r="N56">
+      <c r="T56">
         <v>14.749</v>
       </c>
-      <c r="O56">
+      <c r="U56">
+        <v>0.651</v>
+      </c>
+      <c r="V56">
+        <v>0.589</v>
+      </c>
+      <c r="W56">
         <v>15.78725</v>
       </c>
-      <c r="P56">
+      <c r="X56">
         <v>0.5113364026418096</v>
       </c>
-      <c r="Q56">
+      <c r="Y56">
         <v>17.42675</v>
       </c>
-      <c r="R56">
+      <c r="Z56">
         <v>3.321601960400032</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="AA56">
+        <v>0.6545000000000001</v>
+      </c>
+      <c r="AB56">
+        <v>0.01884144368141679</v>
+      </c>
+      <c r="AC56">
+        <v>0.173</v>
+      </c>
+      <c r="AD56">
+        <v>0.5198429249943358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -3596,10 +5648,10 @@
         <v>0.001</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F57">
         <v>241.937</v>
@@ -3611,39 +5663,75 @@
         <v>20.236</v>
       </c>
       <c r="I57">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="J57">
+        <v>-0.57</v>
+      </c>
+      <c r="K57">
         <v>14.149</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>18.343</v>
       </c>
-      <c r="K57">
+      <c r="M57">
+        <v>0.718</v>
+      </c>
+      <c r="N57">
+        <v>0.123</v>
+      </c>
+      <c r="O57">
         <v>15.236</v>
       </c>
-      <c r="L57">
+      <c r="P57">
         <v>15.862</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="R57">
+        <v>0.321</v>
+      </c>
+      <c r="S57">
         <v>15.053</v>
       </c>
-      <c r="N57">
+      <c r="T57">
         <v>15.281</v>
       </c>
-      <c r="O57">
+      <c r="U57">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="V57">
+        <v>0.544</v>
+      </c>
+      <c r="W57">
         <v>14.8475</v>
       </c>
-      <c r="P57">
+      <c r="X57">
         <v>0.4802724920986703</v>
       </c>
-      <c r="Q57">
+      <c r="Y57">
         <v>17.4305</v>
       </c>
-      <c r="R57">
+      <c r="Z57">
         <v>2.293761757463054</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="AA57">
+        <v>0.694</v>
+      </c>
+      <c r="AB57">
+        <v>0.01624807680927191</v>
+      </c>
+      <c r="AC57">
+        <v>0.1045</v>
+      </c>
+      <c r="AD57">
+        <v>0.4814301610825811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -3652,10 +5740,10 @@
         <v>0.001</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F58">
         <v>238.364</v>
@@ -3667,39 +5755,75 @@
         <v>20.679</v>
       </c>
       <c r="I58">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J58">
+        <v>-0.531</v>
+      </c>
+      <c r="K58">
         <v>14.185</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>17.255</v>
       </c>
-      <c r="K58">
+      <c r="M58">
+        <v>0.715</v>
+      </c>
+      <c r="N58">
+        <v>0.319</v>
+      </c>
+      <c r="O58">
         <v>15.315</v>
       </c>
-      <c r="L58">
+      <c r="P58">
         <v>17.14</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
+        <v>0.676</v>
+      </c>
+      <c r="R58">
+        <v>0.249</v>
+      </c>
+      <c r="S58">
         <v>15.328</v>
       </c>
-      <c r="N58">
+      <c r="T58">
         <v>14.704</v>
       </c>
-      <c r="O58">
+      <c r="U58">
+        <v>0.675</v>
+      </c>
+      <c r="V58">
+        <v>0.586</v>
+      </c>
+      <c r="W58">
         <v>14.924</v>
       </c>
-      <c r="P58">
+      <c r="X58">
         <v>0.5370766549882174</v>
       </c>
-      <c r="Q58">
+      <c r="Y58">
         <v>17.4445</v>
       </c>
-      <c r="R58">
+      <c r="Z58">
         <v>2.456349662948389</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="AA58">
+        <v>0.6892499999999999</v>
+      </c>
+      <c r="AB58">
+        <v>0.01866145760652149</v>
+      </c>
+      <c r="AC58">
+        <v>0.15575</v>
+      </c>
+      <c r="AD58">
+        <v>0.480307800616785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3708,10 +5832,10 @@
         <v>0.01</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F59">
         <v>269.979</v>
@@ -3723,39 +5847,75 @@
         <v>19.698</v>
       </c>
       <c r="I59">
+        <v>0.66</v>
+      </c>
+      <c r="J59">
+        <v>-0.212</v>
+      </c>
+      <c r="K59">
         <v>17.656</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>19.086</v>
       </c>
-      <c r="K59">
+      <c r="M59">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N59">
+        <v>0.158</v>
+      </c>
+      <c r="O59">
         <v>17.192</v>
       </c>
-      <c r="L59">
+      <c r="P59">
         <v>15.872</v>
       </c>
-      <c r="M59">
+      <c r="Q59">
+        <v>0.592</v>
+      </c>
+      <c r="R59">
+        <v>0.44</v>
+      </c>
+      <c r="S59">
         <v>16.114</v>
       </c>
-      <c r="N59">
+      <c r="T59">
         <v>15.23</v>
       </c>
-      <c r="O59">
+      <c r="U59">
+        <v>0.642</v>
+      </c>
+      <c r="V59">
+        <v>0.569</v>
+      </c>
+      <c r="W59">
         <v>16.63825</v>
       </c>
-      <c r="P59">
+      <c r="X59">
         <v>0.9511440041690145</v>
       </c>
-      <c r="Q59">
+      <c r="Y59">
         <v>17.4715</v>
       </c>
-      <c r="R59">
+      <c r="Z59">
         <v>2.246970924007103</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="AA59">
+        <v>0.61375</v>
+      </c>
+      <c r="AB59">
+        <v>0.04543401809217406</v>
+      </c>
+      <c r="AC59">
+        <v>0.23875</v>
+      </c>
+      <c r="AD59">
+        <v>0.346055270152038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3764,10 +5924,10 @@
         <v>0.001</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F60">
         <v>247.865</v>
@@ -3779,39 +5939,75 @@
         <v>19.742</v>
       </c>
       <c r="I60">
+        <v>0.671</v>
+      </c>
+      <c r="J60">
+        <v>-0.547</v>
+      </c>
+      <c r="K60">
         <v>14.354</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>18.297</v>
       </c>
-      <c r="K60">
+      <c r="M60">
+        <v>0.709</v>
+      </c>
+      <c r="N60">
+        <v>0.232</v>
+      </c>
+      <c r="O60">
         <v>15.583</v>
       </c>
-      <c r="L60">
+      <c r="P60">
         <v>17.054</v>
       </c>
-      <c r="M60">
+      <c r="Q60">
+        <v>0.669</v>
+      </c>
+      <c r="R60">
+        <v>0.272</v>
+      </c>
+      <c r="S60">
         <v>16.088</v>
       </c>
-      <c r="N60">
+      <c r="T60">
         <v>14.806</v>
       </c>
-      <c r="O60">
+      <c r="U60">
+        <v>0.644</v>
+      </c>
+      <c r="V60">
+        <v>0.576</v>
+      </c>
+      <c r="W60">
         <v>15.3505</v>
       </c>
-      <c r="P60">
+      <c r="X60">
         <v>0.728394810525172</v>
       </c>
-      <c r="Q60">
+      <c r="Y60">
         <v>17.47475</v>
       </c>
-      <c r="R60">
+      <c r="Z60">
         <v>2.090914851606031</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="AA60">
+        <v>0.67325</v>
+      </c>
+      <c r="AB60">
+        <v>0.02681262140609652</v>
+      </c>
+      <c r="AC60">
+        <v>0.13325</v>
+      </c>
+      <c r="AD60">
+        <v>0.4788078076500703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -3820,10 +6016,10 @@
         <v>0.001</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F61">
         <v>253.454</v>
@@ -3835,39 +6031,75 @@
         <v>21.649</v>
       </c>
       <c r="I61">
+        <v>0.671</v>
+      </c>
+      <c r="J61">
+        <v>-0.659</v>
+      </c>
+      <c r="K61">
         <v>14.326</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>17.479</v>
       </c>
-      <c r="K61">
+      <c r="M61">
+        <v>0.712</v>
+      </c>
+      <c r="N61">
+        <v>0.273</v>
+      </c>
+      <c r="O61">
         <v>15.894</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>15.465</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
+        <v>0.651</v>
+      </c>
+      <c r="R61">
+        <v>0.397</v>
+      </c>
+      <c r="S61">
         <v>15.723</v>
       </c>
-      <c r="N61">
+      <c r="T61">
         <v>15.369</v>
       </c>
-      <c r="O61">
+      <c r="U61">
+        <v>0.661</v>
+      </c>
+      <c r="V61">
+        <v>0.537</v>
+      </c>
+      <c r="W61">
         <v>15.3495</v>
       </c>
-      <c r="P61">
+      <c r="X61">
         <v>0.705848189532754</v>
       </c>
-      <c r="Q61">
+      <c r="Y61">
         <v>17.4905</v>
       </c>
-      <c r="R61">
+      <c r="Z61">
         <v>2.938064385498272</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="AA61">
+        <v>0.67375</v>
+      </c>
+      <c r="AB61">
+        <v>0.02677529956259435</v>
+      </c>
+      <c r="AC61">
+        <v>0.137</v>
+      </c>
+      <c r="AD61">
+        <v>0.5415139271831643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3876,10 +6108,10 @@
         <v>0.01</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F62">
         <v>265.599</v>
@@ -3891,39 +6123,75 @@
         <v>19.787</v>
       </c>
       <c r="I62">
+        <v>0.654</v>
+      </c>
+      <c r="J62">
+        <v>-0.484</v>
+      </c>
+      <c r="K62">
         <v>17.739</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>18.659</v>
       </c>
-      <c r="K62">
+      <c r="M62">
+        <v>0.555</v>
+      </c>
+      <c r="N62">
+        <v>0.164</v>
+      </c>
+      <c r="O62">
         <v>16.742</v>
       </c>
-      <c r="L62">
+      <c r="P62">
         <v>15.97</v>
       </c>
-      <c r="M62">
+      <c r="Q62">
+        <v>0.613</v>
+      </c>
+      <c r="R62">
+        <v>0.375</v>
+      </c>
+      <c r="S62">
         <v>15.982</v>
       </c>
-      <c r="N62">
+      <c r="T62">
         <v>15.551</v>
       </c>
-      <c r="O62">
+      <c r="U62">
+        <v>0.647</v>
+      </c>
+      <c r="V62">
+        <v>0.538</v>
+      </c>
+      <c r="W62">
         <v>16.558</v>
       </c>
-      <c r="P62">
+      <c r="X62">
         <v>0.8912377161378818</v>
       </c>
-      <c r="Q62">
+      <c r="Y62">
         <v>17.49175</v>
       </c>
-      <c r="R62">
+      <c r="Z62">
         <v>2.058549550047314</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="AA62">
+        <v>0.6172500000000001</v>
+      </c>
+      <c r="AB62">
+        <v>0.04519863567262474</v>
+      </c>
+      <c r="AC62">
+        <v>0.14825</v>
+      </c>
+      <c r="AD62">
+        <v>0.4484449984855073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3932,10 +6200,10 @@
         <v>0.01</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>254.404</v>
@@ -3947,39 +6215,75 @@
         <v>20.094</v>
       </c>
       <c r="I63">
+        <v>0.667</v>
+      </c>
+      <c r="J63">
+        <v>-0.192</v>
+      </c>
+      <c r="K63">
         <v>15.052</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>18.976</v>
       </c>
-      <c r="K63">
+      <c r="M63">
+        <v>0.68</v>
+      </c>
+      <c r="N63">
+        <v>0.232</v>
+      </c>
+      <c r="O63">
         <v>15.764</v>
       </c>
-      <c r="L63">
+      <c r="P63">
         <v>15.528</v>
       </c>
-      <c r="M63">
+      <c r="Q63">
+        <v>0.661</v>
+      </c>
+      <c r="R63">
+        <v>0.391</v>
+      </c>
+      <c r="S63">
         <v>15.889</v>
       </c>
-      <c r="N63">
+      <c r="T63">
         <v>15.509</v>
       </c>
-      <c r="O63">
+      <c r="U63">
+        <v>0.651</v>
+      </c>
+      <c r="V63">
+        <v>0.555</v>
+      </c>
+      <c r="W63">
         <v>15.5515</v>
       </c>
-      <c r="P63">
+      <c r="X63">
         <v>0.3701859892900684</v>
       </c>
-      <c r="Q63">
+      <c r="Y63">
         <v>17.52675</v>
       </c>
-      <c r="R63">
+      <c r="Z63">
         <v>2.36343075140074</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="AA63">
+        <v>0.66475</v>
+      </c>
+      <c r="AB63">
+        <v>0.01212091855705115</v>
+      </c>
+      <c r="AC63">
+        <v>0.2465</v>
+      </c>
+      <c r="AD63">
+        <v>0.3206997557425533</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3988,10 +6292,10 @@
         <v>0.001</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F64">
         <v>262.373</v>
@@ -4003,39 +6307,75 @@
         <v>21.061</v>
       </c>
       <c r="I64">
+        <v>0.644</v>
+      </c>
+      <c r="J64">
+        <v>-0.361</v>
+      </c>
+      <c r="K64">
         <v>15.089</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>17.746</v>
       </c>
-      <c r="K64">
+      <c r="M64">
+        <v>0.676</v>
+      </c>
+      <c r="N64">
+        <v>0.305</v>
+      </c>
+      <c r="O64">
         <v>15.763</v>
       </c>
-      <c r="L64">
+      <c r="P64">
         <v>15.793</v>
       </c>
-      <c r="M64">
+      <c r="Q64">
+        <v>0.658</v>
+      </c>
+      <c r="R64">
+        <v>0.371</v>
+      </c>
+      <c r="S64">
         <v>16.063</v>
       </c>
-      <c r="N64">
+      <c r="T64">
         <v>15.585</v>
       </c>
-      <c r="O64">
+      <c r="U64">
+        <v>0.647</v>
+      </c>
+      <c r="V64">
+        <v>0.517</v>
+      </c>
+      <c r="W64">
         <v>15.7175</v>
       </c>
-      <c r="P64">
+      <c r="X64">
         <v>0.4369816929803805</v>
       </c>
-      <c r="Q64">
+      <c r="Y64">
         <v>17.54625</v>
       </c>
-      <c r="R64">
+      <c r="Z64">
         <v>2.537305312728447</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="AA64">
+        <v>0.65625</v>
+      </c>
+      <c r="AB64">
+        <v>0.01447699324215266</v>
+      </c>
+      <c r="AC64">
+        <v>0.208</v>
+      </c>
+      <c r="AD64">
+        <v>0.3895381881151064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -4044,10 +6384,10 @@
         <v>0.001</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>241.46</v>
@@ -4059,39 +6399,75 @@
         <v>21.872</v>
       </c>
       <c r="I65">
+        <v>0.675</v>
+      </c>
+      <c r="J65">
+        <v>-0.589</v>
+      </c>
+      <c r="K65">
         <v>14.726</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>17.653</v>
       </c>
-      <c r="K65">
+      <c r="M65">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.268</v>
+      </c>
+      <c r="O65">
         <v>15.467</v>
       </c>
-      <c r="L65">
+      <c r="P65">
         <v>16.442</v>
       </c>
-      <c r="M65">
+      <c r="Q65">
+        <v>0.672</v>
+      </c>
+      <c r="R65">
+        <v>0.381</v>
+      </c>
+      <c r="S65">
         <v>15.495</v>
       </c>
-      <c r="N65">
+      <c r="T65">
         <v>14.505</v>
       </c>
-      <c r="O65">
+      <c r="U65">
+        <v>0.669</v>
+      </c>
+      <c r="V65">
+        <v>0.553</v>
+      </c>
+      <c r="W65">
         <v>15.2335</v>
       </c>
-      <c r="P65">
+      <c r="X65">
         <v>0.3561914279335383</v>
       </c>
-      <c r="Q65">
+      <c r="Y65">
         <v>17.618</v>
       </c>
-      <c r="R65">
+      <c r="Z65">
         <v>3.118305415873606</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="AA65">
+        <v>0.6767500000000001</v>
+      </c>
+      <c r="AB65">
+        <v>0.009810708435174247</v>
+      </c>
+      <c r="AC65">
+        <v>0.15325</v>
+      </c>
+      <c r="AD65">
+        <v>0.5085183543065743</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4100,10 +6476,10 @@
         <v>0.001</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>256.981</v>
@@ -4115,39 +6491,75 @@
         <v>20.903</v>
       </c>
       <c r="I66">
+        <v>0.661</v>
+      </c>
+      <c r="J66">
+        <v>-0.706</v>
+      </c>
+      <c r="K66">
         <v>15.12</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>18.584</v>
       </c>
-      <c r="K66">
+      <c r="M66">
+        <v>0.677</v>
+      </c>
+      <c r="N66">
+        <v>0.198</v>
+      </c>
+      <c r="O66">
         <v>16.658</v>
       </c>
-      <c r="L66">
+      <c r="P66">
         <v>16.456</v>
       </c>
-      <c r="M66">
+      <c r="Q66">
+        <v>0.62</v>
+      </c>
+      <c r="R66">
+        <v>0.284</v>
+      </c>
+      <c r="S66">
         <v>16.125</v>
       </c>
-      <c r="N66">
+      <c r="T66">
         <v>14.882</v>
       </c>
-      <c r="O66">
+      <c r="U66">
+        <v>0.645</v>
+      </c>
+      <c r="V66">
+        <v>0.573</v>
+      </c>
+      <c r="W66">
         <v>15.89175</v>
       </c>
-      <c r="P66">
+      <c r="X66">
         <v>0.6554928807139462</v>
       </c>
-      <c r="Q66">
+      <c r="Y66">
         <v>17.70625</v>
       </c>
-      <c r="R66">
+      <c r="Z66">
         <v>2.615923594067686</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="AA66">
+        <v>0.6507500000000001</v>
+      </c>
+      <c r="AB66">
+        <v>0.02430877756421881</v>
+      </c>
+      <c r="AC66">
+        <v>0.08724999999999998</v>
+      </c>
+      <c r="AD66">
+        <v>0.5526224600333697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -4156,10 +6568,10 @@
         <v>0.01</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F67">
         <v>247.851</v>
@@ -4171,39 +6583,75 @@
         <v>21.419</v>
       </c>
       <c r="I67">
+        <v>0.676</v>
+      </c>
+      <c r="J67">
+        <v>-0.574</v>
+      </c>
+      <c r="K67">
         <v>15.317</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>18.011</v>
       </c>
-      <c r="K67">
+      <c r="M67">
+        <v>0.67</v>
+      </c>
+      <c r="N67">
+        <v>0.201</v>
+      </c>
+      <c r="O67">
         <v>16.317</v>
       </c>
-      <c r="L67">
+      <c r="P67">
         <v>16.125</v>
       </c>
-      <c r="M67">
+      <c r="Q67">
+        <v>0.632</v>
+      </c>
+      <c r="R67">
+        <v>0.368</v>
+      </c>
+      <c r="S67">
         <v>16.061</v>
       </c>
-      <c r="N67">
+      <c r="T67">
         <v>15.341</v>
       </c>
-      <c r="O67">
+      <c r="U67">
+        <v>0.646</v>
+      </c>
+      <c r="V67">
+        <v>0.547</v>
+      </c>
+      <c r="W67">
         <v>15.74725</v>
       </c>
-      <c r="P67">
+      <c r="X67">
         <v>0.5207701828382009</v>
       </c>
-      <c r="Q67">
+      <c r="Y67">
         <v>17.724</v>
       </c>
-      <c r="R67">
+      <c r="Z67">
         <v>2.706220242330621</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="AA67">
+        <v>0.656</v>
+      </c>
+      <c r="AB67">
+        <v>0.02059126028197402</v>
+      </c>
+      <c r="AC67">
+        <v>0.1355</v>
+      </c>
+      <c r="AD67">
+        <v>0.4936493357299964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4212,10 +6660,10 @@
         <v>0.0001</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F68">
         <v>234.7</v>
@@ -4227,39 +6675,75 @@
         <v>21.973</v>
       </c>
       <c r="I68">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="J68">
+        <v>-0.483</v>
+      </c>
+      <c r="K68">
         <v>16.588</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>19.482</v>
       </c>
-      <c r="K68">
+      <c r="M68">
+        <v>0.613</v>
+      </c>
+      <c r="N68">
+        <v>0.175</v>
+      </c>
+      <c r="O68">
         <v>16.731</v>
       </c>
-      <c r="L68">
+      <c r="P68">
         <v>15.221</v>
       </c>
-      <c r="M68">
+      <c r="Q68">
+        <v>0.615</v>
+      </c>
+      <c r="R68">
+        <v>0.464</v>
+      </c>
+      <c r="S68">
         <v>16.239</v>
       </c>
-      <c r="N68">
+      <c r="T68">
         <v>14.279</v>
       </c>
-      <c r="O68">
+      <c r="U68">
+        <v>0.633</v>
+      </c>
+      <c r="V68">
+        <v>0.614</v>
+      </c>
+      <c r="W68">
         <v>16.096</v>
       </c>
-      <c r="P68">
+      <c r="X68">
         <v>0.8715193629518513</v>
       </c>
-      <c r="Q68">
+      <c r="Y68">
         <v>17.73875</v>
       </c>
-      <c r="R68">
+      <c r="Z68">
         <v>3.618320455220442</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="AA68">
+        <v>0.6375</v>
+      </c>
+      <c r="AB68">
+        <v>0.03549178308660562</v>
+      </c>
+      <c r="AC68">
+        <v>0.1925</v>
+      </c>
+      <c r="AD68">
+        <v>0.4857917935357355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4268,10 +6752,10 @@
         <v>0.001</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F69">
         <v>258.368</v>
@@ -4283,39 +6767,75 @@
         <v>21.262</v>
       </c>
       <c r="I69">
+        <v>0.656</v>
+      </c>
+      <c r="J69">
+        <v>-0.719</v>
+      </c>
+      <c r="K69">
         <v>16.656</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>18.248</v>
       </c>
-      <c r="K69">
+      <c r="M69">
+        <v>0.612</v>
+      </c>
+      <c r="N69">
+        <v>0.214</v>
+      </c>
+      <c r="O69">
         <v>17.142</v>
       </c>
-      <c r="L69">
+      <c r="P69">
         <v>15.468</v>
       </c>
-      <c r="M69">
+      <c r="Q69">
+        <v>0.598</v>
+      </c>
+      <c r="R69">
+        <v>0.436</v>
+      </c>
+      <c r="S69">
         <v>17.127</v>
       </c>
-      <c r="N69">
+      <c r="T69">
         <v>15.981</v>
       </c>
-      <c r="O69">
+      <c r="U69">
+        <v>0.596</v>
+      </c>
+      <c r="V69">
+        <v>0.52</v>
+      </c>
+      <c r="W69">
         <v>16.6735</v>
       </c>
-      <c r="P69">
+      <c r="X69">
         <v>0.6438377124710849</v>
       </c>
-      <c r="Q69">
+      <c r="Y69">
         <v>17.73975</v>
       </c>
-      <c r="R69">
+      <c r="Z69">
         <v>2.640619419126253</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="AA69">
+        <v>0.6155</v>
+      </c>
+      <c r="AB69">
+        <v>0.02792251182588465</v>
+      </c>
+      <c r="AC69">
+        <v>0.11275</v>
+      </c>
+      <c r="AD69">
+        <v>0.5693278932214721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4324,10 +6844,10 @@
         <v>0.001</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F70">
         <v>261.989</v>
@@ -4339,39 +6859,75 @@
         <v>21.371</v>
       </c>
       <c r="I70">
+        <v>0.648</v>
+      </c>
+      <c r="J70">
+        <v>-0.521</v>
+      </c>
+      <c r="K70">
         <v>15.903</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>17.968</v>
       </c>
-      <c r="K70">
+      <c r="M70">
+        <v>0.644</v>
+      </c>
+      <c r="N70">
+        <v>0.279</v>
+      </c>
+      <c r="O70">
         <v>16.802</v>
       </c>
-      <c r="L70">
+      <c r="P70">
         <v>16.387</v>
       </c>
-      <c r="M70">
+      <c r="Q70">
+        <v>0.61</v>
+      </c>
+      <c r="R70">
+        <v>0.272</v>
+      </c>
+      <c r="S70">
         <v>16.438</v>
       </c>
-      <c r="N70">
+      <c r="T70">
         <v>15.478</v>
       </c>
-      <c r="O70">
+      <c r="U70">
+        <v>0.627</v>
+      </c>
+      <c r="V70">
+        <v>0.538</v>
+      </c>
+      <c r="W70">
         <v>16.2695</v>
       </c>
-      <c r="P70">
+      <c r="X70">
         <v>0.4313393868714822</v>
       </c>
-      <c r="Q70">
+      <c r="Y70">
         <v>17.801</v>
       </c>
-      <c r="R70">
+      <c r="Z70">
         <v>2.592843612715583</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="AA70">
+        <v>0.63225</v>
+      </c>
+      <c r="AB70">
+        <v>0.01740450133346736</v>
+      </c>
+      <c r="AC70">
+        <v>0.142</v>
+      </c>
+      <c r="AD70">
+        <v>0.4590039941728903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4380,10 +6936,10 @@
         <v>0.01</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F71">
         <v>266.322</v>
@@ -4395,39 +6951,75 @@
         <v>20.789</v>
       </c>
       <c r="I71">
+        <v>0.659</v>
+      </c>
+      <c r="J71">
+        <v>-0.529</v>
+      </c>
+      <c r="K71">
         <v>17.62</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>18.597</v>
       </c>
-      <c r="K71">
+      <c r="M71">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N71">
+        <v>0.247</v>
+      </c>
+      <c r="O71">
         <v>17</v>
       </c>
-      <c r="L71">
+      <c r="P71">
         <v>17.106</v>
       </c>
-      <c r="M71">
+      <c r="Q71">
+        <v>0.607</v>
+      </c>
+      <c r="R71">
+        <v>0.366</v>
+      </c>
+      <c r="S71">
         <v>16.735</v>
       </c>
-      <c r="N71">
+      <c r="T71">
         <v>14.899</v>
       </c>
-      <c r="O71">
+      <c r="U71">
+        <v>0.612</v>
+      </c>
+      <c r="V71">
+        <v>0.575</v>
+      </c>
+      <c r="W71">
         <v>16.75925</v>
       </c>
-      <c r="P71">
+      <c r="X71">
         <v>0.8082711488108433</v>
       </c>
-      <c r="Q71">
+      <c r="Y71">
         <v>17.84775</v>
       </c>
-      <c r="R71">
+      <c r="Z71">
         <v>2.480433211490822</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="AA71">
+        <v>0.61075</v>
+      </c>
+      <c r="AB71">
+        <v>0.03845668559128139</v>
+      </c>
+      <c r="AC71">
+        <v>0.16475</v>
+      </c>
+      <c r="AD71">
+        <v>0.4819615302767086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -4436,10 +7028,10 @@
         <v>0.01</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F72">
         <v>236.035</v>
@@ -4451,39 +7043,75 @@
         <v>19.481</v>
       </c>
       <c r="I72">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="J72">
+        <v>-0.501</v>
+      </c>
+      <c r="K72">
         <v>14.201</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>18.573</v>
       </c>
-      <c r="K72">
+      <c r="M72">
+        <v>0.715</v>
+      </c>
+      <c r="N72">
+        <v>0.146</v>
+      </c>
+      <c r="O72">
         <v>15.412</v>
       </c>
-      <c r="L72">
+      <c r="P72">
         <v>18.274</v>
       </c>
-      <c r="M72">
+      <c r="Q72">
+        <v>0.67</v>
+      </c>
+      <c r="R72">
+        <v>0.292</v>
+      </c>
+      <c r="S72">
         <v>16.085</v>
       </c>
-      <c r="N72">
+      <c r="T72">
         <v>15.127</v>
       </c>
-      <c r="O72">
+      <c r="U72">
+        <v>0.634</v>
+      </c>
+      <c r="V72">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="W72">
         <v>15.16025</v>
       </c>
-      <c r="P72">
+      <c r="X72">
         <v>0.7928637440737639</v>
       </c>
-      <c r="Q72">
+      <c r="Y72">
         <v>17.86375</v>
       </c>
-      <c r="R72">
+      <c r="Z72">
         <v>1.895313408559826</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="AA72">
+        <v>0.6769999999999999</v>
+      </c>
+      <c r="AB72">
+        <v>0.0340881210981186</v>
+      </c>
+      <c r="AC72">
+        <v>0.124</v>
+      </c>
+      <c r="AD72">
+        <v>0.4503916813915047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4492,10 +7120,10 @@
         <v>0.01</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F73">
         <v>255.465</v>
@@ -4507,39 +7135,75 @@
         <v>20.398</v>
       </c>
       <c r="I73">
+        <v>0.663</v>
+      </c>
+      <c r="J73">
+        <v>-0.575</v>
+      </c>
+      <c r="K73">
         <v>14.61</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>18.321</v>
       </c>
-      <c r="K73">
+      <c r="M73">
+        <v>0.698</v>
+      </c>
+      <c r="N73">
+        <v>0.226</v>
+      </c>
+      <c r="O73">
         <v>15.772</v>
       </c>
-      <c r="L73">
+      <c r="P73">
         <v>18.103</v>
       </c>
-      <c r="M73">
+      <c r="Q73">
+        <v>0.656</v>
+      </c>
+      <c r="R73">
+        <v>0.241</v>
+      </c>
+      <c r="S73">
         <v>15.713</v>
       </c>
-      <c r="N73">
+      <c r="T73">
         <v>14.659</v>
       </c>
-      <c r="O73">
+      <c r="U73">
+        <v>0.657</v>
+      </c>
+      <c r="V73">
+        <v>0.586</v>
+      </c>
+      <c r="W73">
         <v>15.40925</v>
       </c>
-      <c r="P73">
+      <c r="X73">
         <v>0.5416871021786164</v>
       </c>
-      <c r="Q73">
+      <c r="Y73">
         <v>17.87025</v>
       </c>
-      <c r="R73">
+      <c r="Z73">
         <v>2.377603467780109</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="AA73">
+        <v>0.6685</v>
+      </c>
+      <c r="AB73">
+        <v>0.01990812229551878</v>
+      </c>
+      <c r="AC73">
+        <v>0.1195</v>
+      </c>
+      <c r="AD73">
+        <v>0.4919542661670899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4548,10 +7212,10 @@
         <v>0.001</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F74">
         <v>271.476</v>
@@ -4563,39 +7227,75 @@
         <v>22.34</v>
       </c>
       <c r="I74">
+        <v>0.642</v>
+      </c>
+      <c r="J74">
+        <v>-0.708</v>
+      </c>
+      <c r="K74">
         <v>15.281</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>17.974</v>
       </c>
-      <c r="K74">
+      <c r="M74">
+        <v>0.67</v>
+      </c>
+      <c r="N74">
+        <v>0.313</v>
+      </c>
+      <c r="O74">
         <v>16.237</v>
       </c>
-      <c r="L74">
+      <c r="P74">
         <v>15.605</v>
       </c>
-      <c r="M74">
+      <c r="Q74">
+        <v>0.637</v>
+      </c>
+      <c r="R74">
+        <v>0.396</v>
+      </c>
+      <c r="S74">
         <v>16.212</v>
       </c>
-      <c r="N74">
+      <c r="T74">
         <v>15.896</v>
       </c>
-      <c r="O74">
+      <c r="U74">
+        <v>0.64</v>
+      </c>
+      <c r="V74">
+        <v>0.5</v>
+      </c>
+      <c r="W74">
         <v>15.92175</v>
       </c>
-      <c r="P74">
+      <c r="X74">
         <v>0.4455074821668723</v>
       </c>
-      <c r="Q74">
+      <c r="Y74">
         <v>17.95375</v>
       </c>
-      <c r="R74">
+      <c r="Z74">
         <v>3.108620312936271</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="AA74">
+        <v>0.64725</v>
+      </c>
+      <c r="AB74">
+        <v>0.01530522786501398</v>
+      </c>
+      <c r="AC74">
+        <v>0.12525</v>
+      </c>
+      <c r="AD74">
+        <v>0.5607431824522405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4604,10 +7304,10 @@
         <v>0.001</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F75">
         <v>268.949</v>
@@ -4619,39 +7319,75 @@
         <v>22.175</v>
       </c>
       <c r="I75">
+        <v>0.641</v>
+      </c>
+      <c r="J75">
+        <v>-0.715</v>
+      </c>
+      <c r="K75">
         <v>15.521</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>18.599</v>
       </c>
-      <c r="K75">
+      <c r="M75">
+        <v>0.66</v>
+      </c>
+      <c r="N75">
+        <v>0.214</v>
+      </c>
+      <c r="O75">
         <v>17.09</v>
       </c>
-      <c r="L75">
+      <c r="P75">
         <v>16.651</v>
       </c>
-      <c r="M75">
+      <c r="Q75">
+        <v>0.6</v>
+      </c>
+      <c r="R75">
+        <v>0.346</v>
+      </c>
+      <c r="S75">
         <v>16.584</v>
       </c>
-      <c r="N75">
+      <c r="T75">
         <v>14.676</v>
       </c>
-      <c r="O75">
+      <c r="U75">
+        <v>0.62</v>
+      </c>
+      <c r="V75">
+        <v>0.59</v>
+      </c>
+      <c r="W75">
         <v>16.30775</v>
       </c>
-      <c r="P75">
+      <c r="X75">
         <v>0.678491648192272</v>
       </c>
-      <c r="Q75">
+      <c r="Y75">
         <v>18.02525</v>
       </c>
-      <c r="R75">
+      <c r="Z75">
         <v>3.196646823886973</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="AA75">
+        <v>0.6302500000000001</v>
+      </c>
+      <c r="AB75">
+        <v>0.02595348403072956</v>
+      </c>
+      <c r="AC75">
+        <v>0.10875</v>
+      </c>
+      <c r="AD75">
+        <v>0.5708271045888881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4660,10 +7396,10 @@
         <v>0.01</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F76">
         <v>273.72</v>
@@ -4675,39 +7411,75 @@
         <v>20.319</v>
       </c>
       <c r="I76">
+        <v>0.656</v>
+      </c>
+      <c r="J76">
+        <v>-0.353</v>
+      </c>
+      <c r="K76">
         <v>20.076</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>20.287</v>
       </c>
-      <c r="K76">
+      <c r="M76">
+        <v>0.438</v>
+      </c>
+      <c r="N76">
+        <v>0.211</v>
+      </c>
+      <c r="O76">
         <v>15.575</v>
       </c>
-      <c r="L76">
+      <c r="P76">
         <v>15.016</v>
       </c>
-      <c r="M76">
+      <c r="Q76">
+        <v>0.67</v>
+      </c>
+      <c r="R76">
+        <v>0.43</v>
+      </c>
+      <c r="S76">
         <v>15.716</v>
       </c>
-      <c r="N76">
+      <c r="T76">
         <v>16.552</v>
       </c>
-      <c r="O76">
+      <c r="U76">
+        <v>0.655</v>
+      </c>
+      <c r="V76">
+        <v>0.474</v>
+      </c>
+      <c r="W76">
         <v>16.765</v>
       </c>
-      <c r="P76">
+      <c r="X76">
         <v>2.20819730398652</v>
       </c>
-      <c r="Q76">
+      <c r="Y76">
         <v>18.0435</v>
       </c>
-      <c r="R76">
+      <c r="Z76">
         <v>2.683376045208721</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="AA76">
+        <v>0.6047500000000001</v>
+      </c>
+      <c r="AB76">
+        <v>0.1113773615537137</v>
+      </c>
+      <c r="AC76">
+        <v>0.1905</v>
+      </c>
+      <c r="AD76">
+        <v>0.3801512856745324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -4716,10 +7488,10 @@
         <v>0.001</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F77">
         <v>299.575</v>
@@ -4731,39 +7503,75 @@
         <v>21.918</v>
       </c>
       <c r="I77">
+        <v>0.625</v>
+      </c>
+      <c r="J77">
+        <v>-0.634</v>
+      </c>
+      <c r="K77">
         <v>17.873</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>18.452</v>
       </c>
-      <c r="K77">
+      <c r="M77">
+        <v>0.548</v>
+      </c>
+      <c r="N77">
+        <v>0.206</v>
+      </c>
+      <c r="O77">
         <v>17.809</v>
       </c>
-      <c r="L77">
+      <c r="P77">
         <v>16.65</v>
       </c>
-      <c r="M77">
+      <c r="Q77">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="R77">
+        <v>0.353</v>
+      </c>
+      <c r="S77">
         <v>18.484</v>
       </c>
-      <c r="N77">
+      <c r="T77">
         <v>15.23</v>
       </c>
-      <c r="O77">
+      <c r="U77">
+        <v>0.532</v>
+      </c>
+      <c r="V77">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="W77">
         <v>17.642</v>
       </c>
-      <c r="P77">
+      <c r="X77">
         <v>0.8808734301816581</v>
       </c>
-      <c r="Q77">
+      <c r="Y77">
         <v>18.0625</v>
       </c>
-      <c r="R77">
+      <c r="Z77">
         <v>2.888759999261505</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="AA77">
+        <v>0.5680000000000001</v>
+      </c>
+      <c r="AB77">
+        <v>0.04060377650744652</v>
+      </c>
+      <c r="AC77">
+        <v>0.1205</v>
+      </c>
+      <c r="AD77">
+        <v>0.5231854355771002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -4772,10 +7580,10 @@
         <v>0.001</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F78">
         <v>280.403</v>
@@ -4787,39 +7595,75 @@
         <v>22.839</v>
       </c>
       <c r="I78">
+        <v>0.629</v>
+      </c>
+      <c r="J78">
+        <v>-0.572</v>
+      </c>
+      <c r="K78">
         <v>15.579</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>17.951</v>
       </c>
-      <c r="K78">
+      <c r="M78">
+        <v>0.658</v>
+      </c>
+      <c r="N78">
+        <v>0.275</v>
+      </c>
+      <c r="O78">
         <v>16.922</v>
       </c>
-      <c r="L78">
+      <c r="P78">
         <v>16.023</v>
       </c>
-      <c r="M78">
+      <c r="Q78">
+        <v>0.607</v>
+      </c>
+      <c r="R78">
+        <v>0.355</v>
+      </c>
+      <c r="S78">
         <v>16.175</v>
       </c>
-      <c r="N78">
+      <c r="T78">
         <v>15.683</v>
       </c>
-      <c r="O78">
+      <c r="U78">
+        <v>0.639</v>
+      </c>
+      <c r="V78">
+        <v>0.519</v>
+      </c>
+      <c r="W78">
         <v>16.24775</v>
       </c>
-      <c r="P78">
+      <c r="X78">
         <v>0.5512575774233553</v>
       </c>
-      <c r="Q78">
+      <c r="Y78">
         <v>18.124</v>
       </c>
-      <c r="R78">
+      <c r="Z78">
         <v>3.298173029623117</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="AA78">
+        <v>0.63325</v>
+      </c>
+      <c r="AB78">
+        <v>0.02123479848424909</v>
+      </c>
+      <c r="AC78">
+        <v>0.14425</v>
+      </c>
+      <c r="AD78">
+        <v>0.4881812334232715</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4828,10 +7672,10 @@
         <v>0.01</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F79">
         <v>271.956</v>
@@ -4843,39 +7687,75 @@
         <v>21.757</v>
       </c>
       <c r="I79">
+        <v>0.644</v>
+      </c>
+      <c r="J79">
+        <v>-0.508</v>
+      </c>
+      <c r="K79">
         <v>17.872</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>18.591</v>
       </c>
-      <c r="K79">
+      <c r="M79">
+        <v>0.548</v>
+      </c>
+      <c r="N79">
+        <v>0.238</v>
+      </c>
+      <c r="O79">
         <v>17.228</v>
       </c>
-      <c r="L79">
+      <c r="P79">
         <v>16.832</v>
       </c>
-      <c r="M79">
+      <c r="Q79">
+        <v>0.592</v>
+      </c>
+      <c r="R79">
+        <v>0.321</v>
+      </c>
+      <c r="S79">
         <v>18.669</v>
       </c>
-      <c r="N79">
+      <c r="T79">
         <v>15.535</v>
       </c>
-      <c r="O79">
+      <c r="U79">
+        <v>0.517</v>
+      </c>
+      <c r="V79">
+        <v>0.521</v>
+      </c>
+      <c r="W79">
         <v>17.4545</v>
       </c>
-      <c r="P79">
+      <c r="X79">
         <v>1.106955133086553</v>
       </c>
-      <c r="Q79">
+      <c r="Y79">
         <v>18.17875</v>
       </c>
-      <c r="R79">
+      <c r="Z79">
         <v>2.694251457579019</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="AA79">
+        <v>0.57525</v>
+      </c>
+      <c r="AB79">
+        <v>0.05520492127820972</v>
+      </c>
+      <c r="AC79">
+        <v>0.143</v>
+      </c>
+      <c r="AD79">
+        <v>0.4499607390280475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4884,10 +7764,10 @@
         <v>0.01</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F80">
         <v>283.769</v>
@@ -4899,39 +7779,75 @@
         <v>22.017</v>
       </c>
       <c r="I80">
+        <v>0.63</v>
+      </c>
+      <c r="J80">
+        <v>-0.576</v>
+      </c>
+      <c r="K80">
         <v>16.944</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>19.296</v>
       </c>
-      <c r="K80">
+      <c r="M80">
+        <v>0.594</v>
+      </c>
+      <c r="N80">
+        <v>0.169</v>
+      </c>
+      <c r="O80">
         <v>17.572</v>
       </c>
-      <c r="L80">
+      <c r="P80">
         <v>16.4</v>
       </c>
-      <c r="M80">
+      <c r="Q80">
+        <v>0.578</v>
+      </c>
+      <c r="R80">
+        <v>0.359</v>
+      </c>
+      <c r="S80">
         <v>17.091</v>
       </c>
-      <c r="N80">
+      <c r="T80">
         <v>15.273</v>
       </c>
-      <c r="O80">
+      <c r="U80">
+        <v>0.596</v>
+      </c>
+      <c r="V80">
+        <v>0.545</v>
+      </c>
+      <c r="W80">
         <v>16.98375</v>
       </c>
-      <c r="P80">
+      <c r="X80">
         <v>0.5128770970385271</v>
       </c>
-      <c r="Q80">
+      <c r="Y80">
         <v>18.2465</v>
       </c>
-      <c r="R80">
+      <c r="Z80">
         <v>3.03146746642612</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="AA80">
+        <v>0.5995</v>
+      </c>
+      <c r="AB80">
+        <v>0.02187083293643235</v>
+      </c>
+      <c r="AC80">
+        <v>0.12425</v>
+      </c>
+      <c r="AD80">
+        <v>0.491423357876553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4940,10 +7856,10 @@
         <v>0.001</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F81">
         <v>290.755</v>
@@ -4955,39 +7871,75 @@
         <v>22.906</v>
       </c>
       <c r="I81">
+        <v>0.617</v>
+      </c>
+      <c r="J81">
+        <v>-0.435</v>
+      </c>
+      <c r="K81">
         <v>16.154</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>18.907</v>
       </c>
-      <c r="K81">
+      <c r="M81">
+        <v>0.63</v>
+      </c>
+      <c r="N81">
+        <v>0.234</v>
+      </c>
+      <c r="O81">
         <v>17.373</v>
       </c>
-      <c r="L81">
+      <c r="P81">
         <v>15.527</v>
       </c>
-      <c r="M81">
+      <c r="Q81">
+        <v>0.584</v>
+      </c>
+      <c r="R81">
+        <v>0.425</v>
+      </c>
+      <c r="S81">
         <v>17.016</v>
       </c>
-      <c r="N81">
+      <c r="T81">
         <v>15.695</v>
       </c>
-      <c r="O81">
+      <c r="U81">
+        <v>0.603</v>
+      </c>
+      <c r="V81">
+        <v>0.531</v>
+      </c>
+      <c r="W81">
         <v>16.79225</v>
       </c>
-      <c r="P81">
+      <c r="X81">
         <v>0.5235573034539773</v>
       </c>
-      <c r="Q81">
+      <c r="Y81">
         <v>18.25875</v>
       </c>
-      <c r="R81">
+      <c r="Z81">
         <v>3.466623369120639</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="AA81">
+        <v>0.6085</v>
+      </c>
+      <c r="AB81">
+        <v>0.01970617500514329</v>
+      </c>
+      <c r="AC81">
+        <v>0.18875</v>
+      </c>
+      <c r="AD81">
+        <v>0.4336130187159975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4996,10 +7948,10 @@
         <v>0.001</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F82">
         <v>329.733</v>
@@ -5011,39 +7963,75 @@
         <v>21.309</v>
       </c>
       <c r="I82">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="J82">
+        <v>-0.627</v>
+      </c>
+      <c r="K82">
         <v>17.022</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>18.502</v>
       </c>
-      <c r="K82">
+      <c r="M82">
+        <v>0.592</v>
+      </c>
+      <c r="N82">
+        <v>0.238</v>
+      </c>
+      <c r="O82">
         <v>19.375</v>
       </c>
-      <c r="L82">
+      <c r="P82">
         <v>17.514</v>
       </c>
-      <c r="M82">
+      <c r="Q82">
+        <v>0.487</v>
+      </c>
+      <c r="R82">
+        <v>0.312</v>
+      </c>
+      <c r="S82">
         <v>19.376</v>
       </c>
-      <c r="N82">
+      <c r="T82">
         <v>16.596</v>
       </c>
-      <c r="O82">
+      <c r="U82">
+        <v>0.482</v>
+      </c>
+      <c r="V82">
+        <v>0.468</v>
+      </c>
+      <c r="W82">
         <v>18.403</v>
       </c>
-      <c r="P82">
+      <c r="X82">
         <v>1.171433594646606</v>
       </c>
-      <c r="Q82">
+      <c r="Y82">
         <v>18.48025</v>
       </c>
-      <c r="R82">
+      <c r="Z82">
         <v>2.040125547607304</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="AA82">
+        <v>0.5297499999999999</v>
+      </c>
+      <c r="AB82">
+        <v>0.05410098581973038</v>
+      </c>
+      <c r="AC82">
+        <v>0.09775</v>
+      </c>
+      <c r="AD82">
+        <v>0.4925852718058062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -5052,10 +8040,10 @@
         <v>0.001</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F83">
         <v>298.161</v>
@@ -5067,39 +8055,75 @@
         <v>22.482</v>
       </c>
       <c r="I83">
+        <v>0.6</v>
+      </c>
+      <c r="J83">
+        <v>-0.656</v>
+      </c>
+      <c r="K83">
         <v>16.455</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>19.24</v>
       </c>
-      <c r="K83">
+      <c r="M83">
+        <v>0.618</v>
+      </c>
+      <c r="N83">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="O83">
         <v>18.98</v>
       </c>
-      <c r="L83">
+      <c r="P83">
         <v>17.254</v>
       </c>
-      <c r="M83">
+      <c r="Q83">
+        <v>0.507</v>
+      </c>
+      <c r="R83">
+        <v>0.302</v>
+      </c>
+      <c r="S83">
         <v>18.943</v>
       </c>
-      <c r="N83">
+      <c r="T83">
         <v>15.838</v>
       </c>
-      <c r="O83">
+      <c r="U83">
+        <v>0.507</v>
+      </c>
+      <c r="V83">
+        <v>0.497</v>
+      </c>
+      <c r="W83">
         <v>17.825</v>
       </c>
-      <c r="P83">
+      <c r="X83">
         <v>1.326179726382012</v>
       </c>
-      <c r="Q83">
+      <c r="Y83">
         <v>18.7035</v>
       </c>
-      <c r="R83">
+      <c r="Z83">
         <v>2.879643207065764</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="AA83">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="AB83">
+        <v>0.05934644049983115</v>
+      </c>
+      <c r="AC83">
+        <v>0.05749999999999998</v>
+      </c>
+      <c r="AD83">
+        <v>0.5042793537977405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -5108,10 +8132,10 @@
         <v>0.001</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F84">
         <v>332.766</v>
@@ -5123,39 +8147,75 @@
         <v>22.499</v>
       </c>
       <c r="I84">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="J84">
+        <v>-0.793</v>
+      </c>
+      <c r="K84">
         <v>18.492</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>19.122</v>
       </c>
-      <c r="K84">
+      <c r="M84">
+        <v>0.519</v>
+      </c>
+      <c r="N84">
+        <v>0.144</v>
+      </c>
+      <c r="O84">
         <v>19.199</v>
       </c>
-      <c r="L84">
+      <c r="P84">
         <v>17.324</v>
       </c>
-      <c r="M84">
+      <c r="Q84">
+        <v>0.497</v>
+      </c>
+      <c r="R84">
+        <v>0.277</v>
+      </c>
+      <c r="S84">
         <v>19.2</v>
       </c>
-      <c r="N84">
+      <c r="T84">
         <v>16.117</v>
       </c>
-      <c r="O84">
+      <c r="U84">
+        <v>0.497</v>
+      </c>
+      <c r="V84">
+        <v>0.469</v>
+      </c>
+      <c r="W84">
         <v>18.6735</v>
       </c>
-      <c r="P84">
+      <c r="X84">
         <v>0.6693442064189892</v>
       </c>
-      <c r="Q84">
+      <c r="Y84">
         <v>18.7655</v>
       </c>
-      <c r="R84">
+      <c r="Z84">
         <v>2.778404158265435</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="AA84">
+        <v>0.5185</v>
+      </c>
+      <c r="AB84">
+        <v>0.03017173069834303</v>
+      </c>
+      <c r="AC84">
+        <v>0.02424999999999999</v>
+      </c>
+      <c r="AD84">
+        <v>0.560928619938996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -5164,10 +8224,10 @@
         <v>0.001</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F85">
         <v>308.381</v>
@@ -5179,39 +8239,75 @@
         <v>23.503</v>
       </c>
       <c r="I85">
+        <v>0.587</v>
+      </c>
+      <c r="J85">
+        <v>-0.378</v>
+      </c>
+      <c r="K85">
         <v>18.054</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>19.735</v>
       </c>
-      <c r="K85">
+      <c r="M85">
+        <v>0.542</v>
+      </c>
+      <c r="N85">
+        <v>0.081</v>
+      </c>
+      <c r="O85">
         <v>18.923</v>
       </c>
-      <c r="L85">
+      <c r="P85">
         <v>17.123</v>
       </c>
-      <c r="M85">
+      <c r="Q85">
+        <v>0.508</v>
+      </c>
+      <c r="R85">
+        <v>0.325</v>
+      </c>
+      <c r="S85">
         <v>18.812</v>
       </c>
-      <c r="N85">
+      <c r="T85">
         <v>16.343</v>
       </c>
-      <c r="O85">
+      <c r="U85">
+        <v>0.513</v>
+      </c>
+      <c r="V85">
+        <v>0.449</v>
+      </c>
+      <c r="W85">
         <v>18.25875</v>
       </c>
-      <c r="P85">
+      <c r="X85">
         <v>0.7777957636809298</v>
       </c>
-      <c r="Q85">
+      <c r="Y85">
         <v>19.176</v>
       </c>
-      <c r="R85">
+      <c r="Z85">
         <v>3.228834051686976</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="AA85">
+        <v>0.5375</v>
+      </c>
+      <c r="AB85">
+        <v>0.03624453981866325</v>
+      </c>
+      <c r="AC85">
+        <v>0.11925</v>
+      </c>
+      <c r="AD85">
+        <v>0.3650519369441377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -5220,10 +8316,10 @@
         <v>0.0001</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F86">
         <v>303.557</v>
@@ -5235,39 +8331,75 @@
         <v>23.343</v>
       </c>
       <c r="I86">
+        <v>0.589</v>
+      </c>
+      <c r="J86">
+        <v>-0.729</v>
+      </c>
+      <c r="K86">
         <v>18.72</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>19.182</v>
       </c>
-      <c r="K86">
+      <c r="M86">
+        <v>0.507</v>
+      </c>
+      <c r="N86">
+        <v>0.187</v>
+      </c>
+      <c r="O86">
         <v>18.734</v>
       </c>
-      <c r="L86">
+      <c r="P86">
         <v>17.885</v>
       </c>
-      <c r="M86">
+      <c r="Q86">
+        <v>0.522</v>
+      </c>
+      <c r="R86">
+        <v>0.284</v>
+      </c>
+      <c r="S86">
         <v>18.651</v>
       </c>
-      <c r="N86">
+      <c r="T86">
         <v>16.701</v>
       </c>
-      <c r="O86">
+      <c r="U86">
+        <v>0.522</v>
+      </c>
+      <c r="V86">
+        <v>0.44</v>
+      </c>
+      <c r="W86">
         <v>18.33175</v>
       </c>
-      <c r="P86">
+      <c r="X86">
         <v>0.7407223388917958</v>
       </c>
-      <c r="Q86">
+      <c r="Y86">
         <v>19.27775</v>
       </c>
-      <c r="R86">
+      <c r="Z86">
         <v>2.893372815590828</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="AA86">
+        <v>0.535</v>
+      </c>
+      <c r="AB86">
+        <v>0.03668787265568826</v>
+      </c>
+      <c r="AC86">
+        <v>0.04549999999999998</v>
+      </c>
+      <c r="AD86">
+        <v>0.526746301996195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -5276,10 +8408,10 @@
         <v>0.01</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F87">
         <v>373.744</v>
@@ -5291,39 +8423,75 @@
         <v>21.701</v>
       </c>
       <c r="I87">
+        <v>0.532</v>
+      </c>
+      <c r="J87">
+        <v>-0.153</v>
+      </c>
+      <c r="K87">
         <v>19.703</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>19.645</v>
       </c>
-      <c r="K87">
+      <c r="M87">
+        <v>0.454</v>
+      </c>
+      <c r="N87">
+        <v>0.163</v>
+      </c>
+      <c r="O87">
         <v>16.591</v>
       </c>
-      <c r="L87">
+      <c r="P87">
         <v>18.748</v>
       </c>
-      <c r="M87">
+      <c r="Q87">
+        <v>0.622</v>
+      </c>
+      <c r="R87">
+        <v>0.165</v>
+      </c>
+      <c r="S87">
         <v>20.369</v>
       </c>
-      <c r="N87">
+      <c r="T87">
         <v>18.084</v>
       </c>
-      <c r="O87">
+      <c r="U87">
+        <v>0.432</v>
+      </c>
+      <c r="V87">
+        <v>0.411</v>
+      </c>
+      <c r="W87">
         <v>18.7585</v>
       </c>
-      <c r="P87">
+      <c r="X87">
         <v>1.666733631988026</v>
       </c>
-      <c r="Q87">
+      <c r="Y87">
         <v>19.5445</v>
       </c>
-      <c r="R87">
+      <c r="Z87">
         <v>1.573537945734601</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="AA87">
+        <v>0.51</v>
+      </c>
+      <c r="AB87">
+        <v>0.08611620056644394</v>
+      </c>
+      <c r="AC87">
+        <v>0.1465</v>
+      </c>
+      <c r="AD87">
+        <v>0.2311384866265244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -5332,10 +8500,10 @@
         <v>0.01</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F88">
         <v>410.927</v>
@@ -5347,39 +8515,75 @@
         <v>22.424</v>
       </c>
       <c r="I88">
+        <v>0.473</v>
+      </c>
+      <c r="J88">
+        <v>-0.543</v>
+      </c>
+      <c r="K88">
         <v>28.709</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>28.738</v>
       </c>
-      <c r="K88">
+      <c r="M88">
+        <v>-0.155</v>
+      </c>
+      <c r="N88">
+        <v>-0.514</v>
+      </c>
+      <c r="O88">
         <v>13.775</v>
       </c>
-      <c r="L88">
+      <c r="P88">
         <v>14.227</v>
       </c>
-      <c r="M88">
+      <c r="Q88">
+        <v>0.737</v>
+      </c>
+      <c r="R88">
+        <v>0.511</v>
+      </c>
+      <c r="S88">
         <v>13.985</v>
       </c>
-      <c r="N88">
+      <c r="T88">
         <v>14.27</v>
       </c>
-      <c r="O88">
+      <c r="U88">
+        <v>0.731</v>
+      </c>
+      <c r="V88">
+        <v>0.611</v>
+      </c>
+      <c r="W88">
         <v>18.99775</v>
       </c>
-      <c r="P88">
+      <c r="X88">
         <v>6.99971415487804</v>
       </c>
-      <c r="Q88">
+      <c r="Y88">
         <v>19.91475</v>
       </c>
-      <c r="R88">
+      <c r="Z88">
         <v>7.032301158463945</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="AA88">
+        <v>0.4465</v>
+      </c>
+      <c r="AB88">
+        <v>0.4194579835931127</v>
+      </c>
+      <c r="AC88">
+        <v>0.01625000000000001</v>
+      </c>
+      <c r="AD88">
+        <v>0.6304577041060461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5388,10 +8592,10 @@
         <v>0.01</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F89">
         <v>507.207</v>
@@ -5403,39 +8607,75 @@
         <v>24.836</v>
       </c>
       <c r="I89">
+        <v>0.388</v>
+      </c>
+      <c r="J89">
+        <v>-0.241</v>
+      </c>
+      <c r="K89">
         <v>20.791</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>22.031</v>
       </c>
-      <c r="K89">
+      <c r="M89">
+        <v>0.392</v>
+      </c>
+      <c r="N89">
+        <v>-0.103</v>
+      </c>
+      <c r="O89">
         <v>20.193</v>
       </c>
-      <c r="L89">
+      <c r="P89">
         <v>16.772</v>
       </c>
-      <c r="M89">
+      <c r="Q89">
+        <v>0.435</v>
+      </c>
+      <c r="R89">
+        <v>0.375</v>
+      </c>
+      <c r="S89">
         <v>19.659</v>
       </c>
-      <c r="N89">
+      <c r="T89">
         <v>19.651</v>
       </c>
-      <c r="O89">
+      <c r="U89">
+        <v>0.468</v>
+      </c>
+      <c r="V89">
+        <v>0.239</v>
+      </c>
+      <c r="W89">
         <v>20.39775</v>
       </c>
-      <c r="P89">
+      <c r="X89">
         <v>0.5902244629517378</v>
       </c>
-      <c r="Q89">
+      <c r="Y89">
         <v>20.8225</v>
       </c>
-      <c r="R89">
+      <c r="Z89">
         <v>3.432570319745832</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="AA89">
+        <v>0.42075</v>
+      </c>
+      <c r="AB89">
+        <v>0.03801205948993907</v>
+      </c>
+      <c r="AC89">
+        <v>0.0675</v>
+      </c>
+      <c r="AD89">
+        <v>0.2876404005003469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5444,10 +8684,10 @@
         <v>0.01</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F90">
         <v>1881.255</v>
@@ -5459,39 +8699,75 @@
         <v>39.97</v>
       </c>
       <c r="I90">
+        <v>-1.563</v>
+      </c>
+      <c r="J90">
+        <v>-1.759</v>
+      </c>
+      <c r="K90">
         <v>14.134</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>15.944</v>
       </c>
-      <c r="K90">
+      <c r="M90">
+        <v>0.717</v>
+      </c>
+      <c r="N90">
+        <v>0.39</v>
+      </c>
+      <c r="O90">
         <v>18.2</v>
       </c>
-      <c r="L90">
+      <c r="P90">
         <v>16.818</v>
       </c>
-      <c r="M90">
+      <c r="Q90">
+        <v>0.543</v>
+      </c>
+      <c r="R90">
+        <v>0.419</v>
+      </c>
+      <c r="S90">
         <v>13.421</v>
       </c>
-      <c r="N90">
+      <c r="T90">
         <v>13.458</v>
       </c>
-      <c r="O90">
+      <c r="U90">
+        <v>0.751</v>
+      </c>
+      <c r="V90">
+        <v>0.635</v>
+      </c>
+      <c r="W90">
         <v>22.2235</v>
       </c>
-      <c r="P90">
+      <c r="X90">
         <v>14.10166312886533</v>
       </c>
-      <c r="Q90">
+      <c r="Y90">
         <v>21.5475</v>
       </c>
-      <c r="R90">
+      <c r="Z90">
         <v>12.36387073964568</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="AA90">
+        <v>0.112</v>
+      </c>
+      <c r="AB90">
+        <v>1.120376722357261</v>
+      </c>
+      <c r="AC90">
+        <v>-0.07874999999999993</v>
+      </c>
+      <c r="AD90">
+        <v>1.125486672511052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -5500,10 +8776,10 @@
         <v>0.01</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F91">
         <v>706.9400000000001</v>
@@ -5515,39 +8791,75 @@
         <v>26.845</v>
       </c>
       <c r="I91">
+        <v>0.198</v>
+      </c>
+      <c r="J91">
+        <v>-0.371</v>
+      </c>
+      <c r="K91">
         <v>17.25</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>18.601</v>
       </c>
-      <c r="K91">
+      <c r="M91">
+        <v>0.579</v>
+      </c>
+      <c r="N91">
+        <v>0.271</v>
+      </c>
+      <c r="O91">
         <v>27.103</v>
       </c>
-      <c r="L91">
+      <c r="P91">
         <v>25.044</v>
       </c>
-      <c r="M91">
+      <c r="Q91">
+        <v>-0.003</v>
+      </c>
+      <c r="R91">
+        <v>-0.291</v>
+      </c>
+      <c r="S91">
         <v>17.423</v>
       </c>
-      <c r="N91">
+      <c r="T91">
         <v>16.372</v>
       </c>
-      <c r="O91">
+      <c r="U91">
+        <v>0.583</v>
+      </c>
+      <c r="V91">
+        <v>0.495</v>
+      </c>
+      <c r="W91">
         <v>21.44275</v>
       </c>
-      <c r="P91">
+      <c r="X91">
         <v>4.908833967111404</v>
       </c>
-      <c r="Q91">
+      <c r="Y91">
         <v>21.7155</v>
       </c>
-      <c r="R91">
+      <c r="Z91">
         <v>5.021413645578305</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="AA91">
+        <v>0.3392499999999999</v>
+      </c>
+      <c r="AB91">
+        <v>0.2909643448946966</v>
+      </c>
+      <c r="AC91">
+        <v>0.02600000000000001</v>
+      </c>
+      <c r="AD91">
+        <v>0.4235107239885825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -5556,10 +8868,10 @@
         <v>0.01</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F92">
         <v>675.894</v>
@@ -5571,39 +8883,75 @@
         <v>29.635</v>
       </c>
       <c r="I92">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J92">
+        <v>-1.217</v>
+      </c>
+      <c r="K92">
         <v>15.26</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>18.466</v>
       </c>
-      <c r="K92">
+      <c r="M92">
+        <v>0.672</v>
+      </c>
+      <c r="N92">
+        <v>0.23</v>
+      </c>
+      <c r="O92">
         <v>18.893</v>
       </c>
-      <c r="L92">
+      <c r="P92">
         <v>21.144</v>
       </c>
-      <c r="M92">
+      <c r="Q92">
+        <v>0.51</v>
+      </c>
+      <c r="R92">
+        <v>0.168</v>
+      </c>
+      <c r="S92">
         <v>18.871</v>
       </c>
-      <c r="N92">
+      <c r="T92">
         <v>18.641</v>
       </c>
-      <c r="O92">
+      <c r="U92">
+        <v>0.509</v>
+      </c>
+      <c r="V92">
+        <v>0.269</v>
+      </c>
+      <c r="W92">
         <v>19.68825</v>
       </c>
-      <c r="P92">
+      <c r="X92">
         <v>4.374181018583173</v>
       </c>
-      <c r="Q92">
+      <c r="Y92">
         <v>21.9715</v>
       </c>
-      <c r="R92">
+      <c r="Z92">
         <v>5.253403626856276</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="AA92">
+        <v>0.4445</v>
+      </c>
+      <c r="AB92">
+        <v>0.2503417663914674</v>
+      </c>
+      <c r="AC92">
+        <v>-0.1375</v>
+      </c>
+      <c r="AD92">
+        <v>0.7208673017044585</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5612,10 +8960,10 @@
         <v>0.01</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F93">
         <v>233.043</v>
@@ -5627,39 +8975,75 @@
         <v>20.298</v>
       </c>
       <c r="I93">
+        <v>0.712</v>
+      </c>
+      <c r="J93">
+        <v>-0.171</v>
+      </c>
+      <c r="K93">
         <v>42.453</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>41.648</v>
       </c>
-      <c r="K93">
+      <c r="M93">
+        <v>-1.516</v>
+      </c>
+      <c r="N93">
+        <v>-1.902</v>
+      </c>
+      <c r="O93">
         <v>15.574</v>
       </c>
-      <c r="L93">
+      <c r="P93">
         <v>15.237</v>
       </c>
-      <c r="M93">
+      <c r="Q93">
+        <v>0.664</v>
+      </c>
+      <c r="R93">
+        <v>0.39</v>
+      </c>
+      <c r="S93">
         <v>17.342</v>
       </c>
-      <c r="N93">
+      <c r="T93">
         <v>13.952</v>
       </c>
-      <c r="O93">
+      <c r="U93">
+        <v>0.584</v>
+      </c>
+      <c r="V93">
+        <v>0.631</v>
+      </c>
+      <c r="W93">
         <v>22.443</v>
       </c>
-      <c r="P93">
+      <c r="X93">
         <v>13.3945892309793</v>
       </c>
-      <c r="Q93">
+      <c r="Y93">
         <v>22.78375</v>
       </c>
-      <c r="R93">
+      <c r="Z93">
         <v>12.87105440837437</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="AA93">
+        <v>0.111</v>
+      </c>
+      <c r="AB93">
+        <v>1.08595088900619</v>
+      </c>
+      <c r="AC93">
+        <v>-0.263</v>
+      </c>
+      <c r="AD93">
+        <v>1.143157906852767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5668,10 +9052,10 @@
         <v>0.01</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F94">
         <v>65184181860.873</v>
@@ -5683,39 +9067,75 @@
         <v>36.563</v>
       </c>
       <c r="I94">
+        <v>-1.149</v>
+      </c>
+      <c r="J94">
+        <v>-1.217</v>
+      </c>
+      <c r="K94">
         <v>13.73</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>15.163</v>
       </c>
-      <c r="K94">
+      <c r="M94">
+        <v>0.732</v>
+      </c>
+      <c r="N94">
+        <v>0.46</v>
+      </c>
+      <c r="O94">
         <v>15.208</v>
       </c>
-      <c r="L94">
+      <c r="P94">
         <v>14.57</v>
       </c>
-      <c r="M94">
+      <c r="Q94">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="R94">
+        <v>0.437</v>
+      </c>
+      <c r="S94">
         <v>42.155</v>
       </c>
-      <c r="N94">
+      <c r="T94">
         <v>44.673</v>
       </c>
-      <c r="O94">
+      <c r="U94">
+        <v>-1.432</v>
+      </c>
+      <c r="V94">
+        <v>-3.265</v>
+      </c>
+      <c r="W94">
         <v>27.63275</v>
       </c>
-      <c r="P94">
+      <c r="X94">
         <v>15.25254670265483</v>
       </c>
-      <c r="Q94">
+      <c r="Y94">
         <v>27.74225</v>
       </c>
-      <c r="R94">
+      <c r="Z94">
         <v>15.23375229274346</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="AA94">
+        <v>-0.2915</v>
+      </c>
+      <c r="AB94">
+        <v>1.159489686600676</v>
+      </c>
+      <c r="AC94">
+        <v>-0.8962500000000001</v>
+      </c>
+      <c r="AD94">
+        <v>1.763597341609851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5724,10 +9144,10 @@
         <v>0.01</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F95">
         <v>369.019</v>
@@ -5739,34 +9159,70 @@
         <v>22.051</v>
       </c>
       <c r="I95">
+        <v>0.516</v>
+      </c>
+      <c r="J95">
+        <v>-0.058</v>
+      </c>
+      <c r="K95">
         <v>33.425</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>34.492</v>
       </c>
-      <c r="K95">
+      <c r="M95">
+        <v>-0.573</v>
+      </c>
+      <c r="N95">
+        <v>-1.499</v>
+      </c>
+      <c r="O95">
         <v>339095923</v>
       </c>
-      <c r="L95">
+      <c r="P95">
         <v>124342676.533</v>
       </c>
-      <c r="M95">
+      <c r="Q95">
+        <v>-168965571746982.2</v>
+      </c>
+      <c r="R95">
+        <v>-46021814119199.75</v>
+      </c>
+      <c r="S95">
         <v>22.591</v>
       </c>
-      <c r="N95">
+      <c r="T95">
         <v>22.125</v>
       </c>
-      <c r="O95">
+      <c r="U95">
+        <v>0.304</v>
+      </c>
+      <c r="V95">
+        <v>0.057</v>
+      </c>
+      <c r="W95">
         <v>84773999.4155</v>
       </c>
-      <c r="P95">
+      <c r="X95">
         <v>169547949.0563335</v>
       </c>
-      <c r="Q95">
+      <c r="Y95">
         <v>31085688.80025</v>
       </c>
-      <c r="R95">
+      <c r="Z95">
         <v>62171325.15516695</v>
+      </c>
+      <c r="AA95">
+        <v>-42241392936745.48</v>
+      </c>
+      <c r="AB95">
+        <v>84482785873491.14</v>
+      </c>
+      <c r="AC95">
+        <v>-11505453529800.31</v>
+      </c>
+      <c r="AD95">
+        <v>23010907059599.62</v>
       </c>
     </row>
   </sheetData>
